--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1057122235501907</v>
+        <v>0.1029163410946626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04578294229853175</v>
+        <v>0.0368447564340211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02977330876152287</v>
+        <v>0.05498503578633871</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05856655083231072</v>
+        <v>0.01914400502771067</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005797373656017387</v>
+        <v>0.005157794106546596</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006666249652066847</v>
+        <v>0.01742117024049487</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004165777179929094</v>
+        <v>0.001853466599799667</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01308210170505694</v>
+        <v>0.006587329443279138</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03338409021512179</v>
+        <v>0.05026689858869233</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06119881451809642</v>
+        <v>0.01463866966469684</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01533303816475359</v>
+        <v>0.0005636231825000613</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03683396052101547</v>
+        <v>0.06251516617404783</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03420117043296593</v>
+        <v>0.06326825388059998</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04321396822743193</v>
+        <v>0.01394852294388066</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05368304480059034</v>
+        <v>0.02834749897397511</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03661196035519601</v>
+        <v>0.05493013809020954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02155968214830469</v>
+        <v>0.05090720087066751</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05603048980732488</v>
+        <v>0.04202716381907816</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03110636328167697</v>
+        <v>0.03685432793448173</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04353564901199958</v>
+        <v>0.06488194345188776</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0128197372350048</v>
+        <v>0.009410852447489548</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01382044766024247</v>
+        <v>0.0253636312210493</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06252694221952383</v>
+        <v>0.07512918998343435</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05861736259806912</v>
+        <v>0.04874144192202195</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.04320407999543442</v>
+        <v>0.058277802975405</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02120238386234508</v>
+        <v>0.06709170854052643</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05104306783877312</v>
+        <v>0.008193029580547309</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.05341049776057438</v>
+        <v>0.02430486798667334</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.05282894526011949</v>
+        <v>0.05834451012994461</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06109865832633592</v>
+        <v>0.05420935847385534</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.144857609794246</v>
+        <v>0.1291500264919627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07545244503501428</v>
+        <v>0.04789444188628274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008947224831269561</v>
+        <v>0.02019948112610965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03444021502038756</v>
+        <v>0.06558781566159308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004438297562609655</v>
+        <v>0.004697628795550656</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008661892834712952</v>
+        <v>0.04006314828842543</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02472390308133561</v>
+        <v>0.01081487573069647</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05942805622576669</v>
+        <v>0.07144205995273553</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06822344261654749</v>
+        <v>0.07096509151294489</v>
       </c>
       <c r="N3" t="n">
-        <v>0.060325284818335</v>
+        <v>0.07457068692257061</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06603213057429376</v>
+        <v>0.009239388088091847</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001331342049841166</v>
+        <v>0.03576448067271158</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002992002251985958</v>
+        <v>0.07729183912836632</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06390425364245013</v>
+        <v>0.01073543878807031</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003570102792117594</v>
+        <v>0.001445065338286017</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01067556396482508</v>
+        <v>0.01916617704780141</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05911433086601581</v>
+        <v>0.04613094599634169</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07832546635097935</v>
+        <v>0.04421306513373158</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004958496150700672</v>
+        <v>0.07988859362554744</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02516264825126856</v>
+        <v>0.01944117823155601</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05502153864001512</v>
+        <v>0.005456558235576063</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0263916395658467</v>
+        <v>0.03343642922924773</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03018015493755968</v>
+        <v>0.07110363809211429</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03726403067188994</v>
+        <v>0.03876797308653332</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.04432987935748284</v>
+        <v>0.01764995988553971</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01644310913855484</v>
+        <v>0.008189886187715201</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06356635385364891</v>
+        <v>0.05423154892050988</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.001123642301273639</v>
+        <v>0.02055178171817679</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07623814747431985</v>
+        <v>0.001060822717173691</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08312927435035458</v>
+        <v>0.08726066400548965</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.102581287676818</v>
+        <v>0.1056909255361083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008780213693045285</v>
+        <v>0.01744936032641769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09118832398259147</v>
+        <v>0.05187337912555412</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01455128237799264</v>
+        <v>0.008035746980255644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01295827954826638</v>
+        <v>0.0153366964788238</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06632125291637099</v>
+        <v>0.002861487691195504</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001555118658906577</v>
+        <v>0.009163027351463984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003784721072056125</v>
+        <v>0.04072554478896798</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03875306712853848</v>
+        <v>0.01082187697147283</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02190684288639035</v>
+        <v>0.04038869411693123</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006495258981101253</v>
+        <v>0.006742693529416455</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01420312247486286</v>
+        <v>0.07442793670584018</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03860366991811939</v>
+        <v>0.03557311848962685</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002052815188287297</v>
+        <v>0.07828563008854274</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0265117620604357</v>
+        <v>0.05966825497384681</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07145637306201034</v>
+        <v>0.0180968059850399</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06114258283187046</v>
+        <v>0.04120458253811062</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0690700210331973</v>
+        <v>0.05733770950338778</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06650458813059316</v>
+        <v>0.01914173364235925</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01107248575121823</v>
+        <v>0.04969591532348992</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01225710118832432</v>
+        <v>0.005312967206516928</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04863923761303019</v>
+        <v>0.01818755153152019</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.005688897557374783</v>
+        <v>0.003052458654528302</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.103873149379273</v>
+        <v>0.07883718392721406</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03763180373002104</v>
+        <v>0.03077671903461071</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05906419328925309</v>
+        <v>0.07704239351287108</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03195180509395108</v>
+        <v>0.06422305391973648</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01531389443695405</v>
+        <v>0.05873160018383602</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.06451386909895523</v>
+        <v>0.02700587741842295</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.03146884105080267</v>
+        <v>0.00551821268913246</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1278383183277046</v>
+        <v>0.1574273260322786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0660634656402501</v>
+        <v>0.07391349353154636</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02304680943882063</v>
+        <v>0.005174750909431249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006855976002471948</v>
+        <v>0.02584375141082781</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01017214996330767</v>
+        <v>0.05194164708584056</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0007772581776514439</v>
+        <v>0.009848281590557142</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001890655563208516</v>
+        <v>0.005701037149967583</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01459570074717341</v>
+        <v>0.06566485807904951</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0138546136528494</v>
+        <v>0.002812883223251531</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0733360046944866</v>
+        <v>0.07089337717157869</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01351905896531689</v>
+        <v>0.06667037493472641</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01143832910058183</v>
+        <v>0.06132399146851109</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03951064608105233</v>
+        <v>0.06681016976627543</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06054039666246341</v>
+        <v>0.08351460031042302</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01350433731288655</v>
+        <v>0.02381853389868964</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06296605955530639</v>
+        <v>0.01638671000694841</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06038698672615278</v>
+        <v>0.0480795247830112</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0779741894890911</v>
+        <v>0.07188800154607726</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01154890089066944</v>
+        <v>0.006643023862867504</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06308676866785765</v>
+        <v>0.005832112091407163</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04659810724619446</v>
+        <v>0.04224889752647858</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02336209972566046</v>
+        <v>0.004127438131070365</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0493237482457283</v>
+        <v>0.02201478826031327</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07738208413307258</v>
+        <v>0.03015254886160593</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01677396588583863</v>
+        <v>0.01825317619379145</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0121272581199716</v>
+        <v>0.008025505218947101</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.07278636653726921</v>
+        <v>0.05608298379536147</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02326369946413202</v>
+        <v>0.03024844972838906</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.05948474171275926</v>
+        <v>0.02608508946305531</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.06400692885612037</v>
+        <v>0.02641686531232733</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1249378920299929</v>
+        <v>0.1251220368830999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008316112981122571</v>
+        <v>0.03338219085704464</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006257518673401139</v>
+        <v>0.05837277377237552</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0307117750625682</v>
+        <v>0.008044289996350935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07441520860941239</v>
+        <v>0.02389170598157988</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009649669895897288</v>
+        <v>0.004644284822543125</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007349109711240519</v>
+        <v>0.008247852909426532</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04448489066724632</v>
+        <v>0.0611869169683733</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008974777493577984</v>
+        <v>0.002959430430543643</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04079704212284781</v>
+        <v>0.05875640212719919</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004382861253400619</v>
+        <v>0.02253018941404459</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03331306809946406</v>
+        <v>0.04874383377190469</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06247002387214712</v>
+        <v>0.06441423020459008</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0714812725545059</v>
+        <v>0.04332516881301129</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02784066547860907</v>
+        <v>0.006477041158003744</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07472106029899896</v>
+        <v>0.04764886261314356</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00169808828672342</v>
+        <v>0.03953508462674755</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01785591407856963</v>
+        <v>0.02345625695392812</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01952064987300535</v>
+        <v>0.04257999306375771</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0444847369873677</v>
+        <v>0.04084665836705858</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01230263950453101</v>
+        <v>0.02793431674692869</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05852416481211369</v>
+        <v>0.01450947781544926</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0319468360533833</v>
+        <v>0.01607839278770809</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02998698815222308</v>
+        <v>0.001131321226793419</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02740404873603761</v>
+        <v>0.05189138043313211</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0636643787144838</v>
+        <v>0.04698311848980018</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05332616334638633</v>
+        <v>0.06516963213293765</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07040973811207961</v>
+        <v>0.07184071767897082</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06371059656865546</v>
+        <v>0.06541847583665301</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1471706607473653</v>
+        <v>-0.1266795748225182</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1522793388477466</v>
+        <v>0.1407587176728777</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07805659690879682</v>
+        <v>0.0602408428361353</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00804711637540129</v>
+        <v>0.002629649658069004</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0361192679395532</v>
+        <v>0.007229239182970854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01875777105144389</v>
+        <v>0.05165896757833029</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07084172411242458</v>
+        <v>0.02945434155557039</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07548400722356262</v>
+        <v>0.07450168911084762</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006242378086860129</v>
+        <v>0.06429937651139093</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03600177185695366</v>
+        <v>0.002050122123467377</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02818736284885796</v>
+        <v>0.0675843809090462</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02469602698808668</v>
+        <v>0.01098718505706812</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02155590658759341</v>
+        <v>0.05815997202911548</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0038360407262437</v>
+        <v>0.07115023730967912</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07454628567984138</v>
+        <v>0.0626568403229471</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001110327090043138</v>
+        <v>0.003193632684677635</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05469583935960343</v>
+        <v>0.03117370085046229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0194607613024635</v>
+        <v>0.04366268635066073</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02621965848875592</v>
+        <v>0.07486252016664044</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05459902714833114</v>
+        <v>0.05328111457984143</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04417772623760059</v>
+        <v>0.001012462194715565</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06044152564580269</v>
+        <v>0.001196289631694222</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.05507863458124351</v>
+        <v>0.03046781269183308</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.06065980964822519</v>
+        <v>0.07130500137288746</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01959144752405307</v>
+        <v>0.008654465550947522</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.002433601405006228</v>
+        <v>0.00154192632064678</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.03441392684016981</v>
+        <v>0.02648597294443873</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01998588710193267</v>
+        <v>0.04777987836290204</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01868978435698694</v>
+        <v>0.01723139684909705</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04606978688416275</v>
+        <v>0.0255482952639171</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.09454902530770892</v>
+        <v>-0.1003745402199235</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1438971422216048</v>
+        <v>0.1442753596986029</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01022601461979983</v>
+        <v>0.002654497978627222</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06828490388233138</v>
+        <v>0.08348319755403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01094919794963626</v>
+        <v>0.06402365361383752</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01515410863286331</v>
+        <v>0.02663487943891021</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01232305906242168</v>
+        <v>0.08202288238277462</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01319341982694103</v>
+        <v>0.02724287233910673</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02690726559257388</v>
+        <v>0.04667775758645139</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02115612477690157</v>
+        <v>0.039854331489113</v>
       </c>
       <c r="N8" t="n">
-        <v>4.517341354922427e-05</v>
+        <v>0.02966289958062962</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001550544279019098</v>
+        <v>0.01434745096801366</v>
       </c>
       <c r="P8" t="n">
-        <v>0.006082478878706474</v>
+        <v>0.0004343731950891053</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02019807951702974</v>
+        <v>0.008180115883269817</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04754666834075318</v>
+        <v>0.0125242870642648</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06739896563883452</v>
+        <v>0.08032547950702816</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06939661976493137</v>
+        <v>0.02102140910075338</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03140739540569065</v>
+        <v>0.007072345435709934</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05731672580034283</v>
+        <v>0.00171653488175839</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06072606675403193</v>
+        <v>0.06362060189304747</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02973363156727248</v>
+        <v>0.04265721685030568</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02462828086037182</v>
+        <v>0.04127344597464081</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06506310226518876</v>
+        <v>0.001257059270633743</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04212787143998863</v>
+        <v>0.0115373657577065</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06721043690742788</v>
+        <v>0.0844842551383289</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01117562456439315</v>
+        <v>0.0467607383663563</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.04196077077297197</v>
+        <v>0.0088902368762128</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05471100395381628</v>
+        <v>0.02362391271599803</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0586636444659878</v>
+        <v>0.09093259106091463</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06486282106622322</v>
+        <v>0.03708360809648749</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1618119560817404</v>
+        <v>-0.2406326073135062</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2257820100417043</v>
+        <v>0.1803082858952395</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08747183035692538</v>
+        <v>0.07774913999426392</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01931110565813637</v>
+        <v>0.02556071130665685</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0153136698913076</v>
+        <v>0.009227863973694158</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01440261345571166</v>
+        <v>0.008701296459816401</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0843466293437862</v>
+        <v>0.06694074426856339</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08799595138801689</v>
+        <v>0.06423181002364496</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04564375106482813</v>
+        <v>0.05928200539703736</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02194499606278378</v>
+        <v>0.04153368616848739</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006479481826638016</v>
+        <v>0.0541478832751723</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03139640206456587</v>
+        <v>0.02899603868629385</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01112202166242628</v>
+        <v>0.0002153788432104209</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05809125359133777</v>
+        <v>0.006718873011141381</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07506382987307925</v>
+        <v>0.0252426391039338</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01212242930108176</v>
+        <v>0.04044019945368757</v>
       </c>
       <c r="T9" t="n">
-        <v>0.006599713775468796</v>
+        <v>0.02181704357585637</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06689794519353069</v>
+        <v>0.009929403992875712</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0350253531660716</v>
+        <v>0.0324703688349356</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02463942930565892</v>
+        <v>0.06956736490764362</v>
       </c>
       <c r="X9" t="n">
-        <v>4.130956908203174e-05</v>
+        <v>0.008329443157002722</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02642957454702234</v>
+        <v>0.01787773233165919</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0006306087947262075</v>
+        <v>0.05149928189724855</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08098182274798053</v>
+        <v>0.0449493974794695</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03038041941951254</v>
+        <v>0.07747094853091885</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.04077120544764704</v>
+        <v>0.041891860980323</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.004745691191918711</v>
+        <v>0.008926483124375818</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.009902103416489432</v>
+        <v>0.04665737344858796</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01623392310376277</v>
+        <v>0.002657005834192855</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0860149347805034</v>
+        <v>0.05696802193930656</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.3242283696560857</v>
+        <v>-0.2774854394359303</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.248216943912027</v>
+        <v>0.2478869280155935</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06528819936580939</v>
+        <v>0.06497127621626757</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01722105719586254</v>
+        <v>0.03628195966669068</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01923255261709927</v>
+        <v>0.003271017611384534</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002912757685906161</v>
+        <v>0.01753040150235848</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02465344007692974</v>
+        <v>0.01734944190375371</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02192032638101973</v>
+        <v>0.007293034785163212</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02367538362293899</v>
+        <v>0.05211063893543848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02502524191357134</v>
+        <v>0.01424944926257196</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007614045722679719</v>
+        <v>0.0447994745963758</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01784020987600856</v>
+        <v>0.002239557569022114</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02923159395248747</v>
+        <v>0.03166974434171026</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01517391840860768</v>
+        <v>0.03840112513628938</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05891434414646967</v>
+        <v>0.06021213442651522</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03855240346749108</v>
+        <v>0.03079654051695699</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07428061936018811</v>
+        <v>0.06123473389163962</v>
       </c>
       <c r="U10" t="n">
-        <v>8.813112711587512e-06</v>
+        <v>0.01341017302207525</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07352339869442724</v>
+        <v>0.06105312531178579</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07912226833945507</v>
+        <v>0.04006188084956806</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04977288227458575</v>
+        <v>0.06167168962316476</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04762829110750228</v>
+        <v>0.02548920714902219</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05765966325110301</v>
+        <v>0.05161178675240165</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04536195909834448</v>
+        <v>0.02179993821674488</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03781175598969844</v>
+        <v>0.04826212273525246</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001961462646182202</v>
+        <v>0.02505928412342706</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02739916306092595</v>
+        <v>0.02846138202110848</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.04988496323337582</v>
+        <v>0.04742343190530917</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0424073343967841</v>
+        <v>0.03950198975179752</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.04592195100183454</v>
+        <v>0.05378345817620477</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.02834790018746162</v>
+        <v>0.01623425651550235</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.273463627332009</v>
+        <v>0.2637802935224918</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0470417478470112</v>
+        <v>0.0732065867774753</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0851391324994729</v>
+        <v>0.06370955626224037</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01518065873556418</v>
+        <v>0.007215782692398721</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001466379048110323</v>
+        <v>0.01179398464734529</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01975597043514188</v>
+        <v>0.02121591760392765</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02570928214206883</v>
+        <v>0.04647136651918614</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05928511862377774</v>
+        <v>0.01228105675435139</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02179706909308779</v>
+        <v>0.06868698962753533</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02705088723677864</v>
+        <v>0.02661531958670734</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02368406558180852</v>
+        <v>0.005559249038785255</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05036652796455276</v>
+        <v>0.03314094444652129</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03754448087182548</v>
+        <v>0.003998178712620246</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06715595986576718</v>
+        <v>0.04008046468939938</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04827009317918119</v>
+        <v>0.02097279947982679</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02050477502271519</v>
+        <v>0.001818467540765605</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04287298239937184</v>
+        <v>0.01698236572857224</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01410175728936399</v>
+        <v>0.02530291056332651</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04511759939521826</v>
+        <v>0.07784384225517728</v>
       </c>
       <c r="X11" t="n">
-        <v>0.008191075564377353</v>
+        <v>6.286361965220964e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0238600691169056</v>
+        <v>0.047267264426692</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03089975097632508</v>
+        <v>0.01274232255156231</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.05395942686197956</v>
+        <v>0.05090943860780679</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03389175152544412</v>
+        <v>0.02308498960629938</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.06775498016644065</v>
+        <v>0.05559964827757848</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.028826413933424</v>
+        <v>0.02452935297108072</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01121203445714355</v>
+        <v>0.06315525516288797</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.00767281326243873</v>
+        <v>0.07820671038048926</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.08168719690470348</v>
+        <v>0.08754637146978868</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01156129885347546</v>
+        <v>-0.002170395485955493</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2752631193345626</v>
+        <v>0.2794319916550565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06096964453897962</v>
+        <v>0.002545098224494549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07958899577115755</v>
+        <v>0.02968619100358412</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006716105661303564</v>
+        <v>0.01180043349744187</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03000766244350189</v>
+        <v>0.03572310455547809</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01156601247018739</v>
+        <v>0.02835248688535105</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03129257335493598</v>
+        <v>0.01917887135665927</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04177563884143254</v>
+        <v>0.02564379333326373</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06184443030304041</v>
+        <v>0.03870025326025317</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0310451321913056</v>
+        <v>0.006278653586486471</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007272330635546136</v>
+        <v>0.01277790536027781</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03499814385023978</v>
+        <v>0.02650722540324642</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0009165309142986282</v>
+        <v>0.0452812863462483</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06494381552167032</v>
+        <v>0.06571602955607961</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06566781569275276</v>
+        <v>0.04127030996706226</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04132159528282874</v>
+        <v>0.07217628765193128</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01141116510515931</v>
+        <v>0.004329445478396621</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0795613694223145</v>
+        <v>0.05398569856126981</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04779190702488268</v>
+        <v>0.05068640491650955</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02070398134631371</v>
+        <v>0.05897257477303062</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01595094342243061</v>
+        <v>0.001102213519890114</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.009781333744997111</v>
+        <v>0.03371359796178573</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.003253952852232732</v>
+        <v>0.06457626707725589</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06910848997175149</v>
+        <v>0.06780409554516341</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01763504177684194</v>
+        <v>0.01794341143976883</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.00320430194155157</v>
+        <v>0.06269156411595175</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07557697553159749</v>
+        <v>0.01981062913317313</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01234077431209719</v>
+        <v>0.04919027837981589</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.07029843364664042</v>
+        <v>0.05355588911013084</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1953335043891418</v>
+        <v>0.2047639624242818</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3698724150430064</v>
+        <v>0.3342966473284487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03660458981098119</v>
+        <v>0.01605582398717854</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02381768614704136</v>
+        <v>0.09595312112500143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06174021197483728</v>
+        <v>0.01694461716541424</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005809834727536611</v>
+        <v>0.03154766488431481</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007177941296022021</v>
+        <v>0.003986801882803665</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07236258362512474</v>
+        <v>0.01068429174420034</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003914029461372638</v>
+        <v>0.06643617670014523</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01358940264955682</v>
+        <v>0.02943517698669543</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07241606101338091</v>
+        <v>0.06432161235863038</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06393623757386849</v>
+        <v>0.04575068711400004</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0441408810289165</v>
+        <v>0.090405635372921</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02880507253192655</v>
+        <v>0.001157490305056066</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06033511254269776</v>
+        <v>0.09184008523651868</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0241849367165137</v>
+        <v>0.02096429542005819</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01228116753065659</v>
+        <v>0.08250761051057315</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06228173454499544</v>
+        <v>0.06632272034696715</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03767321843880835</v>
+        <v>0.0006905163711445593</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05284174576690803</v>
+        <v>0.00815572878358671</v>
       </c>
       <c r="X13" t="n">
-        <v>0.00945864014782931</v>
+        <v>0.020565995072787</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01005617068309773</v>
+        <v>0.00287543619122363</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06677204848292877</v>
+        <v>0.0041596645400657</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02500172276577412</v>
+        <v>0.006332093526692392</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.00463854062908867</v>
+        <v>0.05830295221917371</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.030221228953694</v>
+        <v>0.06980536708754148</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01493636994044558</v>
+        <v>0.0006224167406322272</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.008266731755657441</v>
+        <v>0.001849440334830095</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.07532951637485977</v>
+        <v>0.06519287145824161</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.07140658288547967</v>
+        <v>0.02713370653360256</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2547698546541056</v>
+        <v>0.2029646940904748</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3046045190639757</v>
+        <v>0.3027114240001925</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06900320774809615</v>
+        <v>0.02035450292859229</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01787207613941579</v>
+        <v>0.02191638077830059</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01068508829299857</v>
+        <v>0.009182136457426725</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06699564411734725</v>
+        <v>0.07619098440108921</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02184582559726316</v>
+        <v>0.001613278633802176</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04522304184230963</v>
+        <v>0.02312400204727288</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02643837149430995</v>
+        <v>0.01814484363703498</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0600651915634512</v>
+        <v>0.06318192577107228</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0165625578401961</v>
+        <v>0.002496664358825578</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01084379112384903</v>
+        <v>0.02002656791055136</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05127377666223881</v>
+        <v>0.0814846977495113</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02173863446575515</v>
+        <v>0.01665693440112201</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0002880377757050141</v>
+        <v>0.0006749325171841751</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01456300247242659</v>
+        <v>0.02075309143432331</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05783198760922742</v>
+        <v>0.06278661179408407</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01002048740997413</v>
+        <v>0.007284647724638983</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0628726022525339</v>
+        <v>0.0482311330488992</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06897318208889366</v>
+        <v>0.04073118620505695</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03635386285509612</v>
+        <v>0.02825084004689365</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01508771543107838</v>
+        <v>0.06158696420909352</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04534242605053929</v>
+        <v>0.02932997732512536</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04842110924271421</v>
+        <v>0.07275860189159165</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05560304396857441</v>
+        <v>0.03453620439475497</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02070998411895696</v>
+        <v>0.04180748372549083</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.003905993620305739</v>
+        <v>0.06474650844456552</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02788631426170861</v>
+        <v>0.06237388027921757</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04062300537447604</v>
+        <v>0.01007803841585773</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.07297003858055871</v>
+        <v>0.05969697946862117</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.05248724129386857</v>
+        <v>-0.06396752458548657</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3780118067567128</v>
+        <v>0.3669650064013207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07957687992473399</v>
+        <v>0.08232972893183295</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06858287842294522</v>
+        <v>0.03571732842191832</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04532835156211497</v>
+        <v>0.02224989061279786</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05552700953090781</v>
+        <v>0.0476801672067183</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03209077095331647</v>
+        <v>0.004979434707965527</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05776642358510326</v>
+        <v>0.09344894187418425</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03012990666635334</v>
+        <v>0.00487463505892957</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003229685213430585</v>
+        <v>0.05167291552816956</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05720067624628542</v>
+        <v>0.0176921454782478</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08020606560138549</v>
+        <v>0.02597046555643099</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03871530951495386</v>
+        <v>0.09300513044158325</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00582453456168423</v>
+        <v>0.004506521706613154</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02491067668129046</v>
+        <v>0.03054643616283774</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0391599984481261</v>
+        <v>0.04262906373257335</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06276607842868452</v>
+        <v>0.01748439101118253</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02984183071971329</v>
+        <v>0.01024762577017192</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02942822858054547</v>
+        <v>0.01476153327037993</v>
       </c>
       <c r="W15" t="n">
-        <v>0.003825691780273141</v>
+        <v>0.01618629199756652</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01458512435467986</v>
+        <v>0.01207505523690279</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02128714808754692</v>
+        <v>0.06179102050698205</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.009940889258935061</v>
+        <v>0.02416394336821105</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06840537176730747</v>
+        <v>0.08229866513532261</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06323494099815934</v>
+        <v>0.05976104047559003</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01701544095986848</v>
+        <v>0.006000957422769516</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03201734664589875</v>
+        <v>0.01400513498100503</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01477943969234164</v>
+        <v>0.08561880620013941</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01021242469675768</v>
+        <v>0.01361465846430196</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.00441087711665738</v>
+        <v>0.02468807073867204</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.04563956378971841</v>
+        <v>-0.03630712098888983</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2736970511862925</v>
+        <v>0.2750229477034194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02222447311424873</v>
+        <v>0.007546949972270756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05027922002233222</v>
+        <v>0.002046726296994289</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009222089671602327</v>
+        <v>0.01645036996203991</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01295548395688372</v>
+        <v>0.01525530164250707</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05860360401999382</v>
+        <v>0.02386827165753716</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04619741763997518</v>
+        <v>0.01589159340922473</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005233702866404583</v>
+        <v>0.05303271384845044</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06873601432811707</v>
+        <v>0.04214443116311282</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03424525515686846</v>
+        <v>0.02468573500211376</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003550331621235131</v>
+        <v>0.01260022597720925</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02979542813401265</v>
+        <v>0.03129435934055205</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0003219581022927988</v>
+        <v>0.06002968734688763</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05253832237337683</v>
+        <v>0.07122784527135821</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02708587485120731</v>
+        <v>0.04042388702529991</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04931522865995763</v>
+        <v>0.06535095478750462</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001045750033879271</v>
+        <v>0.00715383503818267</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0576079253251373</v>
+        <v>0.06736773451767313</v>
       </c>
       <c r="W16" t="n">
-        <v>0.005366808902650171</v>
+        <v>0.07154746483296395</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04046449560864798</v>
+        <v>0.04659521246028597</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01865783965523216</v>
+        <v>0.02682953164888997</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.05732803633330643</v>
+        <v>0.005120212919106069</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.06781090354778375</v>
+        <v>0.07024488565113997</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.07261633103378469</v>
+        <v>0.06171095880314308</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01200753266249056</v>
+        <v>0.01334449642626156</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.006756139339578979</v>
+        <v>0.002889792063397077</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06632147945871053</v>
+        <v>0.03980535046644055</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.05373504179435618</v>
+        <v>0.04186371457557186</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06997731178593357</v>
+        <v>0.06367775789388165</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.2084184934486397</v>
+        <v>0.179312654399653</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.326675355402055</v>
+        <v>0.347374255512427</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02013194904192528</v>
+        <v>0.07261530337056155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006238868576762148</v>
+        <v>0.001750678642274474</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04784163218303578</v>
+        <v>0.06320646888613357</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04066434851292072</v>
+        <v>0.005384213223438798</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06315727467752497</v>
+        <v>0.01760618945822959</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06356097759306018</v>
+        <v>0.0452613407693772</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0668572985821218</v>
+        <v>0.08110291827948282</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02773896824354853</v>
+        <v>0.006170364327533792</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05762432941450115</v>
+        <v>0.07586199085739735</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06598622169955203</v>
+        <v>0.07615865054318564</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04699446644515005</v>
+        <v>0.02451333314059761</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.003686058759063767</v>
+        <v>0.01230038944022386</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06075474866469976</v>
+        <v>0.06725274883128121</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04585045302779417</v>
+        <v>0.001195069457517111</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02553537765298456</v>
+        <v>0.05074053423723567</v>
       </c>
       <c r="U17" t="n">
-        <v>0.002355723797181163</v>
+        <v>0.01093206842423409</v>
       </c>
       <c r="V17" t="n">
-        <v>0.04771680571474098</v>
+        <v>0.007762801066536372</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01354371461531365</v>
+        <v>0.003601554712940759</v>
       </c>
       <c r="X17" t="n">
-        <v>0.006902308335402148</v>
+        <v>0.003306607785058583</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.007248094866744502</v>
+        <v>0.03052478846746236</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.06674241739470396</v>
+        <v>0.04695224795801273</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04518368795676374</v>
+        <v>0.05573314716398112</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.006472488273220594</v>
+        <v>0.02860443184816964</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.006227361023147167</v>
+        <v>0.0507710977628215</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.06313548833504699</v>
+        <v>0.0477056955925305</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02504192776288201</v>
+        <v>0.02385072938867804</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0660080785902431</v>
+        <v>0.07810724057843078</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0007989302599650779</v>
+        <v>0.0110273957866734</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.2154383116869221</v>
+        <v>0.192487754730631</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1820056707333081</v>
+        <v>0.1801052792400237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04061935953009733</v>
+        <v>0.06191190265133733</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07926810726889037</v>
+        <v>0.06634085089521329</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00547719479648755</v>
+        <v>0.001117473615896903</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07059614395093912</v>
+        <v>0.01988378278499879</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03309021615964463</v>
+        <v>0.02496246661470799</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01658269659726475</v>
+        <v>0.03896034137232036</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02785318569069587</v>
+        <v>0.02716343482037206</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04985142308359472</v>
+        <v>0.05367500822513969</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04874966303358415</v>
+        <v>0.007474258179281701</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02838041315969846</v>
+        <v>0.05086988925800881</v>
       </c>
       <c r="P18" t="n">
-        <v>0.009393246933774038</v>
+        <v>0.001106205893946414</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0036689323987102</v>
+        <v>0.02278233642247871</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07030599422160355</v>
+        <v>0.03435359983589603</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01941651267056717</v>
+        <v>0.02054934596049623</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02766483397012334</v>
+        <v>0.05026083703623677</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003302488299327958</v>
+        <v>0.007351461656314606</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02018798868870302</v>
+        <v>0.0539738357422053</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04523842881183016</v>
+        <v>0.05452635476966231</v>
       </c>
       <c r="X18" t="n">
-        <v>0.00846017981223016</v>
+        <v>0.04039816239963365</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04279293653283168</v>
+        <v>0.06088040793975492</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02379051101468241</v>
+        <v>0.0202309526759766</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02916859952345913</v>
+        <v>0.01832071656959729</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07902773151032619</v>
+        <v>0.07016963272697363</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05791605537864278</v>
+        <v>0.00142571884112432</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.004587005242963574</v>
+        <v>0.009599150867753587</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.07460493380363629</v>
+        <v>0.04277452007309543</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.007014086772868466</v>
+        <v>0.07087918631890136</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.07299113114282284</v>
+        <v>0.06805816585267602</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.04394130056931039</v>
+        <v>0.03720344764525704</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2314051384575107</v>
+        <v>0.2324336626490481</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08298879651323854</v>
+        <v>0.05747565028716807</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03913793779684319</v>
+        <v>0.03047500812175954</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01155728688648202</v>
+        <v>0.05725217288402398</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0395055707157675</v>
+        <v>0.05998969608312508</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05992999756030842</v>
+        <v>0.07467257048112474</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08586320790646304</v>
+        <v>0.0726539078695273</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05288667557288004</v>
+        <v>0.01165740633391324</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01840429847377737</v>
+        <v>0.0690225693724773</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01750711881016599</v>
+        <v>0.0134147531186577</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0433722629060625</v>
+        <v>0.01141542832574232</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02789712198151564</v>
+        <v>0.0004490775696821055</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01375897724081753</v>
+        <v>0.05165444167108626</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05360364361320704</v>
+        <v>0.05909505144731949</v>
       </c>
       <c r="S19" t="n">
-        <v>0.00565649722940872</v>
+        <v>0.01729029540129255</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04887891872357011</v>
+        <v>0.04551287963291859</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02081445164625553</v>
+        <v>0.007935640862963726</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01528759696659239</v>
+        <v>0.01014769462716919</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03756725005428441</v>
+        <v>0.07578079379760588</v>
       </c>
       <c r="X19" t="n">
-        <v>0.06130608602933652</v>
+        <v>0.05253670186375285</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03787001076468662</v>
+        <v>0.002313395520860774</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01685889138642426</v>
+        <v>0.0234209449323661</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.003149397671037345</v>
+        <v>0.01752004183949946</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02848920036796352</v>
+        <v>0.02300317174946268</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01114099967209778</v>
+        <v>0.02511054464188227</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.08241620723163209</v>
+        <v>0.07967549460659032</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02837272022967515</v>
+        <v>0.02382865551698425</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.04395528812747801</v>
+        <v>0.01610950471735566</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01182358792202873</v>
+        <v>0.01058650672368866</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.06634983549212928</v>
+        <v>0.1072693293263688</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1330677218430371</v>
+        <v>0.1347370844275547</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01620648771343516</v>
+        <v>0.02484962853122747</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06528131005916431</v>
+        <v>0.03255014227239623</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00925248154400079</v>
+        <v>0.03325808738136574</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01394612554828982</v>
+        <v>0.024361556046036</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02307421166087858</v>
+        <v>0.03044702156356021</v>
       </c>
       <c r="K20" t="n">
-        <v>0.007237490882668513</v>
+        <v>0.001492419171176074</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01620651839351746</v>
+        <v>0.03708857561688001</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01868984013204393</v>
+        <v>0.0005121961479019048</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00298083442281719</v>
+        <v>0.0008061405045405264</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03331178014955342</v>
+        <v>0.06963338562285294</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03124710079715197</v>
+        <v>0.03894705788916122</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.00336361843254545</v>
+        <v>0.005145994808641883</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05825702201366904</v>
+        <v>0.06120565856545714</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07677092078623773</v>
+        <v>0.05791328999788666</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07273252713042173</v>
+        <v>0.04444659179271295</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0449415629168563</v>
+        <v>0.001496448027372216</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07219647734284572</v>
+        <v>0.06690682309426223</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05242937182703541</v>
+        <v>0.05928980010726252</v>
       </c>
       <c r="X20" t="n">
-        <v>0.009772518636736215</v>
+        <v>0.00961078379701461</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.07310562429882035</v>
+        <v>0.04701688152130387</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03337061596725408</v>
+        <v>0.04925401919990718</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.06006419453447932</v>
+        <v>0.05783162720838968</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05130884646852375</v>
+        <v>0.06756708113482833</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03073433313683833</v>
+        <v>0.04119376151903698</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01960616393873197</v>
+        <v>0.01535616015515429</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.04064665421083277</v>
+        <v>0.04069764266819786</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01448705828016882</v>
+        <v>0.05984731027790192</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.04877830877448172</v>
+        <v>0.0212739153775713</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.01083795347858895</v>
+        <v>-0.009743751882736707</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1485074112610111</v>
+        <v>0.1666122046607771</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09284849122346929</v>
+        <v>0.04771708452078523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01441055026194962</v>
+        <v>0.01289115387014668</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08790235763390171</v>
+        <v>0.0388344904868006</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06126196573678903</v>
+        <v>0.009690065228417602</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006804487343156183</v>
+        <v>0.07782245566533666</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00117107339708913</v>
+        <v>0.001991339981165421</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02121726234518949</v>
+        <v>0.001456122439902179</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01955671866523977</v>
+        <v>0.03298226348848723</v>
       </c>
       <c r="N21" t="n">
-        <v>1.595708655187354e-05</v>
+        <v>0.01662975147065016</v>
       </c>
       <c r="O21" t="n">
-        <v>0.009450960733162908</v>
+        <v>0.0005661363437661316</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05672395688939395</v>
+        <v>0.05415728830067746</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01206466456722917</v>
+        <v>0.06622340512640551</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06595488099712184</v>
+        <v>0.07521606934672241</v>
       </c>
       <c r="S21" t="n">
-        <v>0.002391827874780319</v>
+        <v>0.009446864181651136</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04760146374061308</v>
+        <v>0.001727328877961345</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03476736224635031</v>
+        <v>0.07400484318352261</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05865453681608524</v>
+        <v>0.006762182150761866</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03127317592435214</v>
+        <v>0.07514841494467024</v>
       </c>
       <c r="X21" t="n">
-        <v>0.004594950690360145</v>
+        <v>0.004444751555587675</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05077315594125586</v>
+        <v>0.01251181080362301</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.001219777780635771</v>
+        <v>0.02590844239687076</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0668664488983622</v>
+        <v>0.07517487641130387</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02524311234179167</v>
+        <v>0.04939750037464413</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.006972423516312705</v>
+        <v>0.04094353612426672</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.07991363313127577</v>
+        <v>0.05458641330897067</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.07418022243476799</v>
+        <v>0.00159362553883424</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0488803598437484</v>
+        <v>0.05769313843165389</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.01728422193906458</v>
+        <v>0.07447864544641439</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0082650756368862</v>
+        <v>-0.0132917067627549</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1615188919538983</v>
+        <v>0.1605329529794791</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007815895476870654</v>
+        <v>0.01428392092542155</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07236708061661287</v>
+        <v>0.01641970465427572</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01003866571112323</v>
+        <v>0.04459962062650265</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00451518006611259</v>
+        <v>0.005588739977709269</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01417183099715162</v>
+        <v>0.01974055843077319</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01067955275561955</v>
+        <v>0.02740550953373401</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01637999961988017</v>
+        <v>0.06632405981277838</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02090583487501691</v>
+        <v>0.003127241837541467</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05127493957942857</v>
+        <v>0.009564197850346777</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01054521730839186</v>
+        <v>0.02168717148256099</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02160691450269618</v>
+        <v>0.03357557866088327</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05246206027266578</v>
+        <v>0.01614453337069529</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0420143197571449</v>
+        <v>0.08100498156552351</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03613629621399987</v>
+        <v>0.02220399882352798</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06409959543810785</v>
+        <v>0.07871314540257793</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05251365364901309</v>
+        <v>0.02239654408038524</v>
       </c>
       <c r="V22" t="n">
-        <v>0.07099083086953036</v>
+        <v>0.07877355539782138</v>
       </c>
       <c r="W22" t="n">
-        <v>0.000680818108012115</v>
+        <v>0.01232219473895373</v>
       </c>
       <c r="X22" t="n">
-        <v>0.04995164451769438</v>
+        <v>0.03664391011037007</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02316254742444739</v>
+        <v>0.0306484232646553</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0597066412502322</v>
+        <v>0.01297115890027996</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02026743928192216</v>
+        <v>0.03399386855671094</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.07208499829497865</v>
+        <v>0.0619143012093348</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0297617771381312</v>
+        <v>0.07937801274916573</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01882120832712903</v>
+        <v>0.003813488439734102</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0600859444607626</v>
+        <v>0.0583852087504084</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.05543258934616047</v>
+        <v>0.05973511109533805</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.05152652414116378</v>
+        <v>0.04864125975198999</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.06425038874692335</v>
+        <v>0.05385418975789114</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1696276957229892</v>
+        <v>0.1815672926084911</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04424490674102387</v>
+        <v>0.0191596781780347</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06333900428179715</v>
+        <v>0.06851314004801565</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04425500407285584</v>
+        <v>0.01010166531135205</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01187093749361967</v>
+        <v>0.03755539762215025</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02535903498121911</v>
+        <v>0.08257988848798557</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05165537270931111</v>
+        <v>0.02088152109231638</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001824375591266019</v>
+        <v>0.007990039656707068</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0173408525826317</v>
+        <v>0.01366909916839839</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001060407472229502</v>
+        <v>0.007038983331483966</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02065151512134647</v>
+        <v>0.002833301024379177</v>
       </c>
       <c r="P23" t="n">
-        <v>0.05892609215765925</v>
+        <v>0.07193102495679117</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0007240250018220831</v>
+        <v>0.0364897004352468</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001200458372406113</v>
+        <v>0.06657379484868843</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06812596385151465</v>
+        <v>0.07974402281497993</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01129840821598357</v>
+        <v>0.02032930371076121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.001452136203355682</v>
+        <v>0.03117224211094511</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05241788443706754</v>
+        <v>0.05140456571009702</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04008075029325717</v>
+        <v>0.04511328434048</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0006821128570114567</v>
+        <v>0.07664082020474691</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03638790155576394</v>
+        <v>0.02600858175769828</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.00899655450109387</v>
+        <v>0.005003958045969248</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0736891321294859</v>
+        <v>0.06452738683462757</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06267446798002191</v>
+        <v>0.05513674784849004</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01091998650287308</v>
+        <v>0.01759583274133204</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.06593402957711127</v>
+        <v>0.05375523328761141</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.07592189182190499</v>
+        <v>0.01532309969763809</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.0761486775478056</v>
+        <v>0.01062465885971661</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.07281811594656125</v>
+        <v>0.002303027873356954</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.07715841509034119</v>
+        <v>0.05055083938284043</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1502335278609699</v>
+        <v>0.1559277143508887</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01941984946765749</v>
+        <v>0.007297349342835516</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0340600287871456</v>
+        <v>0.03160677746379151</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0180241565140716</v>
+        <v>0.01833101114506787</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03469200864853732</v>
+        <v>0.006745060354127272</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01919536246481992</v>
+        <v>0.02753794410186355</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03090444935668573</v>
+        <v>0.04227706057407116</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05578931395266163</v>
+        <v>0.009100345221564434</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0030289122100219</v>
+        <v>0.002307892151629382</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01348617211989083</v>
+        <v>0.03834263329085177</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04502964233924476</v>
+        <v>0.06170369053614179</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01645261796500925</v>
+        <v>0.02902468501898211</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.003262635777602093</v>
+        <v>0.0113475204672532</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04912841669962554</v>
+        <v>0.03753401372407001</v>
       </c>
       <c r="S24" t="n">
-        <v>0.007712572918914512</v>
+        <v>0.007799483001579878</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05623870895614096</v>
+        <v>0.05179979424355179</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001466087031309254</v>
+        <v>0.01368330480390605</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03381426625124098</v>
+        <v>0.05044812502009304</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07143293460126797</v>
+        <v>0.07010547675286169</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04274517760402174</v>
+        <v>0.05699353592285574</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04509388143644846</v>
+        <v>0.07259298646253912</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.001367193998538659</v>
+        <v>0.06797470855449997</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04039316347740472</v>
+        <v>0.006750658893696928</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.07215474629869843</v>
+        <v>0.05803237239888513</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0348411538878157</v>
+        <v>0.04619055993202825</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0381256167514372</v>
+        <v>0.02273779914091876</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.08083279244605883</v>
+        <v>0.07645440889022516</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.05796614247382988</v>
+        <v>0.03149404739642638</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.07334199556389887</v>
+        <v>0.04378675519368275</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.05517357063421054</v>
+        <v>0.04197356595449761</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1764101156061689</v>
+        <v>0.1717597956867066</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06918342109739101</v>
+        <v>0.01239135256896448</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04859254091741492</v>
+        <v>0.07823533475171746</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03679371187701129</v>
+        <v>0.08173449774565378</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04326427939029562</v>
+        <v>0.019015890225006</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01633684764602066</v>
+        <v>0.009559741051193532</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03291323235098811</v>
+        <v>0.002247119899930537</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01433970924975623</v>
+        <v>0.02710108792916593</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003625682663760605</v>
+        <v>0.0417832652556732</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07047062298746033</v>
+        <v>0.07903228335458205</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008439821165527828</v>
+        <v>0.03015020279268718</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05703790270116472</v>
+        <v>0.02820033193875902</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01645046805372614</v>
+        <v>0.007044189340208985</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07599506494598623</v>
+        <v>0.0060925819097624</v>
       </c>
       <c r="S25" t="n">
-        <v>0.00514424088819119</v>
+        <v>0.03544512677773815</v>
       </c>
       <c r="T25" t="n">
-        <v>0.00272972995429982</v>
+        <v>0.05075514558283086</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007523539316298572</v>
+        <v>0.0508530285776656</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04755327631818107</v>
+        <v>0.07471547987417837</v>
       </c>
       <c r="W25" t="n">
-        <v>0.04992323239899873</v>
+        <v>0.06783999202924466</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02951169120018787</v>
+        <v>0.003412443831941594</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.06734862327457532</v>
+        <v>0.00142952779409632</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08116228805416947</v>
+        <v>0.007044640485428518</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03261372853135801</v>
+        <v>0.01862462605155478</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02131969039077527</v>
+        <v>0.06897131114878621</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.009809401418415523</v>
+        <v>0.03814705643537129</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02818957756871698</v>
+        <v>0.08206068487461649</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.04544857707435376</v>
+        <v>0.008215380063878256</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.001555446745794963</v>
+        <v>0.001314789992965827</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.07672365181917958</v>
+        <v>0.06858288771639857</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.01230570770874537</v>
+        <v>0.03486172696742442</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1416179668804865</v>
+        <v>0.1429076593925199</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01821457054990222</v>
+        <v>0.04293912446444634</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0158515829752147</v>
+        <v>0.08067424160117696</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01500687110960751</v>
+        <v>0.03772907909194569</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05427860164263628</v>
+        <v>0.01473480891886283</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006746782973373671</v>
+        <v>0.009819425147733457</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00754453705913742</v>
+        <v>0.008718175253397513</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05441060690157003</v>
+        <v>0.03234954638854411</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002375968023808476</v>
+        <v>0.06485284589550416</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01436611030528709</v>
+        <v>0.001656400424837037</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009269822389490739</v>
+        <v>0.00205646320147985</v>
       </c>
       <c r="P26" t="n">
-        <v>0.04171854938945681</v>
+        <v>0.009288865604089581</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01874094946669171</v>
+        <v>0.01270634088208134</v>
       </c>
       <c r="R26" t="n">
-        <v>0.003229447786192905</v>
+        <v>0.003404947606029704</v>
       </c>
       <c r="S26" t="n">
-        <v>0.09405591075561963</v>
+        <v>0.06234955694540053</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04950995858731245</v>
+        <v>0.04630342419728629</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0009989095414986912</v>
+        <v>0.01472831613374758</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07670541673151758</v>
+        <v>0.05393067601029341</v>
       </c>
       <c r="W26" t="n">
-        <v>0.019124087217027</v>
+        <v>0.01927480327488206</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05356976212815236</v>
+        <v>0.07430219669572448</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07118328841004082</v>
+        <v>0.04283024660680444</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.008551082367099715</v>
+        <v>0.03377464947175515</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.08950263071088088</v>
+        <v>0.05314368160931258</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.08734377761631086</v>
+        <v>0.05910905954862623</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01292219738100262</v>
+        <v>0.002644527122294917</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01431632575775603</v>
+        <v>0.03449133426945167</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.06372024707819889</v>
+        <v>0.0747384855412401</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01330146513440524</v>
+        <v>0.05486719061226935</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.08344054001080767</v>
+        <v>0.05258158748078262</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1333534843796598</v>
+        <v>0.1146659372221144</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1785654581471807</v>
+        <v>0.1649348769336838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02648417037911602</v>
+        <v>0.0198051074626554</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07223975153346059</v>
+        <v>0.07949263588831397</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04545797373406707</v>
+        <v>0.02835322098300981</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05292393429569008</v>
+        <v>0.01928807119093819</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01663995950460523</v>
+        <v>0.0008033955366837817</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05912688402696741</v>
+        <v>0.07123384060073165</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05395764855809492</v>
+        <v>0.05364872583200209</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03866943586874422</v>
+        <v>0.0115125042852828</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07055612028301333</v>
+        <v>0.03142666748018036</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04949405726771805</v>
+        <v>0.02758546689667115</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08061463458451652</v>
+        <v>0.07310231778193758</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.06402420262681652</v>
+        <v>0.07180509847980787</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02719461360062084</v>
+        <v>0.01758521107928859</v>
       </c>
       <c r="S27" t="n">
-        <v>0.007768598704450861</v>
+        <v>0.01886882311077942</v>
       </c>
       <c r="T27" t="n">
-        <v>0.006083268452444154</v>
+        <v>0.01043097111319459</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02591469661999019</v>
+        <v>0.04812878977709812</v>
       </c>
       <c r="V27" t="n">
-        <v>0.003600515350270295</v>
+        <v>0.004507932193956563</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001465923316362483</v>
+        <v>0.02146662652071585</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01438983275425757</v>
+        <v>0.07060385400980153</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01374682698323026</v>
+        <v>0.03202077037067964</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01412125861426106</v>
+        <v>0.02268762103846667</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.06117803736504313</v>
+        <v>0.01099038296576554</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02049669622341007</v>
+        <v>0.06615862120643176</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07156547348774892</v>
+        <v>0.05633120471467571</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.07597347426191538</v>
+        <v>0.006480557561281867</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.01233642638557533</v>
+        <v>0.02702250271904608</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.01372363005914844</v>
+        <v>0.02881262190904025</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0002519551584609925</v>
+        <v>0.06984645729156314</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1327334022307013</v>
+        <v>0.1188855566643186</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.159060526094964</v>
+        <v>0.1584144055477577</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02918502988017057</v>
+        <v>0.06576239123991046</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0774168636269499</v>
+        <v>0.03421378279166432</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01816012798534522</v>
+        <v>0.005743760590412286</v>
       </c>
       <c r="I28" t="n">
-        <v>0.005277014826602399</v>
+        <v>0.005545911305070318</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03116908450970169</v>
+        <v>0.05020788674497403</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03294979794780618</v>
+        <v>0.004248620614523038</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04557770305332691</v>
+        <v>0.01287300731064561</v>
       </c>
       <c r="M28" t="n">
-        <v>0.05548443551379578</v>
+        <v>0.06457848346415233</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02413181404727146</v>
+        <v>0.03035269168607354</v>
       </c>
       <c r="O28" t="n">
-        <v>3.790545675408208e-05</v>
+        <v>0.03469168066969106</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07344515405460318</v>
+        <v>0.06757078121860238</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.006666793385328136</v>
+        <v>0.01238178153568524</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05258835862229696</v>
+        <v>0.02416386968279372</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04995881479605303</v>
+        <v>0.05157619896690262</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05435533142292465</v>
+        <v>0.04425003922404646</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009502975842980557</v>
+        <v>0.01665395761085297</v>
       </c>
       <c r="V28" t="n">
-        <v>0.053660681922571</v>
+        <v>0.03433654963969907</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05621528544095118</v>
+        <v>0.04985003094439162</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00389924742470507</v>
+        <v>0.009502609791352777</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07631952958270186</v>
+        <v>0.06707858448479791</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01194735364495154</v>
+        <v>0.006882073539900196</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03645470319256489</v>
+        <v>0.04774897273592833</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01222224741813355</v>
+        <v>0.0244183834614514</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.05057906595425028</v>
+        <v>0.05070951354587419</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.03973877070455221</v>
+        <v>0.04208086304950311</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.04583870617412236</v>
+        <v>0.02944136070786187</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.01660146005813185</v>
+        <v>0.05537010292213966</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0306157435104534</v>
+        <v>0.05776611052109946</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.09009620178428702</v>
+        <v>0.1098114109727999</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1861700886167436</v>
+        <v>0.1925333560890035</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05438923903505303</v>
+        <v>0.05508645365414421</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07752469844149076</v>
+        <v>0.0382514533788753</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0488215658114064</v>
+        <v>0.06001860881890675</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08095946774547275</v>
+        <v>0.07214368561839953</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01253628434669224</v>
+        <v>0.004146232696526907</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05990864527071439</v>
+        <v>0.07800634267717763</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01370890334395858</v>
+        <v>0.05690432624810996</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02363546403105071</v>
+        <v>0.008098346652515687</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01926022073214206</v>
+        <v>0.02134047254770055</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0582289354373143</v>
+        <v>0.06363433812362149</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07947091405402432</v>
+        <v>0.04004479092158097</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03802856491963411</v>
+        <v>0.04157903299168245</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01367123357638577</v>
+        <v>0.00577128444853848</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02616252105685799</v>
+        <v>0.03182261897310156</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04577615955626617</v>
+        <v>0.002024115976197744</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03405150449860832</v>
+        <v>0.04469128785448473</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02523014702093591</v>
+        <v>0.0006020699026734784</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0228426321877967</v>
+        <v>0.01012297744144553</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02246918032412373</v>
+        <v>0.004047098670000661</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0250883927975752</v>
+        <v>0.05021636098082542</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.002679022899733834</v>
+        <v>0.01275615522114283</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06860972052979117</v>
+        <v>0.05227650774764907</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.001233675292897169</v>
+        <v>0.05202521139067137</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0889402006502244</v>
+        <v>0.02807990062856511</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01117246195727857</v>
+        <v>0.04288340316923126</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.001830372821195995</v>
+        <v>0.01857342791313367</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.03054843412606247</v>
+        <v>0.07789951057461794</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.01322143753531304</v>
+        <v>0.02695398477847988</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1591953522114619</v>
+        <v>0.1595799954062389</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1091408970185279</v>
+        <v>0.1086554471089649</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06757146467391376</v>
+        <v>0.04005733455398827</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02951971507619056</v>
+        <v>0.05801657402202899</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001640672098605897</v>
+        <v>0.00158799016948114</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0519966499179088</v>
+        <v>0.01080363709419594</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03066800273197753</v>
+        <v>0.06905977700384622</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01534437290640091</v>
+        <v>0.002668364007949748</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0198699333960238</v>
+        <v>0.07216217687502666</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0515316962252884</v>
+        <v>0.0007358243876018263</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03999974795112779</v>
+        <v>0.02130038134489663</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0195866659924304</v>
+        <v>0.01361216420871314</v>
       </c>
       <c r="P30" t="n">
-        <v>0.007505028053827663</v>
+        <v>0.02904878499929477</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.004955276430844301</v>
+        <v>0.00313397148893709</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05661444100809106</v>
+        <v>0.01561024346117197</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03936245168020938</v>
+        <v>0.008785980389951641</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04482313320258075</v>
+        <v>0.02791337835490807</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02009354384646552</v>
+        <v>0.01948957917074834</v>
       </c>
       <c r="V30" t="n">
-        <v>0.05244353909446974</v>
+        <v>0.07279887841982588</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06407803223982658</v>
+        <v>0.05155200783125853</v>
       </c>
       <c r="X30" t="n">
-        <v>0.02904911017910193</v>
+        <v>0.0231021794068282</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01002054446772037</v>
+        <v>0.07431196545841746</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0076921326192082</v>
+        <v>0.0478783063220725</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02025619718165831</v>
+        <v>0.03364978024037061</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02990764743191089</v>
+        <v>0.06929984597746248</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05315269648087195</v>
+        <v>0.05124049938964471</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0461843275043374</v>
+        <v>0.003266022182432915</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.06510983812616832</v>
+        <v>0.05607210808948825</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.05920365100928525</v>
+        <v>0.05323754130187092</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.06181948847355462</v>
+        <v>0.06960470384758716</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.06907467483497107</v>
+        <v>0.07720087179343414</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1319876064050794</v>
+        <v>0.1173822932764097</v>
       </c>
       <c r="F31" t="n">
-        <v>0.004812984423613633</v>
+        <v>0.02283460570489555</v>
       </c>
       <c r="G31" t="n">
-        <v>0.008448345471650161</v>
+        <v>0.05017963219769896</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0155003450560656</v>
+        <v>0.002159381321281521</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07151766113624902</v>
+        <v>0.08790008931050063</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02855246034772218</v>
+        <v>0.01510099399430993</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05485201322462433</v>
+        <v>0.01550864409411007</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06900811411884314</v>
+        <v>0.07474009943875357</v>
       </c>
       <c r="M31" t="n">
-        <v>0.05288311861020011</v>
+        <v>0.00538297759255283</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0760045820620615</v>
+        <v>0.06026911619208725</v>
       </c>
       <c r="O31" t="n">
-        <v>0.04106937227464941</v>
+        <v>0.01076137235543891</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0772996242446618</v>
+        <v>0.002152370631007415</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.03845433931963674</v>
+        <v>0.003642535967932495</v>
       </c>
       <c r="R31" t="n">
-        <v>0.008305738127017407</v>
+        <v>0.05066708633543093</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01959085444376717</v>
+        <v>0.04469867778694717</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03506871058594582</v>
+        <v>0.02537090172284919</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04145207130473547</v>
+        <v>0.01848723941981045</v>
       </c>
       <c r="V31" t="n">
-        <v>0.01618170035528261</v>
+        <v>0.06434425799560789</v>
       </c>
       <c r="W31" t="n">
-        <v>0.003630963317194997</v>
+        <v>0.01518018539026272</v>
       </c>
       <c r="X31" t="n">
-        <v>0.06878480742359253</v>
+        <v>0.06199580665001982</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.001753627587041197</v>
+        <v>0.02602083385084558</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01145301517468048</v>
+        <v>0.01642777173476696</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.02406732211765636</v>
+        <v>0.07728505462360559</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.03876134923685264</v>
+        <v>0.01250564252694144</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.004163789505076697</v>
+        <v>0.04351907662987074</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.04552337736139168</v>
+        <v>0.08684148286211593</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.03300118903876838</v>
+        <v>0.03083560153802601</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.08220541161401565</v>
+        <v>0.03708733091918776</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.02765311251700321</v>
+        <v>0.03810123121314285</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.06626753406759699</v>
+        <v>0.06466303978138337</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1086918851745606</v>
+        <v>0.1118827445888667</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01581340516568016</v>
+        <v>0.008112197083862384</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0228898197195475</v>
+        <v>0.01567447713181365</v>
       </c>
       <c r="H32" t="n">
-        <v>2.611953257373015e-05</v>
+        <v>0.002896857922168373</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007573788598106691</v>
+        <v>0.01865711387765392</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02007937123754151</v>
+        <v>0.02885145633717725</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02253974441771495</v>
+        <v>0.0477969374931151</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01374594296397103</v>
+        <v>0.05740248306320091</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06915971052245364</v>
+        <v>0.04631516503349632</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01102353835917849</v>
+        <v>0.0009915639522318953</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03349698085349113</v>
+        <v>0.02057089834967925</v>
       </c>
       <c r="P32" t="n">
-        <v>0.03688185038140913</v>
+        <v>0.07007263237942922</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02233338095020553</v>
+        <v>0.0457120554817313</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0772754654735955</v>
+        <v>0.05286048027531106</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01417861800045822</v>
+        <v>0.01749107020368903</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01730836649121718</v>
+        <v>0.01436111533474011</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05631579400737264</v>
+        <v>0.0380094228833783</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01435448389470687</v>
+        <v>0.02354939462033645</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03617360088434374</v>
+        <v>0.06594855638929405</v>
       </c>
       <c r="X32" t="n">
-        <v>0.07661826947372667</v>
+        <v>0.06444503127880118</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01447881993980723</v>
+        <v>0.04876045271014268</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0421250548761456</v>
+        <v>0.06306062769111508</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.06967870507314058</v>
+        <v>0.04586799135455923</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.07994736566930348</v>
+        <v>0.03415894975048808</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.05030990551802503</v>
+        <v>0.009239062421708463</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.03900233477013882</v>
+        <v>0.01352224149861781</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.04983680112812801</v>
+        <v>0.04092269638931867</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.04371034616143764</v>
+        <v>0.04750001685273214</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.04312241593657931</v>
+        <v>0.05724905224020788</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.06279124509338534</v>
+        <v>0.05425514502536975</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1271231631026823</v>
+        <v>0.1313648804315127</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05203616376776032</v>
+        <v>0.008613594385035847</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001587359090633939</v>
+        <v>0.02021682103190112</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002898706114896095</v>
+        <v>0.0122627028488732</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03602104966828618</v>
+        <v>0.03842086874514936</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001556443103573388</v>
+        <v>0.004302379404475422</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001255746190765965</v>
+        <v>0.005357468277948479</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04259817531709073</v>
+        <v>0.06957208723606943</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0178726507320686</v>
+        <v>0.02063363674331879</v>
       </c>
       <c r="N33" t="n">
-        <v>0.06217990676903414</v>
+        <v>0.04753573412119592</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01963731731338135</v>
+        <v>0.04272949504480165</v>
       </c>
       <c r="P33" t="n">
-        <v>0.06340632359008458</v>
+        <v>0.03183379230006638</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.06740528599106514</v>
+        <v>0.03488236778520185</v>
       </c>
       <c r="R33" t="n">
-        <v>0.02120391034872376</v>
+        <v>0.01957309120849595</v>
       </c>
       <c r="S33" t="n">
-        <v>0.06798188773905964</v>
+        <v>0.07096565442395131</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03254138969417247</v>
+        <v>0.04502161758737612</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03406894419774722</v>
+        <v>0.01479248851359511</v>
       </c>
       <c r="V33" t="n">
-        <v>0.05177329019841949</v>
+        <v>0.03068982254518045</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03124051919147571</v>
+        <v>0.01598944466101224</v>
       </c>
       <c r="X33" t="n">
-        <v>0.05994153040052057</v>
+        <v>0.04238105586566029</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01211096678797988</v>
+        <v>0.07039087631173592</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.06510506658130229</v>
+        <v>0.0585491431755502</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.05123040054395946</v>
+        <v>0.05519158964446215</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01924715423568162</v>
+        <v>0.01802095445392909</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02368180579343856</v>
+        <v>0.06739403462785108</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.04347201199639265</v>
+        <v>0.01353622726406149</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.01516154775576302</v>
+        <v>0.02788979667284297</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.06817255173336859</v>
+        <v>0.06479828231483052</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0346118951533547</v>
+        <v>0.04845497280542772</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.09137138913180136</v>
+        <v>0.07914967164052281</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1167465766345016</v>
+        <v>0.1170957866369809</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02733921248207183</v>
+        <v>0.02649788471367805</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03930662487320418</v>
+        <v>0.04079826164071423</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05317167020766306</v>
+        <v>0.05191926585940896</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006973453831744077</v>
+        <v>0.07589136209260498</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07897888860541311</v>
+        <v>0.05916931340294596</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01004813050641295</v>
+        <v>0.01468429178528019</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05000395207720509</v>
+        <v>0.0004865716366573163</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05398433395594539</v>
+        <v>0.03257099390781192</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01618901295629063</v>
+        <v>0.02752101893063897</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07318003333269318</v>
+        <v>0.004879378321038017</v>
       </c>
       <c r="P34" t="n">
-        <v>0.04176871234125612</v>
+        <v>0.02132608522749088</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0575095761562049</v>
+        <v>0.07058555650427049</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02960629077277625</v>
+        <v>0.06220165857036444</v>
       </c>
       <c r="S34" t="n">
-        <v>0.004250767511953614</v>
+        <v>0.007454203790192199</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01637152970443937</v>
+        <v>0.006734314747861613</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02276134307690219</v>
+        <v>0.001656838388866472</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05024826406967377</v>
+        <v>0.0645954487900699</v>
       </c>
       <c r="W34" t="n">
-        <v>0.05654171362101592</v>
+        <v>0.01314364310763931</v>
       </c>
       <c r="X34" t="n">
-        <v>0.001716184878774008</v>
+        <v>0.01121106422544654</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.002597627713106743</v>
+        <v>0.0124948722156589</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0702493294268077</v>
+        <v>0.07139394863477687</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.03347929563719447</v>
+        <v>0.05049819474121354</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.00479686807360092</v>
+        <v>0.06779257656565568</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.04855803935212997</v>
+        <v>0.05573446939133119</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.007592282886760999</v>
+        <v>0.001796721325817151</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.04019643071585242</v>
+        <v>0.03305391094130872</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.02408115562778046</v>
+        <v>0.04693540269219568</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.07849927560512658</v>
+        <v>0.06697274784906199</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.01943462899937007</v>
+        <v>-0.01790914647761115</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1360873072562228</v>
+        <v>0.1227147463494591</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08007403854319764</v>
+        <v>0.06868158091890723</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03689489602232369</v>
+        <v>0.02212346273558214</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07204956662939552</v>
+        <v>0.02205599948441743</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04409901685352934</v>
+        <v>0.06560356015953578</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04864252223793189</v>
+        <v>0.0286887820651218</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001589836704336536</v>
+        <v>0.01068474862492051</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04448212626992984</v>
+        <v>0.02853803819180814</v>
       </c>
       <c r="M35" t="n">
-        <v>0.006925770738563143</v>
+        <v>0.0107952786849417</v>
       </c>
       <c r="N35" t="n">
-        <v>0.07917452467248487</v>
+        <v>0.07324336606856878</v>
       </c>
       <c r="O35" t="n">
-        <v>0.02294555019488638</v>
+        <v>0.06398786848403107</v>
       </c>
       <c r="P35" t="n">
-        <v>0.03225729944932123</v>
+        <v>0.06181889949357621</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0275934762218952</v>
+        <v>0.02378760606212712</v>
       </c>
       <c r="R35" t="n">
-        <v>0.02593356622085896</v>
+        <v>0.04413899453344539</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01310471649691574</v>
+        <v>0.002987569833719751</v>
       </c>
       <c r="T35" t="n">
-        <v>0.008156920265737968</v>
+        <v>0.02528806291556506</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0108585640592406</v>
+        <v>0.02221137077503773</v>
       </c>
       <c r="V35" t="n">
-        <v>0.07012439958763264</v>
+        <v>0.05670566293965796</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0252689278273121</v>
+        <v>0.01279655241304981</v>
       </c>
       <c r="X35" t="n">
-        <v>0.002500532738697847</v>
+        <v>0.01037866003436696</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01645539081424473</v>
+        <v>0.01152827790100698</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03018177031784768</v>
+        <v>0.08348352820894869</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.04853032780269234</v>
+        <v>0.002093815547069072</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.03249198166710385</v>
+        <v>0.01409770583131181</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.05993103775231949</v>
+        <v>0.05370784006368506</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.03191506604960932</v>
+        <v>0.01085958691775942</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.005432820572320913</v>
+        <v>0.03972513855668379</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.07202572548911022</v>
+        <v>0.06498904811849192</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.05035962780056051</v>
+        <v>0.06499899443666278</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.01581169684265622</v>
+        <v>0.01994435821913796</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1041139316557898</v>
+        <v>0.1016564773501939</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02393513842135471</v>
+        <v>0.02364000777894741</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03991845048050326</v>
+        <v>0.005580471971521788</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05306506526090988</v>
+        <v>0.008937403165689766</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04215172011135037</v>
+        <v>0.03738562943641778</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04751483215410775</v>
+        <v>0.04885028452590981</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002779115119829122</v>
+        <v>0.0265604355882859</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06615194156197741</v>
+        <v>0.03094432858741926</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05100049734867883</v>
+        <v>0.06761755464635358</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05286039087020245</v>
+        <v>0.02787365554060946</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01761451203032545</v>
+        <v>0.008281811560481448</v>
       </c>
       <c r="P36" t="n">
-        <v>0.06063169749357528</v>
+        <v>0.04607953468374871</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01320073192872146</v>
+        <v>0.005342654344228986</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0566970373990477</v>
+        <v>0.04216103619765783</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0420597245047596</v>
+        <v>0.01846444764616833</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01758097166348533</v>
+        <v>0.03548459718052905</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01704281974250471</v>
+        <v>0.06849413236808033</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02831473939269501</v>
+        <v>0.07528006771309288</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02286907104083411</v>
+        <v>0.08178201517215426</v>
       </c>
       <c r="X36" t="n">
-        <v>0.02903391875544782</v>
+        <v>0.009479227414039369</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.004688216292322619</v>
+        <v>0.03740225008289276</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03710440790355846</v>
+        <v>0.0002042573869320919</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.006831345621088662</v>
+        <v>0.007358959174199388</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.06216282679853203</v>
+        <v>0.08006847813800529</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.06667409884844852</v>
+        <v>0.0603115594647415</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.928798080688101e-05</v>
+        <v>0.0003621455833441243</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.03842661469622705</v>
+        <v>0.06437919584487108</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.05085602804931622</v>
+        <v>0.06859048800562005</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.04876479852938937</v>
+        <v>0.01308337079805782</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.008585709915155405</v>
+        <v>0.00655482208017241</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1664978576397837</v>
+        <v>0.1403555126980378</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06279879062052651</v>
+        <v>0.07130049161284426</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05583224595738485</v>
+        <v>0.03762271311795343</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0006661693081216097</v>
+        <v>0.03281998649645138</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00486243487212139</v>
+        <v>0.04104110286174451</v>
       </c>
       <c r="J37" t="n">
-        <v>0.007505100069425895</v>
+        <v>0.03123780086192257</v>
       </c>
       <c r="K37" t="n">
-        <v>0.06841110507961866</v>
+        <v>0.06505300882407156</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05741324736918108</v>
+        <v>0.0731830138005147</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01602731759845398</v>
+        <v>0.01388312853368409</v>
       </c>
       <c r="N37" t="n">
-        <v>0.06774992213565298</v>
+        <v>0.04859092930336373</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02299258263208182</v>
+        <v>0.01006740640152914</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01769597146721485</v>
+        <v>0.03938510977589678</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.05355847326492531</v>
+        <v>0.03664550856518099</v>
       </c>
       <c r="R37" t="n">
-        <v>0.04178963035565356</v>
+        <v>0.01451569345405875</v>
       </c>
       <c r="S37" t="n">
-        <v>0.02436467697697153</v>
+        <v>0.06860046258776681</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02877188250791842</v>
+        <v>0.02068025811302514</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009861906946031906</v>
+        <v>0.02446188391887926</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03304198137888819</v>
+        <v>0.05058206744986684</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0431458214777086</v>
+        <v>0.06234880128138666</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0133260921065347</v>
+        <v>0.02646821751396019</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.04526051474570016</v>
+        <v>0.05080080246282766</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.06581540976781783</v>
+        <v>0.0699832045422201</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.03416974932076301</v>
+        <v>0.002332139217835488</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.04319990166680929</v>
+        <v>0.00111011202941971</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.04194901801284417</v>
+        <v>0.02388322380936365</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.009442332324634879</v>
+        <v>0.002043204720708794</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.05997743016033227</v>
+        <v>0.01649414362478592</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.06812431951192062</v>
+        <v>0.04868756791968821</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.002245972364762023</v>
+        <v>0.01617801719904977</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01504292451821084</v>
+        <v>0.01968277893421209</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1182867652693617</v>
+        <v>0.1165783046157964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09562064745496579</v>
+        <v>0.07938511185107047</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001724763169586606</v>
+        <v>3.739174247876622e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01246610812098345</v>
+        <v>0.01037961520817753</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04214763284170318</v>
+        <v>0.005346349904756044</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06059078456194717</v>
+        <v>0.02499623795098703</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01412658143467482</v>
+        <v>0.01108995052028006</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02207702214764188</v>
+        <v>0.01821403297648872</v>
       </c>
       <c r="M38" t="n">
-        <v>0.004397008237532265</v>
+        <v>0.03490875612658776</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02502819487182653</v>
+        <v>0.0499226557624866</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01499968472572844</v>
+        <v>0.06462128870559883</v>
       </c>
       <c r="P38" t="n">
-        <v>0.06573041953827556</v>
+        <v>0.009037149324611179</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0357177586517578</v>
+        <v>0.001407723220780314</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02675180552546053</v>
+        <v>0.00381852903710412</v>
       </c>
       <c r="S38" t="n">
-        <v>0.04248593022242181</v>
+        <v>0.03024893101821803</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01760493789102841</v>
+        <v>0.08318460362359341</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02656682905392089</v>
+        <v>0.0193365651100978</v>
       </c>
       <c r="V38" t="n">
-        <v>0.07345306704146404</v>
+        <v>0.07888257264998974</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02385744454136643</v>
+        <v>0.07677832839253579</v>
       </c>
       <c r="X38" t="n">
-        <v>0.03980254573496974</v>
+        <v>0.004045688755250043</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0785846873768874</v>
+        <v>0.05817826742427658</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.005141884162045091</v>
+        <v>0.01584667811524072</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.001559367296203853</v>
+        <v>0.01035866849156983</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.04461269615288804</v>
+        <v>0.02863197550617912</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.08286532988118503</v>
+        <v>0.03488867696630473</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.03021579744528663</v>
+        <v>0.08054746952970294</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.05880930472976307</v>
+        <v>0.06681517517827057</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.006825712194452667</v>
+        <v>0.03330064396025997</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.04623605499403276</v>
+        <v>0.06579096294710317</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05522606972500468</v>
+        <v>0.05794523863790661</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1389040907250617</v>
+        <v>0.138093367914511</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01724746296102622</v>
+        <v>0.06277479903116856</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04416661079373641</v>
+        <v>0.05053828586645202</v>
       </c>
       <c r="H39" t="n">
-        <v>8.686258448614473e-06</v>
+        <v>0.03757622084455321</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04315608669493189</v>
+        <v>0.008004549812297685</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0006455616245464155</v>
+        <v>0.0204982916405345</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07203142725267069</v>
+        <v>0.08083716721994384</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04407591151082179</v>
+        <v>0.009161999011297274</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01823136206525741</v>
+        <v>0.02486164646508015</v>
       </c>
       <c r="N39" t="n">
-        <v>0.001294253687742351</v>
+        <v>0.02588029031487666</v>
       </c>
       <c r="O39" t="n">
-        <v>0.001192506731604931</v>
+        <v>0.02073121398739211</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07167805875342861</v>
+        <v>0.06913333497906642</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.001413273411487392</v>
+        <v>0.01927090401404684</v>
       </c>
       <c r="R39" t="n">
-        <v>0.001774228131682514</v>
+        <v>0.003230970296729027</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04107196320193333</v>
+        <v>0.000819319383662724</v>
       </c>
       <c r="T39" t="n">
-        <v>0.06543029350847532</v>
+        <v>0.02100863429228983</v>
       </c>
       <c r="U39" t="n">
-        <v>0.009017124320664522</v>
+        <v>0.02260846689681358</v>
       </c>
       <c r="V39" t="n">
-        <v>0.07857225523902933</v>
+        <v>0.03660633276420035</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04120821243433659</v>
+        <v>0.08669712562179711</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01602689062386841</v>
+        <v>0.006920672141343683</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.07736269858671713</v>
+        <v>0.008456809128915574</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.09007613839363537</v>
+        <v>0.07771094481864438</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.09129872152333128</v>
+        <v>0.07034097210295265</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.006583952039738415</v>
+        <v>0.04680984693625102</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.03577360570596243</v>
+        <v>0.006912522439060217</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.03872443458477172</v>
+        <v>0.01367442491986879</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.05152497904438205</v>
+        <v>0.05441012468240965</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.001011845943560318</v>
+        <v>0.07419216529888199</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0394014549722087</v>
+        <v>0.04033196508947019</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0419952457706516</v>
+        <v>0.01732141904150066</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1275216437607535</v>
+        <v>0.1267847718877209</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03028716697356586</v>
+        <v>0.06346494844346966</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000560800769657298</v>
+        <v>0.02978720218631015</v>
       </c>
       <c r="H40" t="n">
-        <v>0.005405952270070354</v>
+        <v>0.07861294290994034</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03336495947641883</v>
+        <v>0.02363017501795773</v>
       </c>
       <c r="J40" t="n">
-        <v>0.005591318296103863</v>
+        <v>0.002424868940308321</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00882970248961314</v>
+        <v>0.03509200795596951</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01285539025622405</v>
+        <v>0.01953082136630575</v>
       </c>
       <c r="M40" t="n">
-        <v>0.005951242988654626</v>
+        <v>0.04124397426365876</v>
       </c>
       <c r="N40" t="n">
-        <v>0.07191560696152281</v>
+        <v>0.07839925539483011</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01639228446732017</v>
+        <v>0.003185239269760655</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01682648982930171</v>
+        <v>0.0005989076097424966</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03114135280563255</v>
+        <v>0.004329492805860253</v>
       </c>
       <c r="R40" t="n">
-        <v>0.05896554245572787</v>
+        <v>0.01802519765100701</v>
       </c>
       <c r="S40" t="n">
-        <v>0.03277480049912242</v>
+        <v>0.002997312060780595</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03684686880590581</v>
+        <v>0.07060277869097363</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03831894657407738</v>
+        <v>0.008886350939518447</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04591139881683327</v>
+        <v>0.05671177959253572</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08684343007620582</v>
+        <v>0.05276287601910438</v>
       </c>
       <c r="X40" t="n">
-        <v>0.01883320920208794</v>
+        <v>0.0007016765092087663</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.05709169747677176</v>
+        <v>0.05384016696520036</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.02310365017392239</v>
+        <v>0.04609494888756284</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.05507297976498027</v>
+        <v>0.0001914752170925606</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.07969379699942386</v>
+        <v>0.07772741125093205</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.08500296054602656</v>
+        <v>0.02283327857381792</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.03417622803684371</v>
+        <v>0.01280481401128879</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.03183435912108906</v>
+        <v>0.0792867542376933</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.02119598188234332</v>
+        <v>0.03459493072868</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.05521188198455321</v>
+        <v>0.08163841250048982</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.04583940612875274</v>
+        <v>0.03780859928789656</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1383785847936722</v>
+        <v>0.1421064899197798</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02315024929317871</v>
+        <v>0.06318225709219728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02231636686090901</v>
+        <v>0.01571531244864167</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005268926529847644</v>
+        <v>0.002728007148415676</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03682856841526962</v>
+        <v>0.04989586926680072</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01386787638988508</v>
+        <v>0.04776600823978645</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05106645559449737</v>
+        <v>0.04127462905185613</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02741713412174219</v>
+        <v>0.03305441790934804</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01331852430092437</v>
+        <v>0.004626974311936897</v>
       </c>
       <c r="N41" t="n">
-        <v>0.06537197021255318</v>
+        <v>0.01563029361115107</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0206749009256608</v>
+        <v>0.003722842642589354</v>
       </c>
       <c r="P41" t="n">
-        <v>0.05819750755128004</v>
+        <v>0.05644027339457601</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.007496971820825641</v>
+        <v>0.01366187440755472</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03914468825769289</v>
+        <v>0.02407764765853283</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01868996562001324</v>
+        <v>0.02442920438261134</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07009888477208313</v>
+        <v>0.01717631240175936</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0730792214603256</v>
+        <v>0.02654953414700603</v>
       </c>
       <c r="V41" t="n">
-        <v>0.04056500204626819</v>
+        <v>0.0144479893756558</v>
       </c>
       <c r="W41" t="n">
-        <v>0.05463476271551639</v>
+        <v>0.07136296105379838</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0227202443771725</v>
+        <v>0.04900598887713829</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.02348030190122071</v>
+        <v>0.07121112641145871</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.006403002501871647</v>
+        <v>0.06759397442029041</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.04589490488994739</v>
+        <v>0.0341809177011826</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.06420734053452326</v>
+        <v>0.01432458291992704</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.06473759084840351</v>
+        <v>0.06237346623149792</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.06355136741823728</v>
+        <v>0.07330718245910224</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.02565819576261102</v>
+        <v>0.02604917027123299</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.03783159281281449</v>
+        <v>0.07216105320978658</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.004327482064725132</v>
+        <v>0.004050128954165531</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.05415507878722987</v>
+        <v>0.06406169515621545</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1289738221437091</v>
+        <v>0.1269091364383806</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0008154101593085782</v>
+        <v>0.03420341283926458</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02577557241214385</v>
+        <v>0.07166425158625614</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03857506653574111</v>
+        <v>0.03052037911318461</v>
       </c>
       <c r="I42" t="n">
-        <v>0.001221442111288747</v>
+        <v>0.0003750583008246074</v>
       </c>
       <c r="J42" t="n">
-        <v>0.004832501439601881</v>
+        <v>0.00857261767337811</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01537391932442326</v>
+        <v>0.05421784291092267</v>
       </c>
       <c r="L42" t="n">
-        <v>0.006264047114130301</v>
+        <v>0.03109462875192571</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02293136639598912</v>
+        <v>0.02442936374181029</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0269404902212523</v>
+        <v>0.05346041804830843</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02241176670743623</v>
+        <v>0.007229733426783186</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03272845166014173</v>
+        <v>0.009323977091196199</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03520412700977749</v>
+        <v>0.02012822496139964</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05918186548139037</v>
+        <v>0.01756852504672642</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06799827843225288</v>
+        <v>0.03908251187945579</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04984322939471794</v>
+        <v>0.06006780717657596</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003964184110586953</v>
+        <v>0.001597334650647952</v>
       </c>
       <c r="V42" t="n">
-        <v>0.07588184761914563</v>
+        <v>0.03260775375300083</v>
       </c>
       <c r="W42" t="n">
-        <v>0.00404516725354277</v>
+        <v>0.06795172089046012</v>
       </c>
       <c r="X42" t="n">
-        <v>0.07836740834505307</v>
+        <v>0.06132813637046301</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.05055615865897793</v>
+        <v>0.03674677643133317</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.05217870014015245</v>
+        <v>0.007536634024669568</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.04616815966198737</v>
+        <v>0.01447007582245872</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.05537435413980835</v>
+        <v>0.0518875182371496</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.07086977567989421</v>
+        <v>0.05305407209677281</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.01130463445618164</v>
+        <v>0.04549637663221164</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.06820523848301614</v>
+        <v>0.06255012631443076</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.04444804757947393</v>
+        <v>0.03408309501162143</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0285387894725837</v>
+        <v>0.06875162721676813</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.03895390569169625</v>
+        <v>0.07359774297901649</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1385442335915423</v>
+        <v>0.1614690487875511</v>
       </c>
       <c r="F43" t="n">
-        <v>0.006951728302199683</v>
+        <v>0.05587025307734525</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03807377584414712</v>
+        <v>0.01645787871105266</v>
       </c>
       <c r="H43" t="n">
-        <v>0.004164718105417624</v>
+        <v>0.06148593262693541</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01651819663607748</v>
+        <v>0.004515226886317308</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06951173915094958</v>
+        <v>0.0587221636580707</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01367957764716811</v>
+        <v>0.000884795824933595</v>
       </c>
       <c r="L43" t="n">
-        <v>0.07059855742280619</v>
+        <v>0.04337495641943184</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01824715913075147</v>
+        <v>0.01586980839214315</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01993475007802793</v>
+        <v>0.009829095071263391</v>
       </c>
       <c r="O43" t="n">
-        <v>0.056934470120491</v>
+        <v>0.03916286923600186</v>
       </c>
       <c r="P43" t="n">
-        <v>0.04958937278858361</v>
+        <v>0.01954057594833647</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.04476345341180534</v>
+        <v>0.0285471252114704</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07134752513323288</v>
+        <v>0.01022180118483233</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01964594046257204</v>
+        <v>0.02701430828500369</v>
       </c>
       <c r="T43" t="n">
-        <v>0.05337815138425808</v>
+        <v>0.03326341556270725</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00780187377757189</v>
+        <v>0.03060119030181667</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03869864150483997</v>
+        <v>0.001853760891140568</v>
       </c>
       <c r="W43" t="n">
-        <v>0.06588711188540153</v>
+        <v>0.07433402567993748</v>
       </c>
       <c r="X43" t="n">
-        <v>0.02585794712322589</v>
+        <v>0.09834765262816197</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.02309741568865501</v>
+        <v>0.03164220786898239</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0635885654224496</v>
+        <v>0.0408766857184943</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.01728471927070627</v>
+        <v>0.01945395358301428</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01235735073156093</v>
+        <v>0.02364333107929605</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.01969132915437579</v>
+        <v>0.02662907274113524</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0672894396335849</v>
+        <v>0.08547572752523074</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.04353934286512401</v>
+        <v>0.001275949980468907</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.003556544543570688</v>
+        <v>0.06677156716319051</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.05801060278044549</v>
+        <v>0.07433466874328566</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.07052687326139218</v>
+        <v>0.09458736872839441</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1211952199428585</v>
+        <v>0.1213597965676396</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02161268571423075</v>
+        <v>0.0009984853095199176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004982556499642826</v>
+        <v>0.004012247500568256</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02357010420063527</v>
+        <v>0.02107306085253799</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05459042437806858</v>
+        <v>0.02420420068284846</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02344915580597451</v>
+        <v>0.01589818374470396</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001679248502768504</v>
+        <v>0.03357838488215069</v>
       </c>
       <c r="L44" t="n">
-        <v>0.005715243306920212</v>
+        <v>0.0139026143596419</v>
       </c>
       <c r="M44" t="n">
-        <v>0.01325555107694685</v>
+        <v>0.003297118797416252</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06552687236578461</v>
+        <v>0.0863259382571072</v>
       </c>
       <c r="O44" t="n">
-        <v>0.02018958210487973</v>
+        <v>0.01378964624077617</v>
       </c>
       <c r="P44" t="n">
-        <v>0.03630111201515687</v>
+        <v>0.001484421844993016</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05498103186200424</v>
+        <v>0.0171555618120057</v>
       </c>
       <c r="R44" t="n">
-        <v>0.02698652148257678</v>
+        <v>0.07628598326605332</v>
       </c>
       <c r="S44" t="n">
-        <v>0.02854690914593215</v>
+        <v>0.06507769889013315</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01466004976888171</v>
+        <v>0.03261761842102678</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03859554264637746</v>
+        <v>0.003757953010594879</v>
       </c>
       <c r="V44" t="n">
-        <v>0.06374153509762148</v>
+        <v>0.07289152926763241</v>
       </c>
       <c r="W44" t="n">
-        <v>0.03525629436333214</v>
+        <v>0.05054580863825907</v>
       </c>
       <c r="X44" t="n">
-        <v>0.03700550399457899</v>
+        <v>0.08219640781571229</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.06912958653450323</v>
+        <v>0.02579622668494786</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.01305453223106192</v>
+        <v>0.003671060508839471</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.02723244382207449</v>
+        <v>0.06071096873686254</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.04599642226095568</v>
+        <v>0.07259605383956101</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.01912677140254177</v>
+        <v>0.04726918962970904</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.08258147751849176</v>
+        <v>0.08720174363697643</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.06957140648360051</v>
+        <v>0.02841354229566197</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.03163867166334171</v>
+        <v>0.005317966361348686</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.07102276375111519</v>
+        <v>0.04993038471241159</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1248269923967585</v>
+        <v>0.1118283218561764</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1405713369777181</v>
+        <v>0.1411567678694592</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03732732630268891</v>
+        <v>0.01908720529888206</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0493942369159513</v>
+        <v>0.004098435331280187</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002824020073710962</v>
+        <v>0.03414020097714473</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08213582297009796</v>
+        <v>0.06489078536731442</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04877159388690588</v>
+        <v>0.06688738126801967</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03618823668729322</v>
+        <v>0.02945564416663883</v>
       </c>
       <c r="L45" t="n">
-        <v>0.007983107945449262</v>
+        <v>0.02389905190583787</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02324116585059222</v>
+        <v>0.001691519254920713</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01978529115759912</v>
+        <v>0.004351964421068671</v>
       </c>
       <c r="O45" t="n">
-        <v>0.07936194590731543</v>
+        <v>0.02498863342976111</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03500569478712433</v>
+        <v>0.06559445092686847</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.06803700159736664</v>
+        <v>0.05745401438833193</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01784107740615168</v>
+        <v>0.02190930766212652</v>
       </c>
       <c r="S45" t="n">
-        <v>0.015138203080692</v>
+        <v>0.01179745779127829</v>
       </c>
       <c r="T45" t="n">
-        <v>0.009910222601121824</v>
+        <v>0.01763851910528794</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0319332049399496</v>
+        <v>0.04805431104770273</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0312585644905685</v>
+        <v>0.03123401745441837</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05531584614297205</v>
+        <v>0.08605543250967079</v>
       </c>
       <c r="X45" t="n">
-        <v>0.05355964307512374</v>
+        <v>0.05759344345071502</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01077077393340387</v>
+        <v>0.07628104359168349</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.06736583561859373</v>
+        <v>0.0551885100268706</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.003288093140828467</v>
+        <v>0.004111300527609001</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.005408051198414032</v>
+        <v>0.01869864899135418</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0326318959480317</v>
+        <v>0.01995178323398229</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.06879144948746892</v>
+        <v>0.07312566947029675</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.02059562525629644</v>
+        <v>0.01034134046201554</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.02829280307732168</v>
+        <v>0.06986680896394891</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.05784326652096654</v>
+        <v>0.001613118974970811</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1635832300022819</v>
+        <v>0.1374645223080292</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1150641446824283</v>
+        <v>0.113772816406302</v>
       </c>
       <c r="F46" t="n">
-        <v>0.008853506779628217</v>
+        <v>0.03225029770990166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0334514153550332</v>
+        <v>0.02022231664250412</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06034379630194976</v>
+        <v>0.04993964770575358</v>
       </c>
       <c r="I46" t="n">
-        <v>0.007737097363109085</v>
+        <v>0.01154211363837382</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01155867856649945</v>
+        <v>0.0005929127579467199</v>
       </c>
       <c r="K46" t="n">
-        <v>0.003326281359527798</v>
+        <v>0.01309375415691124</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04450975444366228</v>
+        <v>0.04198354489154477</v>
       </c>
       <c r="M46" t="n">
-        <v>0.008589696761971822</v>
+        <v>0.008982624675000722</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05503307517978304</v>
+        <v>0.04665912323616202</v>
       </c>
       <c r="O46" t="n">
-        <v>0.04590893821879861</v>
+        <v>0.002648183505701067</v>
       </c>
       <c r="P46" t="n">
-        <v>0.02997797002318616</v>
+        <v>0.03239524132866551</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01561724357802194</v>
+        <v>0.05999998571437757</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05809546663129524</v>
+        <v>0.04803392027477496</v>
       </c>
       <c r="S46" t="n">
-        <v>0.003490352094605231</v>
+        <v>0.01262322630253477</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02215043930250171</v>
+        <v>0.034871155261724</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03315905803736676</v>
+        <v>0.01636351357201892</v>
       </c>
       <c r="V46" t="n">
-        <v>0.06897200322894677</v>
+        <v>0.04860500767931416</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04589504969574439</v>
+        <v>0.04804309014195419</v>
       </c>
       <c r="X46" t="n">
-        <v>0.05013929941596498</v>
+        <v>0.01427622740130466</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04721382811379777</v>
+        <v>0.05869381731884951</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.04450426534590516</v>
+        <v>0.06270126570978615</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06069941302170312</v>
+        <v>0.05911809564652194</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.05484760007460181</v>
+        <v>0.07300463383121811</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.06676303281439713</v>
+        <v>0.06164817526173975</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.01986344595400051</v>
+        <v>0.03176301571950785</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.03135545832400239</v>
+        <v>0.02784229366368991</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.05948015667603555</v>
+        <v>0.07191930624552836</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.008463677337960093</v>
+        <v>0.01018351000668991</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.03421506857979455</v>
+        <v>-0.01788258394414319</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1386945079027639</v>
+        <v>0.1378342119882282</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07527818425805152</v>
+        <v>0.06834911599322346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04802682199363421</v>
+        <v>0.01372698056545203</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06079228958443116</v>
+        <v>0.06416691045655103</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03218277328704162</v>
+        <v>0.0456431377183984</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01272143862905202</v>
+        <v>0.01401708065085254</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05366950533410168</v>
+        <v>0.003129986745594867</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01651419286942974</v>
+        <v>0.002876945261735841</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01385646927973231</v>
+        <v>0.02745731806495997</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05127161115570503</v>
+        <v>0.04401840996486921</v>
       </c>
       <c r="O47" t="n">
-        <v>0.02211347652910894</v>
+        <v>0.005547250397127162</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0634246125265529</v>
+        <v>0.0657653900704309</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03056126094746946</v>
+        <v>0.05821230725154884</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02412120510773203</v>
+        <v>0.03630000947790754</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01942942712154128</v>
+        <v>0.01468578591166433</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01434040726387289</v>
+        <v>0.02059173927528408</v>
       </c>
       <c r="U47" t="n">
-        <v>0.05927870811786793</v>
+        <v>0.04298319895973794</v>
       </c>
       <c r="V47" t="n">
-        <v>0.004155500060535447</v>
+        <v>0.0004011914042238344</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01743063941793254</v>
+        <v>0.03642644134626447</v>
       </c>
       <c r="X47" t="n">
-        <v>0.07749786212084837</v>
+        <v>0.05529836988047934</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01968079899487005</v>
+        <v>0.01095412688517794</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.05055934236431121</v>
+        <v>0.04972090213970553</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.03150992395588741</v>
+        <v>0.04213467332218854</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.06302309134333103</v>
+        <v>0.04158434765071562</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.001328989481828842</v>
+        <v>0.0380627111701099</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.06566479626186461</v>
+        <v>0.07081225042235575</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.01287955191331269</v>
+        <v>0.0427382945293656</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.005460292318417315</v>
+        <v>0.01027296786673925</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0532268277615357</v>
+        <v>0.07412215661733626</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.0008155203786517221</v>
+        <v>-0.01631763662681298</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.09768401854676842</v>
+        <v>0.09582395158848979</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04864154448277956</v>
+        <v>0.06399594826872876</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04203604703730875</v>
+        <v>0.005340319319977466</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04608807053317711</v>
+        <v>0.01238825944871521</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0009512277793038042</v>
+        <v>0.02995773890070861</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01298998618019724</v>
+        <v>0.01146317919997992</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01304420752636774</v>
+        <v>0.02407233315105046</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05146011929699573</v>
+        <v>0.04374724960087378</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06429176812011245</v>
+        <v>0.04876904881707356</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05876638880737934</v>
+        <v>0.03429961522673154</v>
       </c>
       <c r="O48" t="n">
-        <v>0.04564630215467233</v>
+        <v>0.05228507799701673</v>
       </c>
       <c r="P48" t="n">
-        <v>0.04833926841872105</v>
+        <v>0.03709866107312444</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02707397171013054</v>
+        <v>0.006489978283054756</v>
       </c>
       <c r="R48" t="n">
-        <v>0.02614549977436356</v>
+        <v>0.03103721989147365</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05113130616068839</v>
+        <v>0.01532181199365343</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01308687074533311</v>
+        <v>0.01828614591462133</v>
       </c>
       <c r="U48" t="n">
-        <v>0.006816093650229589</v>
+        <v>0.02062758379954565</v>
       </c>
       <c r="V48" t="n">
-        <v>0.06271423765629246</v>
+        <v>0.08240965446322068</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06430376663320848</v>
+        <v>0.07755951516672897</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04436240088098427</v>
+        <v>0.04349118495673111</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.006838893129484072</v>
+        <v>0.05669740660429232</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.03194513312197388</v>
+        <v>0.004276797473149008</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01385558329065705</v>
+        <v>0.01376409268142909</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04817557375518046</v>
+        <v>0.06136271072114962</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.02938178108007529</v>
+        <v>0.04878819425822273</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.001266455398955792</v>
+        <v>0.004832750553982542</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.05523348202484167</v>
+        <v>0.06986022197204614</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.04548587227761861</v>
+        <v>0.01474701232382533</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.03992814837296758</v>
+        <v>0.06703028793889312</v>
       </c>
       <c r="AH48" t="n">
-        <v>-0.008340994663814563</v>
+        <v>0.006451910443179554</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1047259720069798</v>
+        <v>0.1102748098227506</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06762570482432831</v>
+        <v>0.06346990993101134</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0183626368775705</v>
+        <v>0.01041832440128106</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08836092557229493</v>
+        <v>0.0673844687578924</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07607227583241455</v>
+        <v>0.07609630687181196</v>
       </c>
       <c r="J49" t="n">
-        <v>0.014944716367262</v>
+        <v>0.03551644464405972</v>
       </c>
       <c r="K49" t="n">
-        <v>0.007411631943925155</v>
+        <v>0.006098879844264315</v>
       </c>
       <c r="L49" t="n">
-        <v>0.03972430635652462</v>
+        <v>0.07695526952179869</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02354696820276336</v>
+        <v>0.01757357837347285</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01867052838777563</v>
+        <v>0.04469535747138169</v>
       </c>
       <c r="O49" t="n">
-        <v>0.006764429502216326</v>
+        <v>0.02143687123156479</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07387657927282167</v>
+        <v>0.06796169625121026</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.009752834597551408</v>
+        <v>0.02588397901204804</v>
       </c>
       <c r="R49" t="n">
-        <v>0.009652307665326262</v>
+        <v>0.01041253179724114</v>
       </c>
       <c r="S49" t="n">
-        <v>0.001953789329828164</v>
+        <v>0.0462887560691258</v>
       </c>
       <c r="T49" t="n">
-        <v>0.04205423267473044</v>
+        <v>0.002516590227133272</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01422885895370387</v>
+        <v>0.02502443331366727</v>
       </c>
       <c r="V49" t="n">
-        <v>0.05522794118918152</v>
+        <v>0.006625387471110081</v>
       </c>
       <c r="W49" t="n">
-        <v>0.08319778506214724</v>
+        <v>0.07370575444028855</v>
       </c>
       <c r="X49" t="n">
-        <v>0.02552800226487027</v>
+        <v>0.002048379650281191</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.05190097070388719</v>
+        <v>0.04804405650377189</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.05926152641566575</v>
+        <v>0.0390600564876125</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01023409815311311</v>
+        <v>0.03676620027829684</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04387562811868149</v>
+        <v>0.05027850318658661</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.04694493578036542</v>
+        <v>0.07194213797544891</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0176013897899478</v>
+        <v>0.00392268051035233</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.008124095221045484</v>
+        <v>0.03704465655463286</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.05064621046840238</v>
+        <v>0.005250126795106187</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.03445469047165516</v>
+        <v>0.0275786624275474</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.01046143846714243</v>
+        <v>-0.007479637515932462</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1094950345847658</v>
+        <v>0.1094768352541094</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01430713775960387</v>
+        <v>0.02250522550280374</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00505275643641668</v>
+        <v>0.04398645593444905</v>
       </c>
       <c r="H50" t="n">
-        <v>0.005676671644486149</v>
+        <v>0.01687792804589556</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06480525732814013</v>
+        <v>0.01747482062536229</v>
       </c>
       <c r="J50" t="n">
-        <v>0.007552366238551128</v>
+        <v>0.001934288440402551</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01412644201750289</v>
+        <v>0.01861668824852966</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05728080588080636</v>
+        <v>0.03443521046791432</v>
       </c>
       <c r="M50" t="n">
-        <v>0.05143817399881078</v>
+        <v>0.0391289431317705</v>
       </c>
       <c r="N50" t="n">
-        <v>0.06835761064873609</v>
+        <v>0.05213348316130995</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0276843363462098</v>
+        <v>0.0001271178005878993</v>
       </c>
       <c r="P50" t="n">
-        <v>0.05683113743598948</v>
+        <v>0.04121257670781291</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.05534802574862577</v>
+        <v>0.04310071694825503</v>
       </c>
       <c r="R50" t="n">
-        <v>0.02882078979676897</v>
+        <v>0.03549993942935712</v>
       </c>
       <c r="S50" t="n">
-        <v>0.003360234055115897</v>
+        <v>0.0003068807221546113</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05312559916018289</v>
+        <v>0.07464978042794047</v>
       </c>
       <c r="U50" t="n">
-        <v>0.007450787968076337</v>
+        <v>0.0493757327716485</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05458124948143953</v>
+        <v>0.07147677715301907</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06531619101382866</v>
+        <v>0.05139819812242154</v>
       </c>
       <c r="X50" t="n">
-        <v>0.01263861560569102</v>
+        <v>0.03208714950045121</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.06977814380388946</v>
+        <v>0.04926311774749118</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0035659076138625</v>
+        <v>0.04913566473257244</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.03102317014536199</v>
+        <v>0.007828417422585667</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.06596062560677479</v>
+        <v>0.07310532125441774</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.05967387428348977</v>
+        <v>0.04807232914553906</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.004549085319337122</v>
+        <v>0.03545851810039449</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.06411054077824561</v>
+        <v>0.03351559047727374</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.01219149798035059</v>
+        <v>0.01237880453290222</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.03539296590370577</v>
+        <v>0.04491432344473743</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1551105308157884</v>
+        <v>0.1451815521305615</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1278424496355762</v>
+        <v>0.12421537320672</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02357916416335335</v>
+        <v>0.006972344295749693</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03218392060846423</v>
+        <v>0.02533552685574397</v>
       </c>
       <c r="H51" t="n">
-        <v>0.001879589933862057</v>
+        <v>0.01999125029372045</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07307330540527505</v>
+        <v>0.05773076864019502</v>
       </c>
       <c r="J51" t="n">
-        <v>0.009038818648047715</v>
+        <v>0.01977007646908995</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0782074314666812</v>
+        <v>0.07778358795790988</v>
       </c>
       <c r="L51" t="n">
-        <v>0.08168867401339189</v>
+        <v>0.08093690305775209</v>
       </c>
       <c r="M51" t="n">
-        <v>0.07237582496597393</v>
+        <v>0.04330831352789272</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00018197204179429</v>
+        <v>0.07567605335617719</v>
       </c>
       <c r="O51" t="n">
-        <v>0.003147130314714494</v>
+        <v>0.01022205133068838</v>
       </c>
       <c r="P51" t="n">
-        <v>0.004137627922921826</v>
+        <v>0.01518005401073142</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.002545807044577625</v>
+        <v>0.03209635009772836</v>
       </c>
       <c r="R51" t="n">
-        <v>0.008976286471524831</v>
+        <v>0.01183667627142468</v>
       </c>
       <c r="S51" t="n">
-        <v>0.06023672985129386</v>
+        <v>0.07548914338631507</v>
       </c>
       <c r="T51" t="n">
-        <v>0.07939342266217103</v>
+        <v>0.01800300983548589</v>
       </c>
       <c r="U51" t="n">
-        <v>0.05358313847758531</v>
+        <v>0.000823945408384556</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02102589056675819</v>
+        <v>0.08403064379470383</v>
       </c>
       <c r="W51" t="n">
-        <v>0.04488115158535903</v>
+        <v>0.02325371325375871</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02287950484105426</v>
+        <v>0.002196019739509482</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02845648195418195</v>
+        <v>0.04509219165579117</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.07244873820844867</v>
+        <v>0.06334685993568551</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.03690143319569138</v>
+        <v>0.0001112835351551735</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.02571557716852915</v>
+        <v>0.00945493485033801</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.01168448773534327</v>
+        <v>0.00590261368132533</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.04574050371586846</v>
+        <v>0.08128601598140846</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.02572575462564344</v>
+        <v>0.04785684639707488</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.01769420110832942</v>
+        <v>0.01719527734579454</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.06261743130316018</v>
+        <v>0.04911754503446548</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1225203884132686</v>
+        <v>0.1312532862187258</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1300962610129399</v>
+        <v>0.1306503776178724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.005098169734671916</v>
+        <v>0.003639759567268506</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0266791945377436</v>
+        <v>0.05292695865302147</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001891145601659197</v>
+        <v>0.00375372059908331</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03554592272033955</v>
+        <v>0.08434649124301399</v>
       </c>
       <c r="J52" t="n">
-        <v>0.03021582655944003</v>
+        <v>0.001430184584344932</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05193505635389951</v>
+        <v>0.02073326252475434</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01344798840723297</v>
+        <v>0.0345649712669697</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02545673672130082</v>
+        <v>0.008480061786579699</v>
       </c>
       <c r="N52" t="n">
-        <v>0.002879402164312553</v>
+        <v>0.006084881975480605</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05822180050101056</v>
+        <v>0.05137554485168735</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0006721765793952551</v>
+        <v>0.03329418890866382</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.06390087469350576</v>
+        <v>0.01235421959414836</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05536612032070273</v>
+        <v>0.05791697395993213</v>
       </c>
       <c r="S52" t="n">
-        <v>0.02603114154864697</v>
+        <v>0.04640192252791583</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06789712779853534</v>
+        <v>0.0695074952204674</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0659193202726966</v>
+        <v>0.07998322072697488</v>
       </c>
       <c r="V52" t="n">
-        <v>0.06987812717065714</v>
+        <v>0.008026162072076815</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01983164728157583</v>
+        <v>0.05820503166529296</v>
       </c>
       <c r="X52" t="n">
-        <v>0.02287998585421711</v>
+        <v>0.02505454739669051</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.01418939124981031</v>
+        <v>0.01929648160644687</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01136214523909788</v>
+        <v>0.004124010439036254</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.04158829405152639</v>
+        <v>0.01907135674011559</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01359301882688997</v>
+        <v>0.01718517538459885</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.02634882459153021</v>
+        <v>0.01736583657719153</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.06791423720798194</v>
+        <v>0.06784462900531697</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.06741091150181211</v>
+        <v>0.07781879753650807</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.06534105426134632</v>
+        <v>0.0567691332228582</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.04850435824846137</v>
+        <v>0.06244498036356101</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.0743000577310728</v>
+        <v>0.06978044798291895</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1469472243839529</v>
+        <v>0.1448113011750067</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01879702904037435</v>
+        <v>0.07146215515168744</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07690070132022911</v>
+        <v>0.05268098898454323</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06860986685931114</v>
+        <v>0.07164538818640427</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06275367564750425</v>
+        <v>0.06753760654183842</v>
       </c>
       <c r="J53" t="n">
-        <v>0.006401764313477202</v>
+        <v>0.01342807459363137</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06578976294806735</v>
+        <v>0.00503841463074835</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03513210063059623</v>
+        <v>0.05271347991895693</v>
       </c>
       <c r="M53" t="n">
-        <v>0.004926920261266259</v>
+        <v>0.004749540116780459</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0154632309909815</v>
+        <v>0.00258119112614608</v>
       </c>
       <c r="O53" t="n">
-        <v>0.04504667422145187</v>
+        <v>0.0128582586459487</v>
       </c>
       <c r="P53" t="n">
-        <v>0.003582344898108025</v>
+        <v>0.006535298065121329</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.07465835411627253</v>
+        <v>0.07345797928558831</v>
       </c>
       <c r="R53" t="n">
-        <v>0.003561755732271827</v>
+        <v>0.003710841058214026</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06658552227276396</v>
+        <v>0.06746336616624415</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02564771726368422</v>
+        <v>0.00998196368955777</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03439676058090088</v>
+        <v>0.01379278082514194</v>
       </c>
       <c r="V53" t="n">
-        <v>0.02209608992705256</v>
+        <v>0.0325681795855429</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04459614108032538</v>
+        <v>0.0248053780610433</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0003310138810634846</v>
+        <v>0.01507952185739934</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.03981110701263443</v>
+        <v>0.05751612086733626</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.005358677846749607</v>
+        <v>0.07089811749386189</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.05776442462403493</v>
+        <v>0.05229697430784461</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.07874625832343193</v>
+        <v>0.04768746279066646</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.01713061856637388</v>
+        <v>0.02442402923737608</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.0752437147108115</v>
+        <v>0.03488732584528891</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.01895493507088301</v>
+        <v>0.06651875665978174</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.02715121585098036</v>
+        <v>0.02343095791966311</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.004561622008398133</v>
+        <v>0.02024984838764257</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.08758596105028406</v>
+        <v>0.09167221098406446</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1447548917849505</v>
+        <v>0.1429739260476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01265672651078384</v>
+        <v>0.01061799661083363</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001124147970723917</v>
+        <v>0.00290877838364463</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03951859462919582</v>
+        <v>0.01352619904549796</v>
       </c>
       <c r="I54" t="n">
-        <v>0.05657061896448425</v>
+        <v>0.06166047370911863</v>
       </c>
       <c r="J54" t="n">
-        <v>0.002525997354586495</v>
+        <v>0.009100814296031153</v>
       </c>
       <c r="K54" t="n">
-        <v>0.005777260273092001</v>
+        <v>0.04490791097486083</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05118036834911876</v>
+        <v>0.01853387300711149</v>
       </c>
       <c r="M54" t="n">
-        <v>0.05269441002450283</v>
+        <v>0.04972195474014788</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01776914561168111</v>
+        <v>0.05188438485511736</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01056719325523846</v>
+        <v>0.0004739710978664122</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04298765676651622</v>
+        <v>0.03869583599230043</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.006483574236746487</v>
+        <v>0.0341435373074746</v>
       </c>
       <c r="R54" t="n">
-        <v>0.05342534437232062</v>
+        <v>0.05317392471525116</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03106637640651631</v>
+        <v>0.02045621188554017</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01836556670273606</v>
+        <v>0.008378929420642512</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0001143128199704956</v>
+        <v>0.006720147001030728</v>
       </c>
       <c r="V54" t="n">
-        <v>0.09471942442175209</v>
+        <v>0.06034744420367027</v>
       </c>
       <c r="W54" t="n">
-        <v>0.09266733834305706</v>
+        <v>0.06113405249265258</v>
       </c>
       <c r="X54" t="n">
-        <v>0.05305486351568409</v>
+        <v>0.0407512242043424</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.1025193329611896</v>
+        <v>0.06380384451960731</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.02323774580233415</v>
+        <v>0.01059199716374973</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.0434068635275212</v>
+        <v>0.0314842344625904</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02512176248964604</v>
+        <v>0.0140950772683727</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.07353392258338337</v>
+        <v>0.06227550230636461</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.002738070635695956</v>
+        <v>0.04137108603304111</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.05201492133493597</v>
+        <v>0.06045371236009452</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.03214144511146448</v>
+        <v>0.05936846268320298</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.002017015025122396</v>
+        <v>0.06941841925984199</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1561038272953474</v>
+        <v>-0.1532919957480298</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1719060996829554</v>
+        <v>0.1738787642022041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07517141176296045</v>
+        <v>0.07582991594974717</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04684667661751828</v>
+        <v>6.74003042551707e-05</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06781746221999552</v>
+        <v>0.05318485383176723</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04312747568433792</v>
+        <v>0.0712071574553971</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02637691531512668</v>
+        <v>0.01008204821007658</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01045844300698315</v>
+        <v>0.03901676200477822</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02181268104240522</v>
+        <v>0.005324930640342955</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07583890738767041</v>
+        <v>0.007359662263244654</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02691011471709364</v>
+        <v>0.07466383085984696</v>
       </c>
       <c r="O55" t="n">
-        <v>0.005979626889620729</v>
+        <v>0.02734257202064199</v>
       </c>
       <c r="P55" t="n">
-        <v>0.05839183571638808</v>
+        <v>0.03825622276446582</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01901875553375766</v>
+        <v>0.03229403473498051</v>
       </c>
       <c r="R55" t="n">
-        <v>0.072148480747351</v>
+        <v>0.06920580122083565</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01158856991597548</v>
+        <v>0.02695898254324094</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01224162053775057</v>
+        <v>0.005606775819282441</v>
       </c>
       <c r="U55" t="n">
-        <v>0.03078072523676566</v>
+        <v>0.03440762916074028</v>
       </c>
       <c r="V55" t="n">
-        <v>0.05687826321624696</v>
+        <v>0.06439631855940628</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0009719660626338712</v>
+        <v>0.006832224739035764</v>
       </c>
       <c r="X55" t="n">
-        <v>0.03041746726636409</v>
+        <v>0.009453312770875757</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0390942809638295</v>
+        <v>0.01545863206267412</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.07253440053632543</v>
+        <v>0.06732380050737144</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.05438314276787151</v>
+        <v>0.07117373793554738</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.01776472960264983</v>
+        <v>0.02356937227570989</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.05673259078595876</v>
+        <v>0.0148787870489822</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.01014531308242282</v>
+        <v>0.03492257552090673</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.03244411037109731</v>
+        <v>0.05660682473845771</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.01604128162842676</v>
+        <v>0.03658013959528311</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.008082751384472663</v>
+        <v>0.02799569446210603</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.1154869783775929</v>
+        <v>-0.1231604147576212</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2203331592266674</v>
+        <v>0.2233412779231987</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03965154580199584</v>
+        <v>0.0264203650743251</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04378272798324861</v>
+        <v>0.04577914744132867</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02614420131489053</v>
+        <v>0.009154375609954758</v>
       </c>
       <c r="I56" t="n">
-        <v>0.004563669690504374</v>
+        <v>0.01970802302990039</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04185492425393801</v>
+        <v>0.0466822756480056</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005094367964626043</v>
+        <v>0.04932311687793257</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01031596337676501</v>
+        <v>0.03242540150435543</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01696392331799936</v>
+        <v>0.008914558978618002</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02524139676338464</v>
+        <v>0.0155889057735744</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01234800528125331</v>
+        <v>0.01395844459730715</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02233709450788434</v>
+        <v>0.0266401381139978</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.03008940617861364</v>
+        <v>0.02375555060256561</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06929718047973456</v>
+        <v>0.04434579827088608</v>
       </c>
       <c r="S56" t="n">
-        <v>0.03462079003979478</v>
+        <v>0.02413801268679606</v>
       </c>
       <c r="T56" t="n">
-        <v>0.04850878067991206</v>
+        <v>0.06667860372192022</v>
       </c>
       <c r="U56" t="n">
-        <v>0.02172727785753246</v>
+        <v>0.05099158224203452</v>
       </c>
       <c r="V56" t="n">
-        <v>0.08563961047235859</v>
+        <v>0.06270727262254659</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05607167425567827</v>
+        <v>0.04648143190798276</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0499991043047735</v>
+        <v>0.02475928178362853</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05612572641479587</v>
+        <v>0.03221233734603983</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.01936560666327095</v>
+        <v>0.008136721007900851</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.02340105977720117</v>
+        <v>0.03266142815883282</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.07621251055863118</v>
+        <v>0.06543866606093486</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.007372966118918289</v>
+        <v>0.03059163223351563</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.003423061463609447</v>
+        <v>0.01099760083434062</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.07634877974572876</v>
+        <v>0.06302930594005945</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.03012995866971107</v>
+        <v>0.05506751765953013</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.06336868606324531</v>
+        <v>0.06341250427118557</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1468579172645229</v>
+        <v>0.1486912525917697</v>
       </c>
     </row>
     <row r="57">
@@ -6670,94 +6670,94 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2387057867965229</v>
+        <v>0.2380957623934482</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08397078412301406</v>
+        <v>0.08058905758263371</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06059116118298664</v>
+        <v>0.03044411758729062</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01086172155467657</v>
+        <v>0.06689637533505625</v>
       </c>
       <c r="I57" t="n">
-        <v>0.04320143663813851</v>
+        <v>0.01545847969469513</v>
       </c>
       <c r="J57" t="n">
-        <v>0.008275214452733088</v>
+        <v>0.00391444879117298</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03182959738695829</v>
+        <v>0.04183488846250413</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01870517559625176</v>
+        <v>0.02259340966093377</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01099378838732915</v>
+        <v>0.001094736562552596</v>
       </c>
       <c r="N57" t="n">
-        <v>0.04966907835427992</v>
+        <v>0.05268018933305319</v>
       </c>
       <c r="O57" t="n">
-        <v>0.06926272022294885</v>
+        <v>0.03368938265478862</v>
       </c>
       <c r="P57" t="n">
-        <v>0.003026050795136417</v>
+        <v>0.007318864222419143</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.05657508650380197</v>
+        <v>0.010795208302538</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0126848052950114</v>
+        <v>0.02383936710888752</v>
       </c>
       <c r="S57" t="n">
-        <v>0.02519483050119648</v>
+        <v>0.07649656525757031</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0772889310181073</v>
+        <v>0.02716674370889344</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03014709528891302</v>
+        <v>0.02293494888307497</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0464173122118602</v>
+        <v>0.01756280680648071</v>
       </c>
       <c r="W57" t="n">
-        <v>0.006043492815569393</v>
+        <v>0.02948914884733444</v>
       </c>
       <c r="X57" t="n">
-        <v>0.01761547792778852</v>
+        <v>0.01184107815717859</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01875863240326037</v>
+        <v>0.02848719335296476</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.04453654653810969</v>
+        <v>0.09710720720833761</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.06967011124837541</v>
+        <v>0.009928468989691757</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07356872776308131</v>
+        <v>0.07736543136286181</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.004602291387968193</v>
+        <v>0.007899756764369452</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.02525475740636791</v>
+        <v>0.02578147788856519</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.008078385338120993</v>
+        <v>0.04178590444248792</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.02103326558327298</v>
+        <v>0.03951162277696636</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.0721435220747417</v>
+        <v>0.09549312025469686</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1951455595389953</v>
+        <v>0.151498611423235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1029163410946626</v>
+        <v>0.1067273743113706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0368447564340211</v>
+        <v>0.05470449901172287</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05498503578633871</v>
+        <v>0.05979639643751161</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01914400502771067</v>
+        <v>0.04825239462100436</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005157794106546596</v>
+        <v>0.003770392081820722</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01742117024049487</v>
+        <v>0.006038907359403363</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001853466599799667</v>
+        <v>0.004314566598331179</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006587329443279138</v>
+        <v>0.0008742120573363883</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05026689858869233</v>
+        <v>0.04866817339766288</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01463866966469684</v>
+        <v>0.02730927777713764</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0005636231825000613</v>
+        <v>0.03540064245595225</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06251516617404783</v>
+        <v>0.04801882208525399</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06326825388059998</v>
+        <v>0.02812875508158199</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01394852294388066</v>
+        <v>0.03191295152699018</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02834749897397511</v>
+        <v>0.06578585729913029</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05493013809020954</v>
+        <v>0.05632713960140531</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05090720087066751</v>
+        <v>0.05279618565562377</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04202716381907816</v>
+        <v>0.02597078781850094</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03685432793448173</v>
+        <v>0.0123661372425531</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06488194345188776</v>
+        <v>0.06606905739430495</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.009410852447489548</v>
+        <v>0.01220129788730335</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0253636312210493</v>
+        <v>0.01332501506266868</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07512918998343435</v>
+        <v>0.04643265972901366</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04874144192202195</v>
+        <v>0.06582830977296007</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.058277802975405</v>
+        <v>0.02454143216353339</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06709170854052643</v>
+        <v>0.02497594809068042</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.008193029580547309</v>
+        <v>0.02121140142766361</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02430486798667334</v>
+        <v>0.06287738558113434</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.05834451012994461</v>
+        <v>0.05210139478181466</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05420935847385534</v>
+        <v>0.05018343819492359</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1291500264919627</v>
+        <v>0.1254986170063171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04789444188628274</v>
+        <v>0.01874222530007223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02019948112610965</v>
+        <v>0.03746731696627056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06558781566159308</v>
+        <v>0.06823325060614818</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004697628795550656</v>
+        <v>0.006843463807909263</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04006314828842543</v>
+        <v>0.001656659628690238</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01081487573069647</v>
+        <v>0.002180556519145934</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07144205995273553</v>
+        <v>0.0831175995641653</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07096509151294489</v>
+        <v>0.07029262002268684</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07457068692257061</v>
+        <v>0.04742688102628516</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009239388088091847</v>
+        <v>0.03139945456041043</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03576448067271158</v>
+        <v>0.02508562701972688</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07729183912836632</v>
+        <v>0.09354430700035346</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01073543878807031</v>
+        <v>0.03945459292272116</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001445065338286017</v>
+        <v>0.009225856513388751</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01916617704780141</v>
+        <v>0.01804618203885528</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04613094599634169</v>
+        <v>0.02185021886659628</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04421306513373158</v>
+        <v>0.07443365490715016</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07988859362554744</v>
+        <v>0.00866287777523247</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01944117823155601</v>
+        <v>0.01847295610711323</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005456558235576063</v>
+        <v>0.00143675089228682</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03343642922924773</v>
+        <v>0.03730825288912025</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07110363809211429</v>
+        <v>0.02171345362985792</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03876797308653332</v>
+        <v>0.04120527424104351</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01764995988553971</v>
+        <v>0.06556900023929697</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.008189886187715201</v>
+        <v>0.009584758203790624</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05423154892050988</v>
+        <v>0.08727286663876903</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02055178171817679</v>
+        <v>0.05752081793663153</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001060822717173691</v>
+        <v>0.002252524176281597</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08726066400548965</v>
+        <v>0.05355003774801669</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1056909255361083</v>
+        <v>0.1035898690937238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01744936032641769</v>
+        <v>0.01455306191444508</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05187337912555412</v>
+        <v>0.01533386640096583</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008035746980255644</v>
+        <v>0.005598732396573959</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0153366964788238</v>
+        <v>0.006714870427957125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002861487691195504</v>
+        <v>0.02218991547020818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009163027351463984</v>
+        <v>0.001459085971753375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04072554478896798</v>
+        <v>0.0236197755390116</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01082187697147283</v>
+        <v>0.05078999326382942</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04038869411693123</v>
+        <v>0.06704969144482573</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006742693529416455</v>
+        <v>0.02313304536668985</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07442793670584018</v>
+        <v>0.04803697127132384</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03557311848962685</v>
+        <v>0.01621779702187635</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07828563008854274</v>
+        <v>0.04667158119316218</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05966825497384681</v>
+        <v>0.02882187766090739</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0180968059850399</v>
+        <v>0.05495246089164611</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04120458253811062</v>
+        <v>0.05374150272896051</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05733770950338778</v>
+        <v>0.06742388323327987</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01914173364235925</v>
+        <v>0.003787914136937263</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04969591532348992</v>
+        <v>0.02024992160175923</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005312967206516928</v>
+        <v>0.01516601303040181</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01818755153152019</v>
+        <v>0.06396947506982791</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003052458654528302</v>
+        <v>0.03389533708792987</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07883718392721406</v>
+        <v>0.0453473438475535</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03077671903461071</v>
+        <v>0.04412550215170049</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07704239351287108</v>
+        <v>0.06935551220671092</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.06422305391973648</v>
+        <v>0.05545372455103022</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.05873160018383602</v>
+        <v>0.04278794928899507</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02700587741842295</v>
+        <v>0.05955319482973718</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.00551821268913246</v>
+        <v>0.02285958279678853</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1574273260322786</v>
+        <v>0.1307668465437233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07391349353154636</v>
+        <v>0.06665528789662446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005174750909431249</v>
+        <v>0.01472031317800085</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02584375141082781</v>
+        <v>0.02173380261744304</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05194164708584056</v>
+        <v>0.04413388224726084</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009848281590557142</v>
+        <v>0.01622899801104687</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005701037149967583</v>
+        <v>0.00992770829545734</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06566485807904951</v>
+        <v>0.03542951214694898</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002812883223251531</v>
+        <v>0.01438233841617723</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07089337717157869</v>
+        <v>0.07938598846376219</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06667037493472641</v>
+        <v>0.01349786722061748</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06132399146851109</v>
+        <v>0.009985770628890637</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06681016976627543</v>
+        <v>0.01458975989451835</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08351460031042302</v>
+        <v>0.07022773642076412</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02381853389868964</v>
+        <v>0.005360869725782115</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01638671000694841</v>
+        <v>0.02059692953437022</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0480795247830112</v>
+        <v>0.07565890387734125</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07188800154607726</v>
+        <v>0.05718557237393188</v>
       </c>
       <c r="W5" t="n">
-        <v>0.006643023862867504</v>
+        <v>0.07277780949912208</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005832112091407163</v>
+        <v>0.04333800668651987</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04224889752647858</v>
+        <v>0.03157270836729071</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004127438131070365</v>
+        <v>0.04397033338243464</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02201478826031327</v>
+        <v>0.03754244695743761</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03015254886160593</v>
+        <v>0.007244090910464127</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01825317619379145</v>
+        <v>0.007116186030242275</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.008025505218947101</v>
+        <v>0.07154349311045456</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.05608298379536147</v>
+        <v>0.07668169297465025</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03024844972838906</v>
+        <v>0.02105162319679862</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02608508946305531</v>
+        <v>0.01746036793564739</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02641686531232733</v>
+        <v>0.05406043305550109</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1251220368830999</v>
+        <v>0.1235346167883698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03338219085704464</v>
+        <v>0.0380446385629994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05837277377237552</v>
+        <v>0.002357382476672853</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008044289996350935</v>
+        <v>0.0130057116477603</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02389170598157988</v>
+        <v>0.006716635495376796</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004644284822543125</v>
+        <v>0.01646335084401431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008247852909426532</v>
+        <v>0.01019140704119333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0611869169683733</v>
+        <v>0.05314237739989575</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002959430430543643</v>
+        <v>0.01075781547707397</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05875640212719919</v>
+        <v>0.05316129720187431</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02253018941404459</v>
+        <v>0.01630683711962088</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04874383377190469</v>
+        <v>0.07596039961029702</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06441423020459008</v>
+        <v>0.07956021818576535</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04332516881301129</v>
+        <v>0.02741218852773768</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006477041158003744</v>
+        <v>0.001824344718115597</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04764886261314356</v>
+        <v>0.08793044017964596</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03953508462674755</v>
+        <v>0.04954521756747671</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02345625695392812</v>
+        <v>0.01052831923296139</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04257999306375771</v>
+        <v>0.05349547554531679</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04084665836705858</v>
+        <v>0.0118537950334677</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02793431674692869</v>
+        <v>0.05358838267468929</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01450947781544926</v>
+        <v>0.018784182069474</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01607839278770809</v>
+        <v>0.03926103120724442</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001131321226793419</v>
+        <v>0.01689287258836653</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05189138043313211</v>
+        <v>0.001207739257219583</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04698311848980018</v>
+        <v>0.03491945260298207</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06516963213293765</v>
+        <v>0.06734171631107318</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07184071767897082</v>
+        <v>0.08410445234416415</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06541847583665301</v>
+        <v>0.06564231907752052</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1266795748225182</v>
+        <v>-0.1249309654155799</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1407587176728777</v>
+        <v>0.1677231861523874</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0602408428361353</v>
+        <v>0.08794044881289308</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002629649658069004</v>
+        <v>0.009315585515537232</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007229239182970854</v>
+        <v>0.02363160044651966</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05165896757833029</v>
+        <v>0.01414727712935011</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02945434155557039</v>
+        <v>0.021879005290669</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07450168911084762</v>
+        <v>0.08006680129472492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06429937651139093</v>
+        <v>0.01396592997994958</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002050122123467377</v>
+        <v>0.06163291473292405</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0675843809090462</v>
+        <v>0.05495053864287244</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01098718505706812</v>
+        <v>0.01237540642049259</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05815997202911548</v>
+        <v>0.02327632043754855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07115023730967912</v>
+        <v>0.05340376614981147</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0626568403229471</v>
+        <v>0.08041534858190122</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003193632684677635</v>
+        <v>0.01205416604275295</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03117370085046229</v>
+        <v>0.01224578774664643</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04366268635066073</v>
+        <v>0.01021533474915629</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07486252016664044</v>
+        <v>0.02117423838307429</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05328111457984143</v>
+        <v>0.009971530905838358</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001012462194715565</v>
+        <v>0.03441711285471406</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001196289631694222</v>
+        <v>0.03248528747451347</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03046781269183308</v>
+        <v>0.01376069143076718</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07130500137288746</v>
+        <v>0.06910451375335151</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.008654465550947522</v>
+        <v>0.0002526603931712887</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.00154192632064678</v>
+        <v>0.002843259356503715</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.02648597294443873</v>
+        <v>0.02917967452161466</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04777987836290204</v>
+        <v>0.07986336300810254</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01723139684909705</v>
+        <v>0.09476252478043409</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0255482952639171</v>
+        <v>0.04066891116416511</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1003745402199235</v>
+        <v>-0.08869480447471619</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1442753596986029</v>
+        <v>0.144294088554163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002654497978627222</v>
+        <v>0.007582524274949994</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08348319755403</v>
+        <v>0.06454269955264123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06402365361383752</v>
+        <v>0.02738746465512491</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02663487943891021</v>
+        <v>0.004044105126770599</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08202288238277462</v>
+        <v>0.06012654299869845</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02724287233910673</v>
+        <v>0.001587983486479313</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04667775758645139</v>
+        <v>0.04993810324330363</v>
       </c>
       <c r="M8" t="n">
-        <v>0.039854331489113</v>
+        <v>0.05872468172535622</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02966289958062962</v>
+        <v>0.04606811675184756</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01434745096801366</v>
+        <v>0.01555446877519749</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0004343731950891053</v>
+        <v>0.03517777135271204</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008180115883269817</v>
+        <v>0.01516282434396779</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0125242870642648</v>
+        <v>0.0005896832177946848</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08032547950702816</v>
+        <v>0.007855518550047668</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02102140910075338</v>
+        <v>0.04222430433598885</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007072345435709934</v>
+        <v>0.007206828915963767</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00171653488175839</v>
+        <v>0.02528588742722857</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06362060189304747</v>
+        <v>0.03439040256839317</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04265721685030568</v>
+        <v>0.03020224195684411</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04127344597464081</v>
+        <v>0.003036169185887329</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001257059270633743</v>
+        <v>0.05520905382233784</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0115373657577065</v>
+        <v>0.01841957842409354</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0844842551383289</v>
+        <v>0.06477565519483168</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0467607383663563</v>
+        <v>0.07845180993964697</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0088902368762128</v>
+        <v>0.06239500643660072</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02362391271599803</v>
+        <v>0.06402367543999016</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.09093259106091463</v>
+        <v>0.05280877285217531</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.03708360809648749</v>
+        <v>0.06722812544512641</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2406326073135062</v>
+        <v>-0.1657203920633042</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1803082858952395</v>
+        <v>0.1851396776385404</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07774913999426392</v>
+        <v>0.07172912627481183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02556071130665685</v>
+        <v>0.04850588663133681</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009227863973694158</v>
+        <v>0.01327134909903397</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008701296459816401</v>
+        <v>0.0009689829896493855</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06694074426856339</v>
+        <v>0.0525383054307811</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06423181002364496</v>
+        <v>0.07310577571218053</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05928200539703736</v>
+        <v>0.01030452876019392</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04153368616848739</v>
+        <v>0.051405428347369</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0541478832751723</v>
+        <v>0.02444761767463053</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02899603868629385</v>
+        <v>0.01372628605806448</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0002153788432104209</v>
+        <v>0.008150706482168991</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.006718873011141381</v>
+        <v>0.04286052266971001</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0252426391039338</v>
+        <v>0.01824118738023545</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04044019945368757</v>
+        <v>0.0123057079363368</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02181704357585637</v>
+        <v>0.07493725643000665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009929403992875712</v>
+        <v>0.04578264468185357</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0324703688349356</v>
+        <v>0.009343881659810432</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06956736490764362</v>
+        <v>0.05978029866108053</v>
       </c>
       <c r="X9" t="n">
-        <v>0.008329443157002722</v>
+        <v>0.05500926566641695</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01787773233165919</v>
+        <v>0.01855457136663172</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05149928189724855</v>
+        <v>0.05552208324943956</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0449493974794695</v>
+        <v>0.0383670626789349</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.07747094853091885</v>
+        <v>0.03559059491873347</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.041891860980323</v>
+        <v>0.003105993292484206</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.008926483124375818</v>
+        <v>0.03225358587140837</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04665737344858796</v>
+        <v>0.02344472599636888</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.002657005834192855</v>
+        <v>0.03358976268195361</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.05696802193930656</v>
+        <v>0.07315686139837456</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2774854394359303</v>
+        <v>-0.2582632132690091</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2478869280155935</v>
+        <v>0.2461973525842931</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06497127621626757</v>
+        <v>0.02114959438038503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03628195966669068</v>
+        <v>0.06048750866378605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003271017611384534</v>
+        <v>0.01372974228843284</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01753040150235848</v>
+        <v>0.03638075872524293</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01734944190375371</v>
+        <v>0.02459678756125771</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007293034785163212</v>
+        <v>0.003495497223803812</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05211063893543848</v>
+        <v>0.02689173120196936</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01424944926257196</v>
+        <v>0.00959074276932371</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0447994745963758</v>
+        <v>0.01159379159580269</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002239557569022114</v>
+        <v>0.007590200062485082</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03166974434171026</v>
+        <v>0.01332591403017469</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03840112513628938</v>
+        <v>0.003534698454759791</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06021213442651522</v>
+        <v>0.06213387986105598</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03079654051695699</v>
+        <v>0.0466167873110909</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06123473389163962</v>
+        <v>0.07563405899606328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01341017302207525</v>
+        <v>0.02606016136280715</v>
       </c>
       <c r="V10" t="n">
-        <v>0.06105312531178579</v>
+        <v>0.06930201331111578</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04006188084956806</v>
+        <v>0.06713907064103859</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06167168962316476</v>
+        <v>0.01840700518951738</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02548920714902219</v>
+        <v>0.03472345705422474</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05161178675240165</v>
+        <v>0.005571230587208525</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02179993821674488</v>
+        <v>0.02754451715614003</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.04826212273525246</v>
+        <v>0.05598950159444065</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02505928412342706</v>
+        <v>0.03342809445885568</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02846138202110848</v>
+        <v>0.06201455650580737</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.04742343190530917</v>
+        <v>0.06848413311134022</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03950198975179752</v>
+        <v>0.07369395232787411</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05378345817620477</v>
+        <v>0.04089061357399584</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.01623425651550235</v>
+        <v>-0.0144477995911753</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2637802935224918</v>
+        <v>0.2845822969928175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0732065867774753</v>
+        <v>0.06009638619964942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06370955626224037</v>
+        <v>0.06250728841161929</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007215782692398721</v>
+        <v>0.06176697369674439</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01179398464734529</v>
+        <v>0.0009554238184012547</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02121591760392765</v>
+        <v>0.03297064284534142</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04647136651918614</v>
+        <v>0.03018675780779629</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01228105675435139</v>
+        <v>0.06728123310587036</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06868698962753533</v>
+        <v>0.05339519801575265</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02661531958670734</v>
+        <v>0.03362849125199087</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005559249038785255</v>
+        <v>0.01288813969932055</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03314094444652129</v>
+        <v>0.0566847748036722</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.003998178712620246</v>
+        <v>0.00044917125249124</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04008046468939938</v>
+        <v>0.03846867400997322</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02097279947982679</v>
+        <v>0.04592195219641416</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001818467540765605</v>
+        <v>0.02465236129320924</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01698236572857224</v>
+        <v>0.01690823551243689</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02530291056332651</v>
+        <v>0.05228630749916734</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07784384225517728</v>
+        <v>0.0293697258797917</v>
       </c>
       <c r="X11" t="n">
-        <v>6.286361965220964e-05</v>
+        <v>0.004164906994663272</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.047267264426692</v>
+        <v>0.003263586249984574</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01274232255156231</v>
+        <v>0.02643424067139422</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.05090943860780679</v>
+        <v>0.06667690327714237</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02308498960629938</v>
+        <v>0.05061954158112551</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05559964827757848</v>
+        <v>0.06682360670879972</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02452935297108072</v>
+        <v>0.01586281848750117</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06315525516288797</v>
+        <v>0.01176674920193519</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07820671038048926</v>
+        <v>0.01747348483502541</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.08754637146978868</v>
+        <v>0.05649642469278613</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.002170395485955493</v>
+        <v>0.0188055357206654</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2794319916550565</v>
+        <v>0.2766462592519895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002545098224494549</v>
+        <v>0.03430860236142521</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02968619100358412</v>
+        <v>0.07800670823214184</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01180043349744187</v>
+        <v>0.02617549545117112</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03572310455547809</v>
+        <v>0.005665399084216287</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02835248688535105</v>
+        <v>0.01023737347000985</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01917887135665927</v>
+        <v>0.01011974742920816</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02564379333326373</v>
+        <v>0.04668973681479257</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03870025326025317</v>
+        <v>0.02460266921060743</v>
       </c>
       <c r="N12" t="n">
-        <v>0.006278653586486471</v>
+        <v>0.01697974079103912</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01277790536027781</v>
+        <v>0.01756238830639201</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02650722540324642</v>
+        <v>0.04668612353105687</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0452812863462483</v>
+        <v>0.02556119976360717</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06571602955607961</v>
+        <v>0.06932948494301085</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04127030996706226</v>
+        <v>0.03487303833742177</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07217628765193128</v>
+        <v>0.07648168724700102</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004329445478396621</v>
+        <v>0.008480701258885042</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05398569856126981</v>
+        <v>0.06432033186835212</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05068640491650955</v>
+        <v>0.04326710337307705</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05897257477303062</v>
+        <v>0.009965978506983124</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.001102213519890114</v>
+        <v>0.07952903118386917</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03371359796178573</v>
+        <v>0.005085606167181071</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06457626707725589</v>
+        <v>0.06868260523467125</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06780409554516341</v>
+        <v>0.07177017328015517</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01794341143976883</v>
+        <v>0.0133448190047894</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06269156411595175</v>
+        <v>0.005459477122200769</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01981062913317313</v>
+        <v>0.03971619809179377</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.04919027837981589</v>
+        <v>0.009074402741292101</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.05355588911013084</v>
+        <v>0.05802417719364861</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2047639624242818</v>
+        <v>0.1960582299757568</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3342966473284487</v>
+        <v>0.3608097269588521</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01605582398717854</v>
+        <v>0.04077685263501458</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09595312112500143</v>
+        <v>0.04395715601567127</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01694461716541424</v>
+        <v>0.01818836887405809</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03154766488431481</v>
+        <v>0.005476047294770007</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003986801882803665</v>
+        <v>0.005090908225240416</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01068429174420034</v>
+        <v>0.003644354916722126</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06643617670014523</v>
+        <v>0.03684375565111169</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02943517698669543</v>
+        <v>0.03924833405840159</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06432161235863038</v>
+        <v>0.005897201229992243</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04575068711400004</v>
+        <v>0.06418324224407851</v>
       </c>
       <c r="P13" t="n">
-        <v>0.090405635372921</v>
+        <v>0.06336113992019125</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001157490305056066</v>
+        <v>0.01052409845719478</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09184008523651868</v>
+        <v>0.06461305113131045</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02096429542005819</v>
+        <v>0.01006685780054086</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08250761051057315</v>
+        <v>0.06209984984778617</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06632272034696715</v>
+        <v>0.09339522652532051</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0006905163711445593</v>
+        <v>0.004565483828067587</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00815572878358671</v>
+        <v>0.04539930682278295</v>
       </c>
       <c r="X13" t="n">
-        <v>0.020565995072787</v>
+        <v>0.01936762377713451</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.00287543619122363</v>
+        <v>0.05665701907529246</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0041596645400657</v>
+        <v>0.04485311623437963</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006332093526692392</v>
+        <v>0.08225762894286687</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.05830295221917371</v>
+        <v>0.0147467338349994</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.06980536708754148</v>
+        <v>0.08243331484800384</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0006224167406322272</v>
+        <v>0.02040818780664922</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.001849440334830095</v>
+        <v>0.00251131808193491</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.06519287145824161</v>
+        <v>0.05894867799570044</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.02713370653360256</v>
+        <v>0.0004851439247837273</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2029646940904748</v>
+        <v>0.2090171388885149</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3027114240001925</v>
+        <v>0.2980383543228866</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02035450292859229</v>
+        <v>0.01794227637030537</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02191638077830059</v>
+        <v>0.07638071496673812</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009182136457426725</v>
+        <v>0.003499248488132688</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07619098440108921</v>
+        <v>0.06570821088250337</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001613278633802176</v>
+        <v>0.02593770579190703</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02312400204727288</v>
+        <v>0.01230228738084437</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01814484363703498</v>
+        <v>0.00437041635101012</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06318192577107228</v>
+        <v>0.0510999286918527</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002496664358825578</v>
+        <v>0.02015754012425924</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02002656791055136</v>
+        <v>0.002547925160991813</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0814846977495113</v>
+        <v>0.01790324530917905</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01665693440112201</v>
+        <v>0.03042166873545674</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0006749325171841751</v>
+        <v>0.0006801980741636549</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02075309143432331</v>
+        <v>0.05534252680691772</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06278661179408407</v>
+        <v>0.0366015030906813</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007284647724638983</v>
+        <v>0.008225236378028512</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0482311330488992</v>
+        <v>0.07288461039226697</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04073118620505695</v>
+        <v>0.0526144943415772</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02825084004689365</v>
+        <v>0.05653113687775551</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06158696420909352</v>
+        <v>0.06911789872363394</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02932997732512536</v>
+        <v>0.03204123391231366</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07275860189159165</v>
+        <v>0.04698094354631444</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.03453620439475497</v>
+        <v>0.006684228796285289</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.04180748372549083</v>
+        <v>0.01677084813498744</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.06474650844456552</v>
+        <v>0.07004446883126669</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06237388027921757</v>
+        <v>0.03302418653307365</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01007803841585773</v>
+        <v>0.03730786838746353</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.05969697946862117</v>
+        <v>0.07687744892008969</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.06396752458548657</v>
+        <v>-0.07518686232417622</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3669650064013207</v>
+        <v>0.3724755584204116</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08232972893183295</v>
+        <v>0.07570197589213848</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03571732842191832</v>
+        <v>0.01216073189627061</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02224989061279786</v>
+        <v>0.06055915629160559</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0476801672067183</v>
+        <v>0.07199115959344254</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004979434707965527</v>
+        <v>0.009589320174742405</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09344894187418425</v>
+        <v>0.07416960200209753</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00487463505892957</v>
+        <v>0.07650083996066201</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05167291552816956</v>
+        <v>0.07201943327280448</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0176921454782478</v>
+        <v>0.07718483211918103</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02597046555643099</v>
+        <v>0.04670741495875232</v>
       </c>
       <c r="P15" t="n">
-        <v>0.09300513044158325</v>
+        <v>0.008416253724727256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004506521706613154</v>
+        <v>0.008710946778498478</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03054643616283774</v>
+        <v>0.007968812867116263</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04262906373257335</v>
+        <v>0.05815555190851193</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01748439101118253</v>
+        <v>0.01541663060752221</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01024762577017192</v>
+        <v>0.0306683291300364</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01476153327037993</v>
+        <v>0.02800035594706885</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01618629199756652</v>
+        <v>0.0592773045567694</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01207505523690279</v>
+        <v>0.002485916586974966</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06179102050698205</v>
+        <v>0.0456613187637752</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02416394336821105</v>
+        <v>0.02688459062098852</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.08229866513532261</v>
+        <v>0.001474569833301492</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.05976104047559003</v>
+        <v>0.0009367498411791017</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.006000957422769516</v>
+        <v>0.005222873313674292</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01400513498100503</v>
+        <v>0.03791193812332103</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.08561880620013941</v>
+        <v>0.00413588616188561</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01361465846430196</v>
+        <v>0.03316876084356022</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02468807073867204</v>
+        <v>0.04891874422939165</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.03630712098888983</v>
+        <v>-0.05674831373872818</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2750229477034194</v>
+        <v>0.2751434879749011</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007546949972270756</v>
+        <v>0.005791228924780482</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002046726296994289</v>
+        <v>0.07526582360691798</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01645036996203991</v>
+        <v>0.03599926671144818</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01525530164250707</v>
+        <v>0.02356628188247136</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02386827165753716</v>
+        <v>0.003016464322287765</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01589159340922473</v>
+        <v>0.001079452719810095</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05303271384845044</v>
+        <v>0.04163136761454365</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04214443116311282</v>
+        <v>0.04262806066217809</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02468573500211376</v>
+        <v>0.001163424693836528</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01260022597720925</v>
+        <v>0.03176074429996789</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03129435934055205</v>
+        <v>0.02664491176915649</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06002968734688763</v>
+        <v>0.02336486471803226</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07122784527135821</v>
+        <v>0.03502781820408411</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04042388702529991</v>
+        <v>0.04649066508564829</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06535095478750462</v>
+        <v>0.0507090256943855</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00715383503818267</v>
+        <v>0.007885745383582887</v>
       </c>
       <c r="V16" t="n">
-        <v>0.06736773451767313</v>
+        <v>0.07226793152368416</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07154746483296395</v>
+        <v>0.07649255271690722</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04659521246028597</v>
+        <v>0.02808473925751505</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02682953164888997</v>
+        <v>0.03672723276832664</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.005120212919106069</v>
+        <v>0.02096565102028686</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.07024488565113997</v>
+        <v>0.02742927076801492</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06171095880314308</v>
+        <v>0.04074678006783448</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01334449642626156</v>
+        <v>0.04844116446806486</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002889792063397077</v>
+        <v>0.04617749688898844</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.03980535046644055</v>
+        <v>0.06226125417972864</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04186371457557186</v>
+        <v>0.02874358838267011</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06367775789388165</v>
+        <v>0.05963719166484693</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.179312654399653</v>
+        <v>0.1608725043005211</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.347374255512427</v>
+        <v>0.3413463701999292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07261530337056155</v>
+        <v>0.06247238967589418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001750678642274474</v>
+        <v>0.0005273343054057287</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06320646888613357</v>
+        <v>0.06998489010097918</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005384213223438798</v>
+        <v>0.01124694811320991</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01760618945822959</v>
+        <v>0.04422579063036091</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0452613407693772</v>
+        <v>0.08049589231092248</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08110291827948282</v>
+        <v>0.02469677403119202</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006170364327533792</v>
+        <v>0.03665881905185888</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07586199085739735</v>
+        <v>0.06870067757403403</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07615865054318564</v>
+        <v>0.0121916594071021</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02451333314059761</v>
+        <v>0.05328383643943648</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01230038944022386</v>
+        <v>0.02401522285390661</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06725274883128121</v>
+        <v>0.06322439446343971</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001195069457517111</v>
+        <v>0.01221945567090243</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05074053423723567</v>
+        <v>0.006879403072454652</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01093206842423409</v>
+        <v>0.0148586068840575</v>
       </c>
       <c r="V17" t="n">
-        <v>0.007762801066536372</v>
+        <v>0.01808070999042939</v>
       </c>
       <c r="W17" t="n">
-        <v>0.003601554712940759</v>
+        <v>0.07041772255860616</v>
       </c>
       <c r="X17" t="n">
-        <v>0.003306607785058583</v>
+        <v>0.004459720032821542</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03052478846746236</v>
+        <v>0.01098488576547037</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04695224795801273</v>
+        <v>0.009579489483314611</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.05573314716398112</v>
+        <v>0.08047497747020892</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02860443184816964</v>
+        <v>0.04497814213654609</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0507710977628215</v>
+        <v>0.04358926384773277</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0477056955925305</v>
+        <v>0.08128091001792551</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02385072938867804</v>
+        <v>0.03278888013690726</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07810724057843078</v>
+        <v>0.01372347542099078</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0110273957866734</v>
+        <v>0.003959728553889768</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.192487754730631</v>
+        <v>0.2175767935957796</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1801052792400237</v>
+        <v>0.1842433842899504</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06191190265133733</v>
+        <v>0.01552099727057453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06634085089521329</v>
+        <v>0.08171431318127612</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001117473615896903</v>
+        <v>0.02059197285078435</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01988378278499879</v>
+        <v>0.01031873889902396</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02496246661470799</v>
+        <v>0.01774311364029839</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03896034137232036</v>
+        <v>0.008506539162704923</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02716343482037206</v>
+        <v>0.04908462333030248</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05367500822513969</v>
+        <v>0.0452324155579831</v>
       </c>
       <c r="N18" t="n">
-        <v>0.007474258179281701</v>
+        <v>0.04369068344389034</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05086988925800881</v>
+        <v>0.0102221872504282</v>
       </c>
       <c r="P18" t="n">
-        <v>0.001106205893946414</v>
+        <v>0.002928697540031327</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02278233642247871</v>
+        <v>0.006626932474736152</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03435359983589603</v>
+        <v>0.04091150617151625</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02054934596049623</v>
+        <v>0.01726734403680742</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05026083703623677</v>
+        <v>0.02119695859342665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007351461656314606</v>
+        <v>0.004530474556112989</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0539738357422053</v>
+        <v>0.05511848853197163</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05452635476966231</v>
+        <v>0.05507220756928353</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04039816239963365</v>
+        <v>0.04055175993700356</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06088040793975492</v>
+        <v>0.06088489047349648</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0202309526759766</v>
+        <v>0.06223796791151139</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01832071656959729</v>
+        <v>0.03461298604463924</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07016963272697363</v>
+        <v>0.03635212518533926</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.00142571884112432</v>
+        <v>0.05094606854647142</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.009599150867753587</v>
+        <v>0.04512540596366297</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.04277452007309543</v>
+        <v>0.0436097258778245</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07087918631890136</v>
+        <v>0.08213783732359474</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.06805816585267602</v>
+        <v>0.03726303867530422</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03720344764525704</v>
+        <v>0.05249065074457285</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2324336626490481</v>
+        <v>0.2229660127926431</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05747565028716807</v>
+        <v>0.07293425123777726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03047500812175954</v>
+        <v>0.004973076795989282</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05725217288402398</v>
+        <v>0.02110582024060782</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05998969608312508</v>
+        <v>0.004577226749343758</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07467257048112474</v>
+        <v>0.06669448588172337</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0726539078695273</v>
+        <v>0.06888416900431746</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01165740633391324</v>
+        <v>0.003311286617466255</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0690225693724773</v>
+        <v>0.03487324610158179</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0134147531186577</v>
+        <v>0.005920506670618604</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01141542832574232</v>
+        <v>0.00689894304538463</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0004490775696821055</v>
+        <v>0.01188879902899355</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05165444167108626</v>
+        <v>0.04373829347820372</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05909505144731949</v>
+        <v>0.06700159038411561</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01729029540129255</v>
+        <v>0.04816974855944305</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04551287963291859</v>
+        <v>0.02933301399116098</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007935640862963726</v>
+        <v>0.004109803987192902</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01014769462716919</v>
+        <v>0.07434412584093049</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07578079379760588</v>
+        <v>0.04934219147855434</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05253670186375285</v>
+        <v>0.01556512682767791</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.002313395520860774</v>
+        <v>0.01665548062895377</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0234209449323661</v>
+        <v>0.02569251193553054</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01752004183949946</v>
+        <v>0.08680885854776858</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02300317174946268</v>
+        <v>0.071856156648487</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02511054464188227</v>
+        <v>0.05493301356285822</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.07967549460659032</v>
+        <v>0.0838835161847586</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02382865551698425</v>
+        <v>0.004925260324291393</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01610950471735566</v>
+        <v>0.005645624580559889</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01058650672368866</v>
+        <v>0.0159338716657091</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1072693293263688</v>
+        <v>0.09432152078493339</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1347370844275547</v>
+        <v>0.132349098428044</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02484962853122747</v>
+        <v>0.05869160721228078</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03255014227239623</v>
+        <v>0.06806604480330816</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03325808738136574</v>
+        <v>0.01714727762931558</v>
       </c>
       <c r="I20" t="n">
-        <v>0.024361556046036</v>
+        <v>0.04236017865003682</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03044702156356021</v>
+        <v>0.03745067369536897</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001492419171176074</v>
+        <v>0.003892713740214416</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03708857561688001</v>
+        <v>0.0266926469053341</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0005121961479019048</v>
+        <v>0.04319778524821328</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0008061405045405264</v>
+        <v>0.008411707655167033</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06963338562285294</v>
+        <v>0.04341301968554777</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03894705788916122</v>
+        <v>0.04593446988625861</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.005145994808641883</v>
+        <v>0.008399616216473203</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06120565856545714</v>
+        <v>0.02959155845798944</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05791328999788666</v>
+        <v>0.0585856856878513</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04444659179271295</v>
+        <v>0.07016831733789319</v>
       </c>
       <c r="U20" t="n">
-        <v>0.001496448027372216</v>
+        <v>0.0047481648333033</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06690682309426223</v>
+        <v>0.05137874978145543</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05928980010726252</v>
+        <v>0.02813101083317656</v>
       </c>
       <c r="X20" t="n">
-        <v>0.00961078379701461</v>
+        <v>0.002092519175686643</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04701688152130387</v>
+        <v>0.05077972866453512</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.04925401919990718</v>
+        <v>0.05956556576551508</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05783162720838968</v>
+        <v>0.02350822682801821</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06756708113482833</v>
+        <v>0.05050244264462705</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04119376151903698</v>
+        <v>0.01243592586798481</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01535616015515429</v>
+        <v>0.02112132202111426</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.04069764266819786</v>
+        <v>0.07217199575233202</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.05984731027790192</v>
+        <v>0.001839685558552878</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0212739153775713</v>
+        <v>0.05972135946244611</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.009743751882736707</v>
+        <v>0.02077551163480422</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1666122046607771</v>
+        <v>0.1676774459069562</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04771708452078523</v>
+        <v>0.08087417961745659</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01289115387014668</v>
+        <v>0.03236522775782276</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0388344904868006</v>
+        <v>0.05118315490332908</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009690065228417602</v>
+        <v>0.05100134065874246</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07782245566533666</v>
+        <v>0.07385062850613455</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001991339981165421</v>
+        <v>0.001339316509862764</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001456122439902179</v>
+        <v>0.03547319667933558</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03298226348848723</v>
+        <v>0.01035926765900658</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01662975147065016</v>
+        <v>0.01859727154661426</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0005661363437661316</v>
+        <v>0.009478943495121911</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05415728830067746</v>
+        <v>0.04242778044950049</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06622340512640551</v>
+        <v>0.0720979184053754</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07521606934672241</v>
+        <v>0.07883084153630415</v>
       </c>
       <c r="S21" t="n">
-        <v>0.009446864181651136</v>
+        <v>0.06351015304148573</v>
       </c>
       <c r="T21" t="n">
-        <v>0.001727328877961345</v>
+        <v>0.001603779219289968</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07400484318352261</v>
+        <v>0.04327274392263569</v>
       </c>
       <c r="V21" t="n">
-        <v>0.006762182150761866</v>
+        <v>0.04328202569250716</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07514841494467024</v>
+        <v>0.04131767133406228</v>
       </c>
       <c r="X21" t="n">
-        <v>0.004444751555587675</v>
+        <v>0.02889723431997649</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01251181080362301</v>
+        <v>0.01313283068617358</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02590844239687076</v>
+        <v>0.03252912861483354</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07517487641130387</v>
+        <v>0.02640791465142965</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04939750037464413</v>
+        <v>0.02257557368983876</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.04094353612426672</v>
+        <v>0.01936424446559627</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.05458641330897067</v>
+        <v>0.04265861331907642</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.00159362553883424</v>
+        <v>0.03991851279380867</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.05769313843165389</v>
+        <v>0.002215673931542944</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.07447864544641439</v>
+        <v>0.02143483259313619</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.0132917067627549</v>
+        <v>0.001804647042903205</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1605329529794791</v>
+        <v>0.1598862190204492</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01428392092542155</v>
+        <v>0.002984652800298846</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01641970465427572</v>
+        <v>0.02705125478109908</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04459962062650265</v>
+        <v>0.0036150543218626</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005588739977709269</v>
+        <v>0.005350716977751957</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01974055843077319</v>
+        <v>0.01142484652148936</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02740550953373401</v>
+        <v>0.0383742933587974</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06632405981277838</v>
+        <v>0.005437048273867205</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003127241837541467</v>
+        <v>0.006854206753642045</v>
       </c>
       <c r="N22" t="n">
-        <v>0.009564197850346777</v>
+        <v>0.03452347343486184</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02168717148256099</v>
+        <v>0.05473015218542688</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03357557866088327</v>
+        <v>0.01044740129680023</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01614453337069529</v>
+        <v>0.07384695434861635</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08100498156552351</v>
+        <v>0.07866928070898165</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02220399882352798</v>
+        <v>0.04913791627498481</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07871314540257793</v>
+        <v>0.05396246353365302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02239654408038524</v>
+        <v>0.009625810307845418</v>
       </c>
       <c r="V22" t="n">
-        <v>0.07877355539782138</v>
+        <v>0.06626212952584214</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01232219473895373</v>
+        <v>0.02890796731960394</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03664391011037007</v>
+        <v>0.03669856405478625</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0306484232646553</v>
+        <v>0.009758963980128581</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01297115890027996</v>
+        <v>0.06993958450815654</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03399386855671094</v>
+        <v>0.007428420645533152</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0619143012093348</v>
+        <v>0.0529885875599295</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07937801274916573</v>
+        <v>0.02518526724156537</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.003813488439734102</v>
+        <v>0.02308115456842576</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0583852087504084</v>
+        <v>0.07883528895597837</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.05973511109533805</v>
+        <v>0.07454352996318445</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.04864125975198999</v>
+        <v>0.06033501579688726</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.05385418975789114</v>
+        <v>0.06150433205437142</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1815672926084911</v>
+        <v>0.1748924481594625</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0191596781780347</v>
+        <v>0.03173205902123973</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06851314004801565</v>
+        <v>0.03900728268607392</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01010166531135205</v>
+        <v>0.01771319711119165</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03755539762215025</v>
+        <v>0.07056588878458003</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08257988848798557</v>
+        <v>0.02418997899061603</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02088152109231638</v>
+        <v>0.02565703588627745</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007990039656707068</v>
+        <v>0.006078471717633678</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01366909916839839</v>
+        <v>0.01089851587618827</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007038983331483966</v>
+        <v>0.01273046773450358</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002833301024379177</v>
+        <v>0.03716327870170233</v>
       </c>
       <c r="P23" t="n">
-        <v>0.07193102495679117</v>
+        <v>0.03280830069818892</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0364897004352468</v>
+        <v>0.01279622045341198</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06657379484868843</v>
+        <v>0.008474240103862826</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07974402281497993</v>
+        <v>0.07414190896165036</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02032930371076121</v>
+        <v>0.02024001240512188</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03117224211094511</v>
+        <v>0.0004696834848983069</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05140456571009702</v>
+        <v>0.01700557703052561</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04511328434048</v>
+        <v>0.07147422394612137</v>
       </c>
       <c r="X23" t="n">
-        <v>0.07664082020474691</v>
+        <v>0.002782600538206295</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02600858175769828</v>
+        <v>0.004135801222388563</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.005003958045969248</v>
+        <v>0.04127815348338486</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.06452738683462757</v>
+        <v>0.078737323282808</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05513674784849004</v>
+        <v>0.030578573105011</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01759583274133204</v>
+        <v>0.05082857789992028</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.05375523328761141</v>
+        <v>0.09859532141943379</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.01532309969763809</v>
+        <v>0.09577229935124197</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.01062465885971661</v>
+        <v>0.008931598115148801</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.002303027873356954</v>
+        <v>0.07521340798866862</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05055083938284043</v>
+        <v>0.06875413730392002</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1559277143508887</v>
+        <v>0.1566853914467222</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007297349342835516</v>
+        <v>0.002488611698879318</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03160677746379151</v>
+        <v>0.01236198626465287</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01833101114506787</v>
+        <v>0.007434216535795222</v>
       </c>
       <c r="I24" t="n">
-        <v>0.006745060354127272</v>
+        <v>0.01650843623158922</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02753794410186355</v>
+        <v>0.0528048877695788</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04227706057407116</v>
+        <v>0.003592980598243911</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009100345221564434</v>
+        <v>0.09563615600598017</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002307892151629382</v>
+        <v>0.009084752394402583</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03834263329085177</v>
+        <v>0.003406500111353698</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06170369053614179</v>
+        <v>0.0299555581557968</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02902468501898211</v>
+        <v>0.02052432620108595</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0113475204672532</v>
+        <v>0.05347672815496442</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03753401372407001</v>
+        <v>0.08400312826612401</v>
       </c>
       <c r="S24" t="n">
-        <v>0.007799483001579878</v>
+        <v>0.01055449382496739</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05179979424355179</v>
+        <v>0.09364798967424585</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01368330480390605</v>
+        <v>0.02648080238823195</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05044812502009304</v>
+        <v>0.08044245659652505</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07010547675286169</v>
+        <v>0.06713934455413868</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05699353592285574</v>
+        <v>0.0006261552796736399</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07259298646253912</v>
+        <v>0.05454703188819868</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06797470855449997</v>
+        <v>0.001836225946033776</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.006750658893696928</v>
+        <v>0.03034001054787984</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.05803237239888513</v>
+        <v>0.02466582417245247</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.04619055993202825</v>
+        <v>0.02140222662361344</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.02273779914091876</v>
+        <v>0.01186480471017131</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.07645440889022516</v>
+        <v>0.06783114137100817</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.03149404739642638</v>
+        <v>0.05881200474282457</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.04378675519368275</v>
+        <v>0.05853121929158823</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.04197356595449761</v>
+        <v>0.05214973460820089</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1717597956867066</v>
+        <v>0.1704544478992894</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01239135256896448</v>
+        <v>0.02812489748451416</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07823533475171746</v>
+        <v>0.05987269627420649</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08173449774565378</v>
+        <v>0.06479512296052889</v>
       </c>
       <c r="I25" t="n">
-        <v>0.019015890225006</v>
+        <v>0.006752805372841345</v>
       </c>
       <c r="J25" t="n">
-        <v>0.009559741051193532</v>
+        <v>0.000413834832328123</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002247119899930537</v>
+        <v>0.03990488423047046</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02710108792916593</v>
+        <v>0.01125663069729462</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0417832652556732</v>
+        <v>0.08532996421067084</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07903228335458205</v>
+        <v>0.06946055759542509</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03015020279268718</v>
+        <v>0.01517886350917013</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02820033193875902</v>
+        <v>0.02170055294528902</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007044189340208985</v>
+        <v>0.01311993067068162</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0060925819097624</v>
+        <v>0.01888286073316111</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03544512677773815</v>
+        <v>0.01680406639109747</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05075514558283086</v>
+        <v>0.07809268918150027</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0508530285776656</v>
+        <v>0.01276088576912406</v>
       </c>
       <c r="V25" t="n">
-        <v>0.07471547987417837</v>
+        <v>0.05041683604367271</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06783999202924466</v>
+        <v>0.08222117657614554</v>
       </c>
       <c r="X25" t="n">
-        <v>0.003412443831941594</v>
+        <v>0.06600071474757987</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.00142952779409632</v>
+        <v>0.04174609338817371</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.007044640485428518</v>
+        <v>0.01310518771550722</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01862462605155478</v>
+        <v>0.009351557493042624</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.06897131114878621</v>
+        <v>0.007493766559797354</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03814705643537129</v>
+        <v>0.02086444476986634</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.08206068487461649</v>
+        <v>0.08619763657100026</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.008215380063878256</v>
+        <v>0.00807128737426779</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.001314789992965827</v>
+        <v>0.007921850350585602</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.06858288771639857</v>
+        <v>0.06415820555205751</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03486172696742442</v>
+        <v>0.02374773567592366</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1429076593925199</v>
+        <v>0.1417876567030624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04293912446444634</v>
+        <v>0.05752852295591344</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08067424160117696</v>
+        <v>0.0627137079734776</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03772907909194569</v>
+        <v>0.02111274680938998</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01473480891886283</v>
+        <v>0.03219582177935858</v>
       </c>
       <c r="J26" t="n">
-        <v>0.009819425147733457</v>
+        <v>0.01534057073241706</v>
       </c>
       <c r="K26" t="n">
-        <v>0.008718175253397513</v>
+        <v>8.614933156003143e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03234954638854411</v>
+        <v>0.007392771940457579</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06485284589550416</v>
+        <v>0.01005203595944115</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001656400424837037</v>
+        <v>0.02198422191158694</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00205646320147985</v>
+        <v>0.02013418215017602</v>
       </c>
       <c r="P26" t="n">
-        <v>0.009288865604089581</v>
+        <v>0.02867951012041238</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01270634088208134</v>
+        <v>0.002250126547383249</v>
       </c>
       <c r="R26" t="n">
-        <v>0.003404947606029704</v>
+        <v>0.02232512573797306</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06234955694540053</v>
+        <v>0.03555729338235553</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04630342419728629</v>
+        <v>0.04231086288819659</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01472831613374758</v>
+        <v>0.03660305361780185</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05393067601029341</v>
+        <v>0.05304509504436562</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01927480327488206</v>
+        <v>0.04896461716651129</v>
       </c>
       <c r="X26" t="n">
-        <v>0.07430219669572448</v>
+        <v>0.007332249749453124</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04283024660680444</v>
+        <v>0.07508805609123245</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03377464947175515</v>
+        <v>0.06912960300938385</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.05314368160931258</v>
+        <v>0.03793931591560899</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05910905954862623</v>
+        <v>0.07003224398516081</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.002644527122294917</v>
+        <v>0.03592700741241693</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03449133426945167</v>
+        <v>0.02153346839777716</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0747384855412401</v>
+        <v>0.06609209561093865</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.05486719061226935</v>
+        <v>0.04948047049346092</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05258158748078262</v>
+        <v>0.04916907328578914</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1146659372221144</v>
+        <v>0.1115454979818168</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1649348769336838</v>
+        <v>0.1621523878361235</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0198051074626554</v>
+        <v>0.04223960201005786</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07949263588831397</v>
+        <v>0.05713888824337375</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02835322098300981</v>
+        <v>0.009825401855445408</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01928807119093819</v>
+        <v>0.02763799632796375</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0008033955366837817</v>
+        <v>0.02947473372813316</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07123384060073165</v>
+        <v>0.06383463106106775</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05364872583200209</v>
+        <v>0.0109238565188334</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0115125042852828</v>
+        <v>0.04553149750982728</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03142666748018036</v>
+        <v>0.07224298043696953</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02758546689667115</v>
+        <v>0.01778497913333601</v>
       </c>
       <c r="P27" t="n">
-        <v>0.07310231778193758</v>
+        <v>0.09645363363205978</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.07180509847980787</v>
+        <v>0.04193975480455599</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01758521107928859</v>
+        <v>0.02765174981534088</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01886882311077942</v>
+        <v>0.004858232968232823</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01043097111319459</v>
+        <v>0.05509382471596142</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04812878977709812</v>
+        <v>0.009012593998280015</v>
       </c>
       <c r="V27" t="n">
-        <v>0.004507932193956563</v>
+        <v>0.0496753965651177</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02146662652071585</v>
+        <v>0.003758856754061978</v>
       </c>
       <c r="X27" t="n">
-        <v>0.07060385400980153</v>
+        <v>0.04440699824281621</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03202077037067964</v>
+        <v>0.006853579370180904</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02268762103846667</v>
+        <v>0.017988366127181</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01099038296576554</v>
+        <v>0.0068219540210749</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.06615862120643176</v>
+        <v>0.06647570735275175</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05633120471467571</v>
+        <v>0.077610448715981</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.006480557561281867</v>
+        <v>0.01531247977215424</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.02702250271904608</v>
+        <v>0.06083323876825823</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.02881262190904025</v>
+        <v>0.03313221893131174</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.06984645729156314</v>
+        <v>0.005486398619671639</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1188855566643186</v>
+        <v>0.1042892857647655</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1584144055477577</v>
+        <v>0.1579383200023505</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06576239123991046</v>
+        <v>0.06642630171435439</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03421378279166432</v>
+        <v>0.06495989327674544</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005743760590412286</v>
+        <v>0.004082283035532436</v>
       </c>
       <c r="I28" t="n">
-        <v>0.005545911305070318</v>
+        <v>0.004592972374769129</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05020788674497403</v>
+        <v>0.02451791683787925</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004248620614523038</v>
+        <v>0.01450131827006132</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01287300731064561</v>
+        <v>0.06055495925262214</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06457848346415233</v>
+        <v>0.04904193516447202</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03035269168607354</v>
+        <v>0.04605175859372977</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03469168066969106</v>
+        <v>0.03480936339049768</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06757078121860238</v>
+        <v>0.04997897740605926</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01238178153568524</v>
+        <v>0.01239504738394176</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02416386968279372</v>
+        <v>0.01307997597387501</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05157619896690262</v>
+        <v>0.06686310991007198</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04425003922404646</v>
+        <v>0.03073545011241918</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01665395761085297</v>
+        <v>0.003956951081817203</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03433654963969907</v>
+        <v>0.03213686501899355</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04985003094439162</v>
+        <v>0.0609840342904048</v>
       </c>
       <c r="X28" t="n">
-        <v>0.009502609791352777</v>
+        <v>0.06044590344475946</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.06707858448479791</v>
+        <v>0.02843091578818367</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.006882073539900196</v>
+        <v>0.005760046433109184</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04774897273592833</v>
+        <v>0.01929154956150616</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0244183834614514</v>
+        <v>0.05427121461862596</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.05070951354587419</v>
+        <v>0.06096632289323578</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.04208086304950311</v>
+        <v>0.02916869972069398</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02944136070786187</v>
+        <v>0.01156583377627015</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.05537010292213966</v>
+        <v>0.04270591233668107</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.05776611052109946</v>
+        <v>0.04772448833868834</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1098114109727999</v>
+        <v>0.111977885612517</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1925333560890035</v>
+        <v>0.1805919466388138</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05508645365414421</v>
+        <v>0.04144106399608717</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0382514533788753</v>
+        <v>0.07126828314554454</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06001860881890675</v>
+        <v>0.06095723335563574</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07214368561839953</v>
+        <v>0.05972095794617774</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004146232696526907</v>
+        <v>0.01945969738617456</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07800634267717763</v>
+        <v>0.06674167781232811</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05690432624810996</v>
+        <v>0.03043261193177581</v>
       </c>
       <c r="M29" t="n">
-        <v>0.008098346652515687</v>
+        <v>0.01327739596068705</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02134047254770055</v>
+        <v>0.04100892064518009</v>
       </c>
       <c r="O29" t="n">
-        <v>0.06363433812362149</v>
+        <v>0.07010591984975394</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04004479092158097</v>
+        <v>0.02642135032493556</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04157903299168245</v>
+        <v>0.03140225606742609</v>
       </c>
       <c r="R29" t="n">
-        <v>0.00577128444853848</v>
+        <v>0.006375730407988971</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03182261897310156</v>
+        <v>0.0437082954679885</v>
       </c>
       <c r="T29" t="n">
-        <v>0.002024115976197744</v>
+        <v>0.006544332505764507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04469128785448473</v>
+        <v>0.001981917820410108</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0006020699026734784</v>
+        <v>0.03335771022470216</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01012297744144553</v>
+        <v>0.03421008488505974</v>
       </c>
       <c r="X29" t="n">
-        <v>0.004047098670000661</v>
+        <v>0.02044766786421353</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.05021636098082542</v>
+        <v>0.0667272365102943</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01275615522114283</v>
+        <v>0.02210383166456457</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05227650774764907</v>
+        <v>0.04672799392596913</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.05202521139067137</v>
+        <v>0.03121052068182325</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02807990062856511</v>
+        <v>0.05276743449574338</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.04288340316923126</v>
+        <v>0.002156260225730873</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01857342791313367</v>
+        <v>0.00282837434415453</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.07789951057461794</v>
+        <v>0.06249936723462864</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.02695398477847988</v>
+        <v>0.03411587331925748</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1595799954062389</v>
+        <v>0.1535014757221047</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1086554471089649</v>
+        <v>0.108569749099017</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04005733455398827</v>
+        <v>0.06571474679188191</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05801657402202899</v>
+        <v>0.06784106138084399</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00158799016948114</v>
+        <v>0.004074031319646932</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01080363709419594</v>
+        <v>0.01132377469724287</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06905977700384622</v>
+        <v>0.04425034540519634</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002668364007949748</v>
+        <v>0.01328485131760495</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07216217687502666</v>
+        <v>0.02867601204894859</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0007358243876018263</v>
+        <v>0.02957084745832829</v>
       </c>
       <c r="N30" t="n">
-        <v>0.02130038134489663</v>
+        <v>0.007668587729943055</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01361216420871314</v>
+        <v>0.02677623928791379</v>
       </c>
       <c r="P30" t="n">
-        <v>0.02904878499929477</v>
+        <v>0.04861524150230617</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.00313397148893709</v>
+        <v>0.008030502688960361</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01561024346117197</v>
+        <v>0.01164410150291272</v>
       </c>
       <c r="S30" t="n">
-        <v>0.008785980389951641</v>
+        <v>0.05312695045502142</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02791337835490807</v>
+        <v>0.03018624871086559</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01948957917074834</v>
+        <v>0.008921380603094145</v>
       </c>
       <c r="V30" t="n">
-        <v>0.07279887841982588</v>
+        <v>0.04786658494945095</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05155200783125853</v>
+        <v>0.05510080837436645</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0231021794068282</v>
+        <v>0.04168798589265161</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07431196545841746</v>
+        <v>0.04493124801485607</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0478783063220725</v>
+        <v>0.01988292249239215</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.03364978024037061</v>
+        <v>0.04856349025862898</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.06929984597746248</v>
+        <v>0.05284819096607805</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05124049938964471</v>
+        <v>0.04837286830558305</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.003266022182432915</v>
+        <v>0.07106500134255676</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.05607210808948825</v>
+        <v>0.04236920148501767</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.05323754130187092</v>
+        <v>0.02275619454572078</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.06960470384758716</v>
+        <v>0.04485058047198641</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07720087179343414</v>
+        <v>0.0711747949455982</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1173822932764097</v>
+        <v>0.1234744246294351</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02283460570489555</v>
+        <v>0.01282335401288597</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05017963219769896</v>
+        <v>0.004461356039039143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002159381321281521</v>
+        <v>0.02794645809627547</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08790008931050063</v>
+        <v>0.0542301326196574</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01510099399430993</v>
+        <v>0.001228898797525814</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01550864409411007</v>
+        <v>0.06080981139664019</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07474009943875357</v>
+        <v>0.04513437071951467</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00538297759255283</v>
+        <v>0.001053784482639775</v>
       </c>
       <c r="N31" t="n">
-        <v>0.06026911619208725</v>
+        <v>0.06609906767247442</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01076137235543891</v>
+        <v>0.04705514996172874</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002152370631007415</v>
+        <v>0.09255272536378538</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.003642535967932495</v>
+        <v>0.002593249293214616</v>
       </c>
       <c r="R31" t="n">
-        <v>0.05066708633543093</v>
+        <v>0.03110655211510311</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04469867778694717</v>
+        <v>0.06735875705818446</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02537090172284919</v>
+        <v>0.03078039896297988</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01848723941981045</v>
+        <v>0.018854521484519</v>
       </c>
       <c r="V31" t="n">
-        <v>0.06434425799560789</v>
+        <v>0.02092136982255598</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01518018539026272</v>
+        <v>0.03105958757624301</v>
       </c>
       <c r="X31" t="n">
-        <v>0.06199580665001982</v>
+        <v>0.05607464378834683</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02602083385084558</v>
+        <v>0.001649476413391404</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01642777173476696</v>
+        <v>0.01565900847039714</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.07728505462360559</v>
+        <v>0.07079683506797282</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01250564252694144</v>
+        <v>0.0234976094062224</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.04351907662987074</v>
+        <v>0.0003329599599271086</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.08684148286211593</v>
+        <v>0.01711564572603596</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.03083560153802601</v>
+        <v>0.07303738152280753</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.03708733091918776</v>
+        <v>0.0741315667646235</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.03810123121314285</v>
+        <v>0.05163532740530829</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.06466303978138337</v>
+        <v>0.05954693493036294</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1118827445888667</v>
+        <v>0.1082923655209904</v>
       </c>
       <c r="F32" t="n">
-        <v>0.008112197083862384</v>
+        <v>0.01526222005157916</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01567447713181365</v>
+        <v>0.05348710212584409</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002896857922168373</v>
+        <v>0.0008616996463987526</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01865711387765392</v>
+        <v>0.01969580488888928</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02885145633717725</v>
+        <v>0.02842901782172226</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0477969374931151</v>
+        <v>0.04875007141051622</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05740248306320091</v>
+        <v>0.05519611053147488</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04631516503349632</v>
+        <v>0.03728806831401699</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0009915639522318953</v>
+        <v>0.007458358613037598</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02057089834967925</v>
+        <v>0.0402233699208573</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07007263237942922</v>
+        <v>0.05788749572632404</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0457120554817313</v>
+        <v>0.01057765522691197</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05286048027531106</v>
+        <v>0.05996667963811723</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01749107020368903</v>
+        <v>0.009934708501298488</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01436111533474011</v>
+        <v>0.01169657267419897</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0380094228833783</v>
+        <v>0.003164133695548821</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02354939462033645</v>
+        <v>0.0529203050553174</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06594855638929405</v>
+        <v>0.03277222694711906</v>
       </c>
       <c r="X32" t="n">
-        <v>0.06444503127880118</v>
+        <v>0.0428536613198259</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04876045271014268</v>
+        <v>0.04850854133971855</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.06306062769111508</v>
+        <v>0.01721420978007514</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04586799135455923</v>
+        <v>0.06943624667523222</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03415894975048808</v>
+        <v>0.06773124673870548</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.009239062421708463</v>
+        <v>0.03587212142003474</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.01352224149861781</v>
+        <v>0.05354703855699627</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.04092269638931867</v>
+        <v>0.0332459723169994</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.04750001685273214</v>
+        <v>0.02721888318500414</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.05724905224020788</v>
+        <v>0.05880047787823551</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.05425514502536975</v>
+        <v>0.07647068595144858</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1313648804315127</v>
+        <v>0.1278995764662427</v>
       </c>
       <c r="F33" t="n">
-        <v>0.008613594385035847</v>
+        <v>0.0517939504024319</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02021682103190112</v>
+        <v>0.06373118290168717</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0122627028488732</v>
+        <v>0.000529751360921472</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03842086874514936</v>
+        <v>0.027469067488642</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004302379404475422</v>
+        <v>0.00427887713753766</v>
       </c>
       <c r="K33" t="n">
-        <v>0.005357468277948479</v>
+        <v>0.001232031963413083</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06957208723606943</v>
+        <v>0.007489402423144967</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02063363674331879</v>
+        <v>0.02991789544233127</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04753573412119592</v>
+        <v>0.06601293069566164</v>
       </c>
       <c r="O33" t="n">
-        <v>0.04272949504480165</v>
+        <v>0.06589376611412295</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03183379230006638</v>
+        <v>0.06816638806556886</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03488236778520185</v>
+        <v>0.06979235817437937</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01957309120849595</v>
+        <v>0.01439243149872836</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07096565442395131</v>
+        <v>0.04325759025794068</v>
       </c>
       <c r="T33" t="n">
-        <v>0.04502161758737612</v>
+        <v>0.02605825361428973</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01479248851359511</v>
+        <v>0.006181075053993099</v>
       </c>
       <c r="V33" t="n">
-        <v>0.03068982254518045</v>
+        <v>0.01863724025300538</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01598944466101224</v>
+        <v>0.006240470925209414</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04238105586566029</v>
+        <v>0.05962132489103231</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07039087631173592</v>
+        <v>0.05467533065437698</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0585491431755502</v>
+        <v>0.0544032304149973</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.05519158964446215</v>
+        <v>0.05979392739671497</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01802095445392909</v>
+        <v>0.02934661969526534</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.06739403462785108</v>
+        <v>0.01714003423381666</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.01353622726406149</v>
+        <v>0.009078272962880435</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.02788979667284297</v>
+        <v>0.04579272329374119</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.06479828231483052</v>
+        <v>0.06645144939842994</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.04845497280542772</v>
+        <v>0.03262242328573586</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.07914967164052281</v>
+        <v>0.09901010994046457</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1170957866369809</v>
+        <v>0.1150003804547713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02649788471367805</v>
+        <v>0.02046178895161589</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04079826164071423</v>
+        <v>0.003833552025039939</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05191926585940896</v>
+        <v>0.05148698650065216</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07589136209260498</v>
+        <v>0.0143227763342341</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05916931340294596</v>
+        <v>0.06412655429230263</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01468429178528019</v>
+        <v>0.02156952395444864</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0004865716366573163</v>
+        <v>0.06509116550736285</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03257099390781192</v>
+        <v>0.05179284184896805</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02752101893063897</v>
+        <v>0.05537643958645345</v>
       </c>
       <c r="O34" t="n">
-        <v>0.004879378321038017</v>
+        <v>0.02444685716295205</v>
       </c>
       <c r="P34" t="n">
-        <v>0.02132608522749088</v>
+        <v>0.008782971104265607</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07058555650427049</v>
+        <v>0.07417883905468493</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06220165857036444</v>
+        <v>0.06511001337289707</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007454203790192199</v>
+        <v>0.01130034440612151</v>
       </c>
       <c r="T34" t="n">
-        <v>0.006734314747861613</v>
+        <v>0.001327067173386993</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001656838388866472</v>
+        <v>0.04097492663510158</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0645954487900699</v>
+        <v>0.02957170994642983</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01314364310763931</v>
+        <v>0.02584681569980229</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01121106422544654</v>
+        <v>0.004647403816681906</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0124948722156589</v>
+        <v>0.005931546725219684</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.07139394863477687</v>
+        <v>0.06943767305342854</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.05049819474121354</v>
+        <v>0.03483345265189643</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.06779257656565568</v>
+        <v>0.04905159653676618</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05573446939133119</v>
+        <v>0.07267338037448774</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.001796721325817151</v>
+        <v>0.01135235600634358</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.03305391094130872</v>
+        <v>0.05146303417689213</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.04693540269219568</v>
+        <v>0.01403615903982693</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.06697274784906199</v>
+        <v>0.05697222406173721</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.01790914647761115</v>
+        <v>-0.01416334654843619</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1227147463494591</v>
+        <v>0.1829035131322342</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06868158091890723</v>
+        <v>0.06335093157877658</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02212346273558214</v>
+        <v>0.04181169554283209</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02205599948441743</v>
+        <v>0.009307625962907637</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06560356015953578</v>
+        <v>0.002616333273497862</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0286887820651218</v>
+        <v>0.0435612477209971</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01068474862492051</v>
+        <v>0.03041378299926265</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02853803819180814</v>
+        <v>0.06285198090236224</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0107952786849417</v>
+        <v>0.0247611519929822</v>
       </c>
       <c r="N35" t="n">
-        <v>0.07324336606856878</v>
+        <v>0.06762136223410278</v>
       </c>
       <c r="O35" t="n">
-        <v>0.06398786848403107</v>
+        <v>0.02508304830114726</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06181889949357621</v>
+        <v>0.03965131403357557</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02378760606212712</v>
+        <v>0.04598992961318095</v>
       </c>
       <c r="R35" t="n">
-        <v>0.04413899453344539</v>
+        <v>0.03826570487701164</v>
       </c>
       <c r="S35" t="n">
-        <v>0.002987569833719751</v>
+        <v>0.01441840423662903</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02528806291556506</v>
+        <v>0.02967723990308703</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02221137077503773</v>
+        <v>0.0006925232257655279</v>
       </c>
       <c r="V35" t="n">
-        <v>0.05670566293965796</v>
+        <v>0.07504520558996705</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01279655241304981</v>
+        <v>0.02276926521550449</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01037866003436696</v>
+        <v>0.008321919551743452</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01152827790100698</v>
+        <v>0.05723167679998733</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.08348352820894869</v>
+        <v>0.07496298799894066</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.002093815547069072</v>
+        <v>0.005536930511496911</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01409770583131181</v>
+        <v>0.02465478028744622</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.05370784006368506</v>
+        <v>0.07157718030887529</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.01085958691775942</v>
+        <v>0.05882496940456392</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.03972513855668379</v>
+        <v>0.006208126140626403</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.06498904811849192</v>
+        <v>0.05328376311625405</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.06499899443666278</v>
+        <v>0.001508918676476043</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.01994435821913796</v>
+        <v>0.02320279528850102</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1016564773501939</v>
+        <v>0.106172532564176</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02364000777894741</v>
+        <v>0.02377197341831228</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005580471971521788</v>
+        <v>0.04869161917789555</v>
       </c>
       <c r="H36" t="n">
-        <v>0.008937403165689766</v>
+        <v>0.0536375299681827</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03738562943641778</v>
+        <v>0.07714776007312281</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04885028452590981</v>
+        <v>0.05571129743832608</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0265604355882859</v>
+        <v>0.002212683987892591</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03094432858741926</v>
+        <v>0.03452625317220705</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06761755464635358</v>
+        <v>0.05591672045839804</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02787365554060946</v>
+        <v>0.049008804568584</v>
       </c>
       <c r="O36" t="n">
-        <v>0.008281811560481448</v>
+        <v>0.01601822280625132</v>
       </c>
       <c r="P36" t="n">
-        <v>0.04607953468374871</v>
+        <v>0.03993780262484316</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.005342654344228986</v>
+        <v>0.0278767978945902</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04216103619765783</v>
+        <v>0.03478969491984299</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01846444764616833</v>
+        <v>0.0348763683751037</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03548459718052905</v>
+        <v>0.07165301223909262</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06849413236808033</v>
+        <v>0.02661934945673858</v>
       </c>
       <c r="V36" t="n">
-        <v>0.07528006771309288</v>
+        <v>0.04976839428417492</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08178201517215426</v>
+        <v>0.03466208689939104</v>
       </c>
       <c r="X36" t="n">
-        <v>0.009479227414039369</v>
+        <v>0.02927714061531068</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.03740225008289276</v>
+        <v>0.0517225536597781</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0002042573869320919</v>
+        <v>0.009052296897722949</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.007358959174199388</v>
+        <v>0.001339417740491775</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.08006847813800529</v>
+        <v>0.01754516290960426</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0603115594647415</v>
+        <v>0.05737301558318867</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0003621455833441243</v>
+        <v>0.001379277356356351</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.06437919584487108</v>
+        <v>0.03062070059987439</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.06859048800562005</v>
+        <v>0.02197339976394801</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.01308337079805782</v>
+        <v>0.04289066311077523</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.00655482208017241</v>
+        <v>-0.01350367609082538</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1403555126980378</v>
+        <v>0.1419654893895983</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07130049161284426</v>
+        <v>0.06479051267091707</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03762271311795343</v>
+        <v>0.02902546223659592</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03281998649645138</v>
+        <v>0.02106976345627268</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04104110286174451</v>
+        <v>0.058817562903235</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03123780086192257</v>
+        <v>0.03303046615048743</v>
       </c>
       <c r="K37" t="n">
-        <v>0.06505300882407156</v>
+        <v>0.06186574619686706</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0731830138005147</v>
+        <v>0.0544838117871007</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01388312853368409</v>
+        <v>0.01458937815583223</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04859092930336373</v>
+        <v>0.06947666513623353</v>
       </c>
       <c r="O37" t="n">
-        <v>0.01006740640152914</v>
+        <v>0.001683806282101813</v>
       </c>
       <c r="P37" t="n">
-        <v>0.03938510977589678</v>
+        <v>0.06846110692459642</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03664550856518099</v>
+        <v>0.02988666636596948</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01451569345405875</v>
+        <v>0.01198366903421388</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06860046258776681</v>
+        <v>0.05347019377065853</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02068025811302514</v>
+        <v>0.0005621368781233171</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02446188391887926</v>
+        <v>0.0482565677981859</v>
       </c>
       <c r="V37" t="n">
-        <v>0.05058206744986684</v>
+        <v>0.0008096747693954988</v>
       </c>
       <c r="W37" t="n">
-        <v>0.06234880128138666</v>
+        <v>0.003170698841673975</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02646821751396019</v>
+        <v>0.06886040445507181</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.05080080246282766</v>
+        <v>0.001980397313452332</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0699832045422201</v>
+        <v>0.05897850095232116</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.002332139217835488</v>
+        <v>0.02043937745741491</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.00111011202941971</v>
+        <v>0.03413023084085148</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.02388322380936365</v>
+        <v>0.05710031907579002</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.002043204720708794</v>
+        <v>0.004410526637554334</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.01649414362478592</v>
+        <v>0.03271284412918263</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.04868756791968821</v>
+        <v>0.04115487215080744</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.01617801719904977</v>
+        <v>0.05479863762909343</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01968277893421209</v>
+        <v>0.00660405982344067</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1165783046157964</v>
+        <v>0.1179336425231518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07938511185107047</v>
+        <v>0.0656671257688945</v>
       </c>
       <c r="G38" t="n">
-        <v>3.739174247876622e-05</v>
+        <v>0.003510272372545386</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01037961520817753</v>
+        <v>0.03751634150944878</v>
       </c>
       <c r="I38" t="n">
-        <v>0.005346349904756044</v>
+        <v>0.04832532327106449</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02499623795098703</v>
+        <v>0.01641954162691059</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01108995052028006</v>
+        <v>0.002937962986439552</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01821403297648872</v>
+        <v>0.02697529839336941</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03490875612658776</v>
+        <v>0.01829412339929603</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0499226557624866</v>
+        <v>0.01611774203042272</v>
       </c>
       <c r="O38" t="n">
-        <v>0.06462128870559883</v>
+        <v>0.003451365196670532</v>
       </c>
       <c r="P38" t="n">
-        <v>0.009037149324611179</v>
+        <v>0.04881156039588582</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.001407723220780314</v>
+        <v>0.04552250780573396</v>
       </c>
       <c r="R38" t="n">
-        <v>0.00381852903710412</v>
+        <v>0.05661956626361746</v>
       </c>
       <c r="S38" t="n">
-        <v>0.03024893101821803</v>
+        <v>0.04554645407069215</v>
       </c>
       <c r="T38" t="n">
-        <v>0.08318460362359341</v>
+        <v>0.002009320629893554</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0193365651100978</v>
+        <v>0.01405542430819648</v>
       </c>
       <c r="V38" t="n">
-        <v>0.07888257264998974</v>
+        <v>0.05789965096452025</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07677832839253579</v>
+        <v>0.06904505388906348</v>
       </c>
       <c r="X38" t="n">
-        <v>0.004045688755250043</v>
+        <v>0.05701411819854473</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05817826742427658</v>
+        <v>0.04047408416305211</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01584667811524072</v>
+        <v>0.02256838520571587</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.01035866849156983</v>
+        <v>0.001944281760091863</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.02863197550617912</v>
+        <v>0.05299500653898649</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.03488867696630473</v>
+        <v>0.04952179947849511</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.08054746952970294</v>
+        <v>0.02619581854132218</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.06681517517827057</v>
+        <v>0.07677580610487771</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.03330064396025997</v>
+        <v>0.0170919043047468</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.06579096294710317</v>
+        <v>0.07669416082150186</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05794523863790661</v>
+        <v>0.06086606399004042</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.138093367914511</v>
+        <v>0.1376440310695875</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06277479903116856</v>
+        <v>0.02508834395438977</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05053828586645202</v>
+        <v>0.03477030030107135</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03757622084455321</v>
+        <v>0.005519393725695833</v>
       </c>
       <c r="I39" t="n">
-        <v>0.008004549812297685</v>
+        <v>0.03545142975223109</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0204982916405345</v>
+        <v>0.03185660926653721</v>
       </c>
       <c r="K39" t="n">
-        <v>0.08083716721994384</v>
+        <v>0.07398525710159612</v>
       </c>
       <c r="L39" t="n">
-        <v>0.009161999011297274</v>
+        <v>0.008183115658897691</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02486164646508015</v>
+        <v>0.01537678201995284</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02588029031487666</v>
+        <v>0.03610570056479817</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02073121398739211</v>
+        <v>0.02089636636303459</v>
       </c>
       <c r="P39" t="n">
-        <v>0.06913333497906642</v>
+        <v>0.08504835478110249</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01927090401404684</v>
+        <v>0.004494199000561164</v>
       </c>
       <c r="R39" t="n">
-        <v>0.003230970296729027</v>
+        <v>0.0474880466499473</v>
       </c>
       <c r="S39" t="n">
-        <v>0.000819319383662724</v>
+        <v>0.05127416510784231</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02100863429228983</v>
+        <v>0.003554307589119093</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02260846689681358</v>
+        <v>0.03960513206179267</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03660633276420035</v>
+        <v>0.05589466563893319</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08669712562179711</v>
+        <v>0.08119111410530305</v>
       </c>
       <c r="X39" t="n">
-        <v>0.006920672141343683</v>
+        <v>0.03157300588387357</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.008456809128915574</v>
+        <v>0.01939864479387582</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07771094481864438</v>
+        <v>0.01317168487340425</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.07034097210295265</v>
+        <v>0.08285596341155954</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.04680984693625102</v>
+        <v>0.02036030966778134</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.006912522439060217</v>
+        <v>0.02061744163550943</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.01367442491986879</v>
+        <v>0.05370703833411197</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.05441012468240965</v>
+        <v>0.01592011390869257</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.07419216529888199</v>
+        <v>0.04093533100166316</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.04033196508947019</v>
+        <v>0.04567718284672249</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.01732141904150066</v>
+        <v>0.02803576245557972</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1267847718877209</v>
+        <v>0.127610609934419</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06346494844346966</v>
+        <v>0.03045104145975327</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02978720218631015</v>
+        <v>0.005144950827183897</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07861294290994034</v>
+        <v>0.05483212122077654</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02363017501795773</v>
+        <v>0.03669964011498984</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002424868940308321</v>
+        <v>0.001618282424102982</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03509200795596951</v>
+        <v>0.009046528473411523</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01953082136630575</v>
+        <v>0.02736802306313479</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04124397426365876</v>
+        <v>0.006309071088448592</v>
       </c>
       <c r="N40" t="n">
-        <v>0.07839925539483011</v>
+        <v>0.05329750800588212</v>
       </c>
       <c r="O40" t="n">
-        <v>0.003185239269760655</v>
+        <v>0.01269075184422347</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0005989076097424966</v>
+        <v>0.002878145453947723</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.004329492805860253</v>
+        <v>0.005899132308895295</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01802519765100701</v>
+        <v>0.01506955902029681</v>
       </c>
       <c r="S40" t="n">
-        <v>0.002997312060780595</v>
+        <v>0.04379509913840075</v>
       </c>
       <c r="T40" t="n">
-        <v>0.07060277869097363</v>
+        <v>0.07951415232143964</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008886350939518447</v>
+        <v>0.01100304317631228</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05671177959253572</v>
+        <v>0.02781360403055849</v>
       </c>
       <c r="W40" t="n">
-        <v>0.05276287601910438</v>
+        <v>0.067757214531183</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0007016765092087663</v>
+        <v>0.009278683060976791</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.05384016696520036</v>
+        <v>0.07795951667269249</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.04609494888756284</v>
+        <v>0.006102133183850445</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0001914752170925606</v>
+        <v>0.01717496360829578</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.07772741125093205</v>
+        <v>0.06164724846377517</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.02283327857381792</v>
+        <v>0.07698547245477695</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.01280481401128879</v>
+        <v>0.05117818165517511</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0792867542376933</v>
+        <v>0.06336569159692054</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.03459493072868</v>
+        <v>0.06461391937244981</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.08163841250048982</v>
+        <v>0.0805063214281459</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.03780859928789656</v>
+        <v>0.03902007913684925</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1421064899197798</v>
+        <v>0.1402187926559002</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06318225709219728</v>
+        <v>0.01092594295165769</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01571531244864167</v>
+        <v>0.005801599800167736</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002728007148415676</v>
+        <v>0.0320097848347476</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04989586926680072</v>
+        <v>0.03173539699512901</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04776600823978645</v>
+        <v>0.01639547486625937</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04127462905185613</v>
+        <v>0.07057691483302192</v>
       </c>
       <c r="L41" t="n">
-        <v>0.03305441790934804</v>
+        <v>0.01161262534608518</v>
       </c>
       <c r="M41" t="n">
-        <v>0.004626974311936897</v>
+        <v>0.01244947691684255</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01563029361115107</v>
+        <v>0.03512712292474234</v>
       </c>
       <c r="O41" t="n">
-        <v>0.003722842642589354</v>
+        <v>0.005179760425478572</v>
       </c>
       <c r="P41" t="n">
-        <v>0.05644027339457601</v>
+        <v>0.03843047649117289</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01366187440755472</v>
+        <v>0.05344778410587312</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02407764765853283</v>
+        <v>0.04638529382693055</v>
       </c>
       <c r="S41" t="n">
-        <v>0.02442920438261134</v>
+        <v>0.004333496693516735</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01717631240175936</v>
+        <v>0.07247617743273294</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02654953414700603</v>
+        <v>0.04151229618270347</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0144479893756558</v>
+        <v>0.01449132081242788</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07136296105379838</v>
+        <v>0.06945415979552612</v>
       </c>
       <c r="X41" t="n">
-        <v>0.04900598887713829</v>
+        <v>0.05424183898477445</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.07121112641145871</v>
+        <v>0.04408861917364638</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.06759397442029041</v>
+        <v>0.069492894580268</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0341809177011826</v>
+        <v>0.06908194931425783</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01432458291992704</v>
+        <v>0.005912577112758124</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.06237346623149792</v>
+        <v>0.02981972151521883</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.07330718245910224</v>
+        <v>0.07043425576679735</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.02604917027123299</v>
+        <v>0.04475605745913343</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.07216105320978658</v>
+        <v>0.008610324811192865</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.004050128954165531</v>
+        <v>0.03121665604693704</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.06406169515621545</v>
+        <v>0.04347450803869471</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1269091364383806</v>
+        <v>0.1280266698503249</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03420341283926458</v>
+        <v>0.02093290884390334</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07166425158625614</v>
+        <v>0.04020240139908692</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03052037911318461</v>
+        <v>0.03707971359048291</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0003750583008246074</v>
+        <v>0.003589589028217977</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00857261767337811</v>
+        <v>0.001396806089425318</v>
       </c>
       <c r="K42" t="n">
-        <v>0.05421784291092267</v>
+        <v>0.04287566504713272</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03109462875192571</v>
+        <v>0.01319022529186373</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02442936374181029</v>
+        <v>0.01670816833102122</v>
       </c>
       <c r="N42" t="n">
-        <v>0.05346041804830843</v>
+        <v>0.04917338343067915</v>
       </c>
       <c r="O42" t="n">
-        <v>0.007229733426783186</v>
+        <v>0.0315757965500745</v>
       </c>
       <c r="P42" t="n">
-        <v>0.009323977091196199</v>
+        <v>0.04455268247643336</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02012822496139964</v>
+        <v>0.06155993331573802</v>
       </c>
       <c r="R42" t="n">
-        <v>0.01756852504672642</v>
+        <v>0.03630079497650979</v>
       </c>
       <c r="S42" t="n">
-        <v>0.03908251187945579</v>
+        <v>0.02003746958651432</v>
       </c>
       <c r="T42" t="n">
-        <v>0.06006780717657596</v>
+        <v>0.05802761896991693</v>
       </c>
       <c r="U42" t="n">
-        <v>0.001597334650647952</v>
+        <v>0.00862881049606311</v>
       </c>
       <c r="V42" t="n">
-        <v>0.03260775375300083</v>
+        <v>0.0630465386510929</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06795172089046012</v>
+        <v>0.05063291331080284</v>
       </c>
       <c r="X42" t="n">
-        <v>0.06132813637046301</v>
+        <v>0.05699898340386159</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.03674677643133317</v>
+        <v>0.005203896471261796</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.007536634024669568</v>
+        <v>0.02571052919275364</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.01447007582245872</v>
+        <v>0.02026139272121822</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0518875182371496</v>
+        <v>0.05719729978627464</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.05305407209677281</v>
+        <v>0.03315548655905497</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.04549637663221164</v>
+        <v>0.03815035615456572</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.06255012631443076</v>
+        <v>0.06349119626350368</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.03408309501162143</v>
+        <v>0.0383188912551156</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.06875162721676813</v>
+        <v>0.06200054880743121</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.07359774297901649</v>
+        <v>0.06842678246543014</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1614690487875511</v>
+        <v>0.1415290596925071</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05587025307734525</v>
+        <v>0.05387423402300628</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01645787871105266</v>
+        <v>0.002189286929333354</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06148593262693541</v>
+        <v>0.02169324969036178</v>
       </c>
       <c r="I43" t="n">
-        <v>0.004515226886317308</v>
+        <v>0.01056111308288115</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0587221636580707</v>
+        <v>0.06800525733306734</v>
       </c>
       <c r="K43" t="n">
-        <v>0.000884795824933595</v>
+        <v>0.05684327625016228</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04337495641943184</v>
+        <v>0.04313577410660365</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01586980839214315</v>
+        <v>0.001676134314203234</v>
       </c>
       <c r="N43" t="n">
-        <v>0.009829095071263391</v>
+        <v>0.02867849047943274</v>
       </c>
       <c r="O43" t="n">
-        <v>0.03916286923600186</v>
+        <v>0.0365111500256146</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01954057594833647</v>
+        <v>0.0415515100171245</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0285471252114704</v>
+        <v>0.05949288315658886</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01022180118483233</v>
+        <v>0.04555590768412387</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02701430828500369</v>
+        <v>0.0190240625909332</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03326341556270725</v>
+        <v>0.04679734802878411</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03060119030181667</v>
+        <v>0.01215490513077822</v>
       </c>
       <c r="V43" t="n">
-        <v>0.001853760891140568</v>
+        <v>0.02368121132005639</v>
       </c>
       <c r="W43" t="n">
-        <v>0.07433402567993748</v>
+        <v>0.04623676722013369</v>
       </c>
       <c r="X43" t="n">
-        <v>0.09834765262816197</v>
+        <v>0.06978411692564353</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.03164220786898239</v>
+        <v>0.0548427991081983</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0408766857184943</v>
+        <v>0.07322587983054389</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.01945395358301428</v>
+        <v>0.003863650768952564</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02364333107929605</v>
+        <v>0.008428088525953639</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.02662907274113524</v>
+        <v>0.008105253918397164</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.08547572752523074</v>
+        <v>0.0553896286274809</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.001275949980468907</v>
+        <v>0.0266528352281888</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.06677156716319051</v>
+        <v>0.02247761699157733</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.07433466874328566</v>
+        <v>0.05956756869187466</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.09458736872839441</v>
+        <v>0.09297877292998123</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1213597965676396</v>
+        <v>0.1218941817315218</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0009984853095199176</v>
+        <v>0.02912221410319974</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004012247500568256</v>
+        <v>0.005308472855046643</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02107306085253799</v>
+        <v>0.01297103585031574</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02420420068284846</v>
+        <v>0.05623577936546067</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01589818374470396</v>
+        <v>0.009877076843732055</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03357838488215069</v>
+        <v>0.009774974472106865</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0139026143596419</v>
+        <v>0.009680410533411577</v>
       </c>
       <c r="M44" t="n">
-        <v>0.003297118797416252</v>
+        <v>0.0504724277800466</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0863259382571072</v>
+        <v>0.07713183770712843</v>
       </c>
       <c r="O44" t="n">
-        <v>0.01378964624077617</v>
+        <v>0.005991076648039876</v>
       </c>
       <c r="P44" t="n">
-        <v>0.001484421844993016</v>
+        <v>0.04501960475156771</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0171555618120057</v>
+        <v>0.04946949726634056</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07628598326605332</v>
+        <v>0.04025736062091262</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06507769889013315</v>
+        <v>0.001284525753136338</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03261761842102678</v>
+        <v>0.009631759313552554</v>
       </c>
       <c r="U44" t="n">
-        <v>0.003757953010594879</v>
+        <v>0.02007735491897214</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07289152926763241</v>
+        <v>0.07818812466250255</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05054580863825907</v>
+        <v>0.001540601450829469</v>
       </c>
       <c r="X44" t="n">
-        <v>0.08219640781571229</v>
+        <v>0.00462145086720994</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.02579622668494786</v>
+        <v>0.04234032689854202</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.003671060508839471</v>
+        <v>0.04428732955700355</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.06071096873686254</v>
+        <v>0.05056496131188609</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.07259605383956101</v>
+        <v>0.05221178714478469</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.04726918962970904</v>
+        <v>0.02636863315144111</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.08720174363697643</v>
+        <v>0.0621636626357267</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.02841354229566197</v>
+        <v>0.07950121250626618</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.005317966361348686</v>
+        <v>0.08213282238370558</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.04993038471241159</v>
+        <v>0.04377367864713185</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1118283218561764</v>
+        <v>0.108297966497502</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1411567678694592</v>
+        <v>0.140293843706545</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01908720529888206</v>
+        <v>0.009076326096596253</v>
       </c>
       <c r="G45" t="n">
-        <v>0.004098435331280187</v>
+        <v>0.02459439163346013</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03414020097714473</v>
+        <v>0.04515746365099894</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06489078536731442</v>
+        <v>0.07337291208316782</v>
       </c>
       <c r="J45" t="n">
-        <v>0.06688738126801967</v>
+        <v>0.08229914924211161</v>
       </c>
       <c r="K45" t="n">
-        <v>0.02945564416663883</v>
+        <v>0.03004226891020815</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02389905190583787</v>
+        <v>0.01613394059867888</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001691519254920713</v>
+        <v>0.001074716820425926</v>
       </c>
       <c r="N45" t="n">
-        <v>0.004351964421068671</v>
+        <v>0.02376898528711748</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02498863342976111</v>
+        <v>0.02979412879426938</v>
       </c>
       <c r="P45" t="n">
-        <v>0.06559445092686847</v>
+        <v>0.06496036552330452</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.05745401438833193</v>
+        <v>0.005547327162371126</v>
       </c>
       <c r="R45" t="n">
-        <v>0.02190930766212652</v>
+        <v>0.04523881432410026</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01179745779127829</v>
+        <v>0.004017156198006748</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01763851910528794</v>
+        <v>0.02912065441435668</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04805431104770273</v>
+        <v>0.04893927769413006</v>
       </c>
       <c r="V45" t="n">
-        <v>0.03123401745441837</v>
+        <v>0.01049368492052213</v>
       </c>
       <c r="W45" t="n">
-        <v>0.08605543250967079</v>
+        <v>0.05951689326201778</v>
       </c>
       <c r="X45" t="n">
-        <v>0.05759344345071502</v>
+        <v>0.02012582925654329</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07628104359168349</v>
+        <v>0.07743972217388766</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0551885100268706</v>
+        <v>0.05585192181485332</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.004111300527609001</v>
+        <v>0.004952258429469887</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01869864899135418</v>
+        <v>0.02936418116884634</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.01995178323398229</v>
+        <v>0.05964581510003749</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.07312566947029675</v>
+        <v>0.08160380339871996</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.01034134046201554</v>
+        <v>0.001200225070613155</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.06986680896394891</v>
+        <v>0.02356364506558727</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.001613118974970811</v>
+        <v>0.04310414190559804</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1374645223080292</v>
+        <v>0.1461395343454001</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.113772816406302</v>
+        <v>0.1144034091807437</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03225029770990166</v>
+        <v>0.0762876838107874</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02022231664250412</v>
+        <v>0.02283498650905883</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04993964770575358</v>
+        <v>0.05439860907441742</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01154211363837382</v>
+        <v>0.001955744153854572</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0005929127579467199</v>
+        <v>0.001031882259565648</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01309375415691124</v>
+        <v>0.00311155295542931</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04198354489154477</v>
+        <v>0.01101723626182904</v>
       </c>
       <c r="M46" t="n">
-        <v>0.008982624675000722</v>
+        <v>0.01686109189207524</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04665912323616202</v>
+        <v>0.0231820555740518</v>
       </c>
       <c r="O46" t="n">
-        <v>0.002648183505701067</v>
+        <v>0.03011617338618987</v>
       </c>
       <c r="P46" t="n">
-        <v>0.03239524132866551</v>
+        <v>0.06233419858539659</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05999998571437757</v>
+        <v>0.05296951173255842</v>
       </c>
       <c r="R46" t="n">
-        <v>0.04803392027477496</v>
+        <v>0.06196907965994542</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01262322630253477</v>
+        <v>0.02157864799019548</v>
       </c>
       <c r="T46" t="n">
-        <v>0.034871155261724</v>
+        <v>0.07641443753430736</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01636351357201892</v>
+        <v>0.008311173934295703</v>
       </c>
       <c r="V46" t="n">
-        <v>0.04860500767931416</v>
+        <v>0.0728005608991724</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04804309014195419</v>
+        <v>0.03064201832614582</v>
       </c>
       <c r="X46" t="n">
-        <v>0.01427622740130466</v>
+        <v>0.05860215606967904</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05869381731884951</v>
+        <v>0.0829176838435553</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.06270126570978615</v>
+        <v>0.05220161212356312</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05911809564652194</v>
+        <v>0.01380602013704804</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.07300463383121811</v>
+        <v>0.04671501246866775</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.06164817526173975</v>
+        <v>0.03448306845642487</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.03176301571950785</v>
+        <v>0.01240330931833885</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.02784229366368991</v>
+        <v>0.03923142049638279</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.07191930624552836</v>
+        <v>0.01779358323586952</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.01018351000668991</v>
+        <v>0.01402948931119468</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.01788258394414319</v>
+        <v>-0.03132388572532004</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1378342119882282</v>
+        <v>0.1344585286124745</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06834911599322346</v>
+        <v>0.0708497168523578</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01372698056545203</v>
+        <v>0.04290725403951044</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06416691045655103</v>
+        <v>0.02463437791349528</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0456431377183984</v>
+        <v>0.02098444396032855</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01401708065085254</v>
+        <v>0.001223667571917895</v>
       </c>
       <c r="K47" t="n">
-        <v>0.003129986745594867</v>
+        <v>0.03016167521341014</v>
       </c>
       <c r="L47" t="n">
-        <v>0.002876945261735841</v>
+        <v>0.009902640301335943</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02745731806495997</v>
+        <v>0.03717769240417904</v>
       </c>
       <c r="N47" t="n">
-        <v>0.04401840996486921</v>
+        <v>0.01375301719181342</v>
       </c>
       <c r="O47" t="n">
-        <v>0.005547250397127162</v>
+        <v>0.008632246207837747</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0657653900704309</v>
+        <v>0.05568400793271733</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05821230725154884</v>
+        <v>0.0513926162193389</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03630000947790754</v>
+        <v>0.00205760356692959</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01468578591166433</v>
+        <v>0.007632365462779184</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02059173927528408</v>
+        <v>0.0851299154554496</v>
       </c>
       <c r="U47" t="n">
-        <v>0.04298319895973794</v>
+        <v>0.078445438965209</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0004011914042238344</v>
+        <v>0.03671649450879574</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03642644134626447</v>
+        <v>0.0006388127845984819</v>
       </c>
       <c r="X47" t="n">
-        <v>0.05529836988047934</v>
+        <v>0.05240871527516969</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01095412688517794</v>
+        <v>0.00392681927123282</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.04972090213970553</v>
+        <v>0.09810616037901611</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.04213467332218854</v>
+        <v>0.0580816411572356</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.04158434765071562</v>
+        <v>0.008580045455702347</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0380627111701099</v>
+        <v>0.01173143847584735</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.07081225042235575</v>
+        <v>0.08732175464760922</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0427382945293656</v>
+        <v>0.07425878469767397</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.01027296786673925</v>
+        <v>0.001121493699614636</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.07412215661733626</v>
+        <v>0.02653916038889416</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.01631763662681298</v>
+        <v>0.01447852434865053</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.09582395158848979</v>
+        <v>0.09685994657970885</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06399594826872876</v>
+        <v>0.01430655494291933</v>
       </c>
       <c r="G48" t="n">
-        <v>0.005340319319977466</v>
+        <v>0.0007362128517328637</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01238825944871521</v>
+        <v>0.03990898298113436</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02995773890070861</v>
+        <v>0.0632604902052966</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01146317919997992</v>
+        <v>0.03510424202115408</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02407233315105046</v>
+        <v>0.00184653794952646</v>
       </c>
       <c r="L48" t="n">
-        <v>0.04374724960087378</v>
+        <v>0.0221534474056912</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04876904881707356</v>
+        <v>0.08460049323950752</v>
       </c>
       <c r="N48" t="n">
-        <v>0.03429961522673154</v>
+        <v>0.07622223359346143</v>
       </c>
       <c r="O48" t="n">
-        <v>0.05228507799701673</v>
+        <v>0.01126318224620932</v>
       </c>
       <c r="P48" t="n">
-        <v>0.03709866107312444</v>
+        <v>0.05640452505642218</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.006489978283054756</v>
+        <v>0.04830177193341197</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03103721989147365</v>
+        <v>0.01479911609508954</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01532181199365343</v>
+        <v>0.006352288587545174</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01828614591462133</v>
+        <v>0.01555589391644033</v>
       </c>
       <c r="U48" t="n">
-        <v>0.02062758379954565</v>
+        <v>0.01087508963995375</v>
       </c>
       <c r="V48" t="n">
-        <v>0.08240965446322068</v>
+        <v>0.0481742492672989</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07755951516672897</v>
+        <v>0.05124259842026468</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04349118495673111</v>
+        <v>0.02537931424779304</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.05669740660429232</v>
+        <v>0.07865278849067785</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.004276797473149008</v>
+        <v>0.002282360808244012</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01376409268142909</v>
+        <v>0.01445455271975361</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.06136271072114962</v>
+        <v>0.07867983167950414</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.04878819425822273</v>
+        <v>0.03655868700444312</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.004832750553982542</v>
+        <v>0.003763867103095011</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.06986022197204614</v>
+        <v>0.07778022208795965</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.01474701232382533</v>
+        <v>0.08054745851812505</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.06703028793889312</v>
+        <v>0.0007930069873448404</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.006451910443179554</v>
+        <v>0.02387604621182151</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1102748098227506</v>
+        <v>0.1143859291031693</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06346990993101134</v>
+        <v>0.06775118523267067</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01041832440128106</v>
+        <v>0.037534076118756</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0673844687578924</v>
+        <v>0.05518952760284273</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07609630687181196</v>
+        <v>0.07074310125230857</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03551644464405972</v>
+        <v>0.06636428634514378</v>
       </c>
       <c r="K49" t="n">
-        <v>0.006098879844264315</v>
+        <v>0.02455426080976458</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07695526952179869</v>
+        <v>0.04033179177897213</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01757357837347285</v>
+        <v>0.05008219464853508</v>
       </c>
       <c r="N49" t="n">
-        <v>0.04469535747138169</v>
+        <v>0.007866776794716835</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02143687123156479</v>
+        <v>0.07092060289002493</v>
       </c>
       <c r="P49" t="n">
-        <v>0.06796169625121026</v>
+        <v>0.01913279386395322</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02588397901204804</v>
+        <v>0.05561709649582887</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01041253179724114</v>
+        <v>0.02097991898386863</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0462887560691258</v>
+        <v>0.02097205949176345</v>
       </c>
       <c r="T49" t="n">
-        <v>0.002516590227133272</v>
+        <v>0.003951251156543706</v>
       </c>
       <c r="U49" t="n">
-        <v>0.02502443331366727</v>
+        <v>0.03671478126956879</v>
       </c>
       <c r="V49" t="n">
-        <v>0.006625387471110081</v>
+        <v>0.003696904021086379</v>
       </c>
       <c r="W49" t="n">
-        <v>0.07370575444028855</v>
+        <v>0.04649812833881506</v>
       </c>
       <c r="X49" t="n">
-        <v>0.002048379650281191</v>
+        <v>0.05000692354014353</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.04804405650377189</v>
+        <v>0.04252384676349751</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0390600564876125</v>
+        <v>0.06529648142570406</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.03676620027829684</v>
+        <v>0.02468363892220945</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.05027850318658661</v>
+        <v>0.01356198929298686</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07194213797544891</v>
+        <v>0.02345369632969998</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.00392268051035233</v>
+        <v>0.006442913925773879</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.03704465655463286</v>
+        <v>0.003432735341890218</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.005250126795106187</v>
+        <v>0.02078765703773625</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0275786624275474</v>
+        <v>0.05090938032519477</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.007479637515932462</v>
+        <v>-0.03567086426775265</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1094768352541094</v>
+        <v>0.1102548570032207</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02250522550280374</v>
+        <v>0.04813100520769831</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04398645593444905</v>
+        <v>0.006140183494446778</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01687792804589556</v>
+        <v>0.02547772711370911</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01747482062536229</v>
+        <v>0.003986449151897884</v>
       </c>
       <c r="J50" t="n">
-        <v>0.001934288440402551</v>
+        <v>0.05253079284232991</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01861668824852966</v>
+        <v>0.01171911811485658</v>
       </c>
       <c r="L50" t="n">
-        <v>0.03443521046791432</v>
+        <v>0.01005689634001318</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0391289431317705</v>
+        <v>0.05213930875766656</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05213348316130995</v>
+        <v>0.0260124992789788</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0001271178005878993</v>
+        <v>0.01170629602844647</v>
       </c>
       <c r="P50" t="n">
-        <v>0.04121257670781291</v>
+        <v>0.04171423805745388</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04310071694825503</v>
+        <v>0.03257551512248622</v>
       </c>
       <c r="R50" t="n">
-        <v>0.03549993942935712</v>
+        <v>0.07101009798487794</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0003068807221546113</v>
+        <v>0.0108888930894055</v>
       </c>
       <c r="T50" t="n">
-        <v>0.07464978042794047</v>
+        <v>0.06018854080148341</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0493757327716485</v>
+        <v>0.02421123872642942</v>
       </c>
       <c r="V50" t="n">
-        <v>0.07147677715301907</v>
+        <v>0.06332643630450931</v>
       </c>
       <c r="W50" t="n">
-        <v>0.05139819812242154</v>
+        <v>0.06446780236784433</v>
       </c>
       <c r="X50" t="n">
-        <v>0.03208714950045121</v>
+        <v>0.04246440864517829</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.04926311774749118</v>
+        <v>0.05438517979482405</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.04913566473257244</v>
+        <v>0.0003359962363927544</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.007828417422585667</v>
+        <v>0.02576495995866942</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.07310532125441774</v>
+        <v>0.04819252302197857</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.04807232914553906</v>
+        <v>0.07173437353194317</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.03545851810039449</v>
+        <v>0.06395908497043516</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.03351559047727374</v>
+        <v>0.06110524338852554</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.01237880453290222</v>
+        <v>0.003712930751527033</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.04491432344473743</v>
+        <v>0.01206226091599236</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1451815521305615</v>
+        <v>0.1339483305454487</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.12421537320672</v>
+        <v>0.1261790867651966</v>
       </c>
       <c r="F51" t="n">
-        <v>0.006972344295749693</v>
+        <v>0.03142760889797083</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02533552685574397</v>
+        <v>0.01365349991147042</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01999125029372045</v>
+        <v>0.05111288277906845</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05773076864019502</v>
+        <v>0.08192286489446919</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01977007646908995</v>
+        <v>0.01026035000795588</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07778358795790988</v>
+        <v>0.01983642715272763</v>
       </c>
       <c r="L51" t="n">
-        <v>0.08093690305775209</v>
+        <v>0.08286156421191444</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04330831352789272</v>
+        <v>0.001522796493756347</v>
       </c>
       <c r="N51" t="n">
-        <v>0.07567605335617719</v>
+        <v>0.08371249876111515</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01022205133068838</v>
+        <v>0.01239532440931941</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01518005401073142</v>
+        <v>0.0150240949112701</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.03209635009772836</v>
+        <v>0.08975780345338175</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01183667627142468</v>
+        <v>0.006089150067070094</v>
       </c>
       <c r="S51" t="n">
-        <v>0.07548914338631507</v>
+        <v>0.04906167048134873</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01800300983548589</v>
+        <v>0.01107439513553827</v>
       </c>
       <c r="U51" t="n">
-        <v>0.000823945408384556</v>
+        <v>0.004308262363192271</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08403064379470383</v>
+        <v>0.05900448891841095</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02325371325375871</v>
+        <v>0.006557535747338644</v>
       </c>
       <c r="X51" t="n">
-        <v>0.002196019739509482</v>
+        <v>0.03826010500658265</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.04509219165579117</v>
+        <v>0.06926713981419379</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.06334685993568551</v>
+        <v>0.07893563817682214</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0001112835351551735</v>
+        <v>0.05253454712995855</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.00945493485033801</v>
+        <v>0.004486294415225295</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.00590261368132533</v>
+        <v>0.04203867777825487</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.08128601598140846</v>
+        <v>0.02649334123813364</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.04785684639707488</v>
+        <v>0.02327317147494895</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.01719527734579454</v>
+        <v>0.004073618589595527</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.04911754503446548</v>
+        <v>0.03105424777896617</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1312532862187258</v>
+        <v>0.1676184125611271</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1306503776178724</v>
+        <v>0.1303789179940797</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003639759567268506</v>
+        <v>0.02819577047023312</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05292695865302147</v>
+        <v>0.052180348582861</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00375372059908331</v>
+        <v>0.001287880081020635</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08434649124301399</v>
+        <v>0.01812437462526756</v>
       </c>
       <c r="J52" t="n">
-        <v>0.001430184584344932</v>
+        <v>0.007044193357444236</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02073326252475434</v>
+        <v>0.008246545789239012</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0345649712669697</v>
+        <v>0.04151273437942928</v>
       </c>
       <c r="M52" t="n">
-        <v>0.008480061786579699</v>
+        <v>0.06947932393165289</v>
       </c>
       <c r="N52" t="n">
-        <v>0.006084881975480605</v>
+        <v>0.008688291995988855</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05137554485168735</v>
+        <v>0.004793090071913176</v>
       </c>
       <c r="P52" t="n">
-        <v>0.03329418890866382</v>
+        <v>0.01134321234985633</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01235421959414836</v>
+        <v>0.0280052681211133</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05791697395993213</v>
+        <v>0.07275848973683553</v>
       </c>
       <c r="S52" t="n">
-        <v>0.04640192252791583</v>
+        <v>0.08036302694734163</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0695074952204674</v>
+        <v>0.07611514533724929</v>
       </c>
       <c r="U52" t="n">
-        <v>0.07998322072697488</v>
+        <v>0.07240894807024002</v>
       </c>
       <c r="V52" t="n">
-        <v>0.008026162072076815</v>
+        <v>0.03346778613781419</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05820503166529296</v>
+        <v>0.02456878120240099</v>
       </c>
       <c r="X52" t="n">
-        <v>0.02505454739669051</v>
+        <v>0.03653121035549444</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.01929648160644687</v>
+        <v>0.01896152785251986</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.004124010439036254</v>
+        <v>0.0251641481237202</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.01907135674011559</v>
+        <v>0.01611816733098112</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01718517538459885</v>
+        <v>0.01737931091912327</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.01736583657719153</v>
+        <v>0.03428304063418318</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.06784462900531697</v>
+        <v>0.01280745839411335</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.07781879753650807</v>
+        <v>0.08438835716584341</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.0567691332228582</v>
+        <v>0.07569089375508059</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.06244498036356101</v>
+        <v>0.04009267428103946</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.06978044798291895</v>
+        <v>0.07550638965485255</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1448113011750067</v>
+        <v>0.1479265816662577</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07146215515168744</v>
+        <v>0.03705051363748289</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05268098898454323</v>
+        <v>0.03357526814470705</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07164538818640427</v>
+        <v>0.03262220655966483</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06753760654183842</v>
+        <v>0.01235061392722333</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01342807459363137</v>
+        <v>0.01120705013612232</v>
       </c>
       <c r="K53" t="n">
-        <v>0.00503841463074835</v>
+        <v>0.07226697392060998</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05271347991895693</v>
+        <v>0.07844403468467512</v>
       </c>
       <c r="M53" t="n">
-        <v>0.004749540116780459</v>
+        <v>0.01528781905879618</v>
       </c>
       <c r="N53" t="n">
-        <v>0.00258119112614608</v>
+        <v>0.003084143306961163</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0128582586459487</v>
+        <v>0.009631229442174769</v>
       </c>
       <c r="P53" t="n">
-        <v>0.006535298065121329</v>
+        <v>0.006667332939102169</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.07345797928558831</v>
+        <v>0.02512055569891979</v>
       </c>
       <c r="R53" t="n">
-        <v>0.003710841058214026</v>
+        <v>0.06742993628590015</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06746336616624415</v>
+        <v>0.01628167707138932</v>
       </c>
       <c r="T53" t="n">
-        <v>0.00998196368955777</v>
+        <v>0.08527079163237299</v>
       </c>
       <c r="U53" t="n">
-        <v>0.01379278082514194</v>
+        <v>0.04232146352455416</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0325681795855429</v>
+        <v>0.01662717250296116</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0248053780610433</v>
+        <v>0.04624315491450733</v>
       </c>
       <c r="X53" t="n">
-        <v>0.01507952185739934</v>
+        <v>0.01182437144107656</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.05751612086733626</v>
+        <v>0.07912809761353165</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.07089811749386189</v>
+        <v>0.05102724175417035</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.05229697430784461</v>
+        <v>0.02449569934630809</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.04768746279066646</v>
+        <v>0.08468218297366209</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.02442402923737608</v>
+        <v>0.02653481898118387</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.03488732584528891</v>
+        <v>0.000212598832378787</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.06651875665978174</v>
+        <v>0.08774959556413078</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.02343095791966311</v>
+        <v>0.002668464213547999</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.02024984838764257</v>
+        <v>0.02019499189188521</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.09167221098406446</v>
+        <v>0.06303307697874916</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1429739260476</v>
+        <v>0.1511369991619267</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01061799661083363</v>
+        <v>0.009525236852141575</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00290877838364463</v>
+        <v>0.004638055372155391</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01352619904549796</v>
+        <v>0.08218675881542882</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06166047370911863</v>
+        <v>0.03615382587136726</v>
       </c>
       <c r="J54" t="n">
-        <v>0.009100814296031153</v>
+        <v>0.02863453686427151</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04490791097486083</v>
+        <v>0.0785909481459698</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01853387300711149</v>
+        <v>0.0391643832416995</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04972195474014788</v>
+        <v>0.07213790897392171</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05188438485511736</v>
+        <v>0.0006155576013394381</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0004739710978664122</v>
+        <v>0.01460198692134002</v>
       </c>
       <c r="P54" t="n">
-        <v>0.03869583599230043</v>
+        <v>0.01531115641183754</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0341435373074746</v>
+        <v>0.006659092195256865</v>
       </c>
       <c r="R54" t="n">
-        <v>0.05317392471525116</v>
+        <v>0.05217116316369327</v>
       </c>
       <c r="S54" t="n">
-        <v>0.02045621188554017</v>
+        <v>0.03625404426571025</v>
       </c>
       <c r="T54" t="n">
-        <v>0.008378929420642512</v>
+        <v>0.03844773982834915</v>
       </c>
       <c r="U54" t="n">
-        <v>0.006720147001030728</v>
+        <v>0.01889138844471876</v>
       </c>
       <c r="V54" t="n">
-        <v>0.06034744420367027</v>
+        <v>0.06527887975766077</v>
       </c>
       <c r="W54" t="n">
-        <v>0.06113405249265258</v>
+        <v>0.0608519837148707</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0407512242043424</v>
+        <v>0.03852704666666405</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.06380384451960731</v>
+        <v>0.01231919429539395</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01059199716374973</v>
+        <v>0.0333006842426388</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.0314842344625904</v>
+        <v>0.02023347215354381</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0140950772683727</v>
+        <v>0.01789669022997216</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.06227550230636461</v>
+        <v>0.07493121475801288</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.04137108603304111</v>
+        <v>0.02704592672027105</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.06045371236009452</v>
+        <v>0.07134061575462901</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.05936846268320298</v>
+        <v>0.01950747564438593</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.06941841925984199</v>
+        <v>0.02478303309275597</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1532919957480298</v>
+        <v>-0.1324748939848182</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1738787642022041</v>
+        <v>0.2148051988143882</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07582991594974717</v>
+        <v>0.08058650905843381</v>
       </c>
       <c r="G55" t="n">
-        <v>6.74003042551707e-05</v>
+        <v>0.004146463003498675</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05318485383176723</v>
+        <v>0.05159507242447724</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0712071574553971</v>
+        <v>0.02745538429473315</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01008204821007658</v>
+        <v>0.00544217723405868</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03901676200477822</v>
+        <v>0.04604398548521388</v>
       </c>
       <c r="L55" t="n">
-        <v>0.005324930640342955</v>
+        <v>0.006965696835609774</v>
       </c>
       <c r="M55" t="n">
-        <v>0.007359662263244654</v>
+        <v>0.03731833196532442</v>
       </c>
       <c r="N55" t="n">
-        <v>0.07466383085984696</v>
+        <v>0.0115684855739548</v>
       </c>
       <c r="O55" t="n">
-        <v>0.02734257202064199</v>
+        <v>0.0443026285879941</v>
       </c>
       <c r="P55" t="n">
-        <v>0.03825622276446582</v>
+        <v>0.01890291625542619</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03229403473498051</v>
+        <v>0.03168313900846045</v>
       </c>
       <c r="R55" t="n">
-        <v>0.06920580122083565</v>
+        <v>0.0009553394024042217</v>
       </c>
       <c r="S55" t="n">
-        <v>0.02695898254324094</v>
+        <v>0.08127504799732339</v>
       </c>
       <c r="T55" t="n">
-        <v>0.005606775819282441</v>
+        <v>0.06400564624260818</v>
       </c>
       <c r="U55" t="n">
-        <v>0.03440762916074028</v>
+        <v>0.03259789295567767</v>
       </c>
       <c r="V55" t="n">
-        <v>0.06439631855940628</v>
+        <v>0.04925388610719142</v>
       </c>
       <c r="W55" t="n">
-        <v>0.006832224739035764</v>
+        <v>0.008960009216143665</v>
       </c>
       <c r="X55" t="n">
-        <v>0.009453312770875757</v>
+        <v>0.002371711822584697</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.01545863206267412</v>
+        <v>0.03573739035552644</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.06732380050737144</v>
+        <v>0.08681532193322618</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.07117373793554738</v>
+        <v>0.04009627981782667</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.02356937227570989</v>
+        <v>0.08624370911750558</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0148787870489822</v>
+        <v>0.08356710547551528</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.03492257552090673</v>
+        <v>0.01836663440023209</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.05660682473845771</v>
+        <v>0.02003667814997916</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.03658013959528311</v>
+        <v>0.006774717537241021</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.02799569446210603</v>
+        <v>0.01693183974182924</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.1231604147576212</v>
+        <v>-0.07906336710736574</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2233412779231987</v>
+        <v>0.2225904850983372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0264203650743251</v>
+        <v>0.01646023449306328</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04577914744132867</v>
+        <v>0.08255630258989445</v>
       </c>
       <c r="H56" t="n">
-        <v>0.009154375609954758</v>
+        <v>0.01684873936974132</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01970802302990039</v>
+        <v>0.004621279051972245</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0466822756480056</v>
+        <v>0.007398653452472898</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04932311687793257</v>
+        <v>0.03180109712284645</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03242540150435543</v>
+        <v>0.01939964652715583</v>
       </c>
       <c r="M56" t="n">
-        <v>0.008914558978618002</v>
+        <v>0.002822726171417787</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0155889057735744</v>
+        <v>0.01437414456654328</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01395844459730715</v>
+        <v>0.005869961549283501</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0266401381139978</v>
+        <v>0.002017122640821899</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02375555060256561</v>
+        <v>0.02395531948590408</v>
       </c>
       <c r="R56" t="n">
-        <v>0.04434579827088608</v>
+        <v>0.08609631374327134</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02413801268679606</v>
+        <v>0.01802956384475795</v>
       </c>
       <c r="T56" t="n">
-        <v>0.06667860372192022</v>
+        <v>0.0244185332703705</v>
       </c>
       <c r="U56" t="n">
-        <v>0.05099158224203452</v>
+        <v>0.08188777885928501</v>
       </c>
       <c r="V56" t="n">
-        <v>0.06270727262254659</v>
+        <v>0.06866947929455547</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04648143190798276</v>
+        <v>0.07194885397696323</v>
       </c>
       <c r="X56" t="n">
-        <v>0.02475928178362853</v>
+        <v>0.04820669279524374</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.03221233734603983</v>
+        <v>0.05970266702341674</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.008136721007900851</v>
+        <v>0.0388069062768963</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.03266142815883282</v>
+        <v>0.01250221367577803</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.06543866606093486</v>
+        <v>0.06434923649072964</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.03059163223351563</v>
+        <v>0.02054183828610463</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.01099760083434062</v>
+        <v>0.04660818397746831</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.06302930594005945</v>
+        <v>0.0750536496040841</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.05506751765953013</v>
+        <v>0.004490741500299936</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.06341250427118557</v>
+        <v>0.05056212035965821</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1486912525917697</v>
+        <v>0.1350123256975209</v>
       </c>
     </row>
     <row r="57">
@@ -6670,97 +6670,97 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2380957623934482</v>
+        <v>0.2328490575141187</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08058905758263371</v>
+        <v>0.07065756199827726</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03044411758729062</v>
+        <v>0.07674331729914237</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06689637533505625</v>
+        <v>0.01659794772327432</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01545847969469513</v>
+        <v>0.004725391719218632</v>
       </c>
       <c r="J57" t="n">
-        <v>0.00391444879117298</v>
+        <v>0.008671835065152903</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04183488846250413</v>
+        <v>0.008105834903314419</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02259340966093377</v>
+        <v>0.01632706971404032</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001094736562552596</v>
+        <v>0.04180248944664913</v>
       </c>
       <c r="N57" t="n">
-        <v>0.05268018933305319</v>
+        <v>0.03468914873868337</v>
       </c>
       <c r="O57" t="n">
-        <v>0.03368938265478862</v>
+        <v>0.01550063635888437</v>
       </c>
       <c r="P57" t="n">
-        <v>0.007318864222419143</v>
+        <v>0.03601560456509068</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.010795208302538</v>
+        <v>0.01164605758372152</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02383936710888752</v>
+        <v>0.03439427212375546</v>
       </c>
       <c r="S57" t="n">
-        <v>0.07649656525757031</v>
+        <v>0.02213649960310273</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02716674370889344</v>
+        <v>0.02453957091001746</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02293494888307497</v>
+        <v>0.06650790250325177</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01756280680648071</v>
+        <v>0.04232482796219339</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02948914884733444</v>
+        <v>0.052070696568586</v>
       </c>
       <c r="X57" t="n">
-        <v>0.01184107815717859</v>
+        <v>0.01472578676895471</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02848719335296476</v>
+        <v>0.02542845403043319</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.09710720720833761</v>
+        <v>0.07361841693834141</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.009928468989691757</v>
+        <v>0.03451855151841912</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07736543136286181</v>
+        <v>0.05595580139726484</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.007899756764369452</v>
+        <v>0.02529089849499583</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.02578147788856519</v>
+        <v>0.05568680533838997</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.04178590444248792</v>
+        <v>0.07620337552869581</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.03951162277696636</v>
+        <v>0.004292069963158209</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.09549312025469686</v>
+        <v>0.05082317523499071</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.151498611423235</v>
+        <v>0.151694810763876</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>